--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/PageSetup/TwoPages.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/PageSetup/TwoPages.xlsx
@@ -3369,10 +3369,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="16384" width="9.850625" style="0" customWidth="1"/>
-  </x:cols>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:10">
       <x:c r="A1" s="0" t="s">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/PageSetup/TwoPages.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/PageSetup/TwoPages.xlsx
@@ -3059,14 +3059,21 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -3372,3202 +3379,3202 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:10">
-      <x:c r="A1" s="0" t="s">
+      <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s">
+      <x:c r="B1" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="s">
+      <x:c r="C1" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="0" t="s">
+      <x:c r="D1" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="0" t="s">
+      <x:c r="E1" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="0" t="s">
+      <x:c r="F1" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G1" s="0" t="s">
+      <x:c r="G1" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H1" s="0" t="s">
+      <x:c r="H1" s="1" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I1" s="0" t="s">
+      <x:c r="I1" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J1" s="0" t="s">
+      <x:c r="J1" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:10">
-      <x:c r="A2" s="0" t="s">
+      <x:c r="A2" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
+      <x:c r="B2" s="1" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
+      <x:c r="C2" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
+      <x:c r="D2" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="s">
+      <x:c r="E2" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="s">
+      <x:c r="F2" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="G2" s="0" t="s">
+      <x:c r="G2" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="H2" s="0" t="s">
+      <x:c r="H2" s="1" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="I2" s="0" t="s">
+      <x:c r="I2" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="J2" s="0" t="s">
+      <x:c r="J2" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10">
-      <x:c r="A3" s="0" t="s">
+      <x:c r="A3" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+      <x:c r="B3" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="C3" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="s">
+      <x:c r="D3" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="s">
+      <x:c r="E3" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="F3" s="0" t="s">
+      <x:c r="F3" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="G3" s="0" t="s">
+      <x:c r="G3" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="H3" s="0" t="s">
+      <x:c r="H3" s="1" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="I3" s="0" t="s">
+      <x:c r="I3" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="J3" s="0" t="s">
+      <x:c r="J3" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:10">
-      <x:c r="A4" s="0" t="s">
+      <x:c r="A4" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="B4" s="1" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="C4" s="1" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="s">
+      <x:c r="D4" s="1" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="s">
+      <x:c r="E4" s="1" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="F4" s="0" t="s">
+      <x:c r="F4" s="1" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="G4" s="0" t="s">
+      <x:c r="G4" s="1" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="H4" s="0" t="s">
+      <x:c r="H4" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="I4" s="0" t="s">
+      <x:c r="I4" s="1" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="J4" s="0" t="s">
+      <x:c r="J4" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:10">
-      <x:c r="A5" s="0" t="s">
+      <x:c r="A5" s="1" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="B5" s="1" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="C5" s="1" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="s">
+      <x:c r="D5" s="1" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="s">
+      <x:c r="E5" s="1" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="s">
+      <x:c r="F5" s="1" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s">
+      <x:c r="G5" s="1" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="H5" s="0" t="s">
+      <x:c r="H5" s="1" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="I5" s="0" t="s">
+      <x:c r="I5" s="1" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="J5" s="0" t="s">
+      <x:c r="J5" s="1" t="s">
         <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10">
-      <x:c r="A6" s="0" t="s">
+      <x:c r="A6" s="1" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="B6" s="1" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="C6" s="1" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s">
+      <x:c r="D6" s="1" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="E6" s="0" t="s">
+      <x:c r="E6" s="1" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="F6" s="0" t="s">
+      <x:c r="F6" s="1" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="G6" s="0" t="s">
+      <x:c r="G6" s="1" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="H6" s="0" t="s">
+      <x:c r="H6" s="1" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="I6" s="0" t="s">
+      <x:c r="I6" s="1" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="J6" s="0" t="s">
+      <x:c r="J6" s="1" t="s">
         <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:10">
-      <x:c r="A7" s="0" t="s">
+      <x:c r="A7" s="1" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="B7" s="1" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="C7" s="1" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
+      <x:c r="D7" s="1" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="E7" s="0" t="s">
+      <x:c r="E7" s="1" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="F7" s="0" t="s">
+      <x:c r="F7" s="1" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="G7" s="0" t="s">
+      <x:c r="G7" s="1" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="H7" s="0" t="s">
+      <x:c r="H7" s="1" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="I7" s="0" t="s">
+      <x:c r="I7" s="1" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="J7" s="0" t="s">
+      <x:c r="J7" s="1" t="s">
         <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10">
-      <x:c r="A8" s="0" t="s">
+      <x:c r="A8" s="1" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="B8" s="1" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
+      <x:c r="C8" s="1" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="D8" s="0" t="s">
+      <x:c r="D8" s="1" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="E8" s="0" t="s">
+      <x:c r="E8" s="1" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="F8" s="0" t="s">
+      <x:c r="F8" s="1" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="G8" s="0" t="s">
+      <x:c r="G8" s="1" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="H8" s="0" t="s">
+      <x:c r="H8" s="1" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="I8" s="0" t="s">
+      <x:c r="I8" s="1" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="J8" s="0" t="s">
+      <x:c r="J8" s="1" t="s">
         <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10">
-      <x:c r="A9" s="0" t="s">
+      <x:c r="A9" s="1" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
+      <x:c r="B9" s="1" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
+      <x:c r="C9" s="1" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="D9" s="0" t="s">
+      <x:c r="D9" s="1" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="E9" s="0" t="s">
+      <x:c r="E9" s="1" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="F9" s="0" t="s">
+      <x:c r="F9" s="1" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="G9" s="0" t="s">
+      <x:c r="G9" s="1" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="H9" s="0" t="s">
+      <x:c r="H9" s="1" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="I9" s="0" t="s">
+      <x:c r="I9" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="J9" s="0" t="s">
+      <x:c r="J9" s="1" t="s">
         <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:10">
-      <x:c r="A10" s="0" t="s">
+      <x:c r="A10" s="1" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
+      <x:c r="B10" s="1" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
+      <x:c r="C10" s="1" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="D10" s="0" t="s">
+      <x:c r="D10" s="1" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="E10" s="0" t="s">
+      <x:c r="E10" s="1" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="F10" s="0" t="s">
+      <x:c r="F10" s="1" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="G10" s="0" t="s">
+      <x:c r="G10" s="1" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="H10" s="0" t="s">
+      <x:c r="H10" s="1" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="I10" s="0" t="s">
+      <x:c r="I10" s="1" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="J10" s="0" t="s">
+      <x:c r="J10" s="1" t="s">
         <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10">
-      <x:c r="A11" s="0" t="s">
+      <x:c r="A11" s="1" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
+      <x:c r="B11" s="1" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
+      <x:c r="C11" s="1" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="D11" s="0" t="s">
+      <x:c r="D11" s="1" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="E11" s="0" t="s">
+      <x:c r="E11" s="1" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="F11" s="0" t="s">
+      <x:c r="F11" s="1" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="G11" s="0" t="s">
+      <x:c r="G11" s="1" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="H11" s="0" t="s">
+      <x:c r="H11" s="1" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="I11" s="0" t="s">
+      <x:c r="I11" s="1" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="J11" s="0" t="s">
+      <x:c r="J11" s="1" t="s">
         <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10">
-      <x:c r="A12" s="0" t="s">
+      <x:c r="A12" s="1" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="s">
+      <x:c r="B12" s="1" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="C12" s="0" t="s">
+      <x:c r="C12" s="1" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="D12" s="0" t="s">
+      <x:c r="D12" s="1" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="E12" s="0" t="s">
+      <x:c r="E12" s="1" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="F12" s="0" t="s">
+      <x:c r="F12" s="1" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="G12" s="0" t="s">
+      <x:c r="G12" s="1" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="H12" s="0" t="s">
+      <x:c r="H12" s="1" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="I12" s="0" t="s">
+      <x:c r="I12" s="1" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="J12" s="0" t="s">
+      <x:c r="J12" s="1" t="s">
         <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10">
-      <x:c r="A13" s="0" t="s">
+      <x:c r="A13" s="1" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="B13" s="0" t="s">
+      <x:c r="B13" s="1" t="s">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="C13" s="0" t="s">
+      <x:c r="C13" s="1" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="D13" s="0" t="s">
+      <x:c r="D13" s="1" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="E13" s="0" t="s">
+      <x:c r="E13" s="1" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="F13" s="0" t="s">
+      <x:c r="F13" s="1" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="G13" s="0" t="s">
+      <x:c r="G13" s="1" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="H13" s="0" t="s">
+      <x:c r="H13" s="1" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="I13" s="0" t="s">
+      <x:c r="I13" s="1" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="J13" s="0" t="s">
+      <x:c r="J13" s="1" t="s">
         <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:10">
-      <x:c r="A14" s="0" t="s">
+      <x:c r="A14" s="1" t="s">
         <x:v>130</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="s">
+      <x:c r="B14" s="1" t="s">
         <x:v>131</x:v>
       </x:c>
-      <x:c r="C14" s="0" t="s">
+      <x:c r="C14" s="1" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="D14" s="0" t="s">
+      <x:c r="D14" s="1" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="E14" s="0" t="s">
+      <x:c r="E14" s="1" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="F14" s="0" t="s">
+      <x:c r="F14" s="1" t="s">
         <x:v>135</x:v>
       </x:c>
-      <x:c r="G14" s="0" t="s">
+      <x:c r="G14" s="1" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="H14" s="0" t="s">
+      <x:c r="H14" s="1" t="s">
         <x:v>137</x:v>
       </x:c>
-      <x:c r="I14" s="0" t="s">
+      <x:c r="I14" s="1" t="s">
         <x:v>138</x:v>
       </x:c>
-      <x:c r="J14" s="0" t="s">
+      <x:c r="J14" s="1" t="s">
         <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:10">
-      <x:c r="A15" s="0" t="s">
+      <x:c r="A15" s="1" t="s">
         <x:v>140</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="s">
+      <x:c r="B15" s="1" t="s">
         <x:v>141</x:v>
       </x:c>
-      <x:c r="C15" s="0" t="s">
+      <x:c r="C15" s="1" t="s">
         <x:v>142</x:v>
       </x:c>
-      <x:c r="D15" s="0" t="s">
+      <x:c r="D15" s="1" t="s">
         <x:v>143</x:v>
       </x:c>
-      <x:c r="E15" s="0" t="s">
+      <x:c r="E15" s="1" t="s">
         <x:v>144</x:v>
       </x:c>
-      <x:c r="F15" s="0" t="s">
+      <x:c r="F15" s="1" t="s">
         <x:v>145</x:v>
       </x:c>
-      <x:c r="G15" s="0" t="s">
+      <x:c r="G15" s="1" t="s">
         <x:v>146</x:v>
       </x:c>
-      <x:c r="H15" s="0" t="s">
+      <x:c r="H15" s="1" t="s">
         <x:v>147</x:v>
       </x:c>
-      <x:c r="I15" s="0" t="s">
+      <x:c r="I15" s="1" t="s">
         <x:v>148</x:v>
       </x:c>
-      <x:c r="J15" s="0" t="s">
+      <x:c r="J15" s="1" t="s">
         <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:10">
-      <x:c r="A16" s="0" t="s">
+      <x:c r="A16" s="1" t="s">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="s">
+      <x:c r="B16" s="1" t="s">
         <x:v>151</x:v>
       </x:c>
-      <x:c r="C16" s="0" t="s">
+      <x:c r="C16" s="1" t="s">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="D16" s="0" t="s">
+      <x:c r="D16" s="1" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="E16" s="0" t="s">
+      <x:c r="E16" s="1" t="s">
         <x:v>154</x:v>
       </x:c>
-      <x:c r="F16" s="0" t="s">
+      <x:c r="F16" s="1" t="s">
         <x:v>155</x:v>
       </x:c>
-      <x:c r="G16" s="0" t="s">
+      <x:c r="G16" s="1" t="s">
         <x:v>156</x:v>
       </x:c>
-      <x:c r="H16" s="0" t="s">
+      <x:c r="H16" s="1" t="s">
         <x:v>157</x:v>
       </x:c>
-      <x:c r="I16" s="0" t="s">
+      <x:c r="I16" s="1" t="s">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="J16" s="0" t="s">
+      <x:c r="J16" s="1" t="s">
         <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:10">
-      <x:c r="A17" s="0" t="s">
+      <x:c r="A17" s="1" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="B17" s="0" t="s">
+      <x:c r="B17" s="1" t="s">
         <x:v>161</x:v>
       </x:c>
-      <x:c r="C17" s="0" t="s">
+      <x:c r="C17" s="1" t="s">
         <x:v>162</x:v>
       </x:c>
-      <x:c r="D17" s="0" t="s">
+      <x:c r="D17" s="1" t="s">
         <x:v>163</x:v>
       </x:c>
-      <x:c r="E17" s="0" t="s">
+      <x:c r="E17" s="1" t="s">
         <x:v>164</x:v>
       </x:c>
-      <x:c r="F17" s="0" t="s">
+      <x:c r="F17" s="1" t="s">
         <x:v>165</x:v>
       </x:c>
-      <x:c r="G17" s="0" t="s">
+      <x:c r="G17" s="1" t="s">
         <x:v>166</x:v>
       </x:c>
-      <x:c r="H17" s="0" t="s">
+      <x:c r="H17" s="1" t="s">
         <x:v>167</x:v>
       </x:c>
-      <x:c r="I17" s="0" t="s">
+      <x:c r="I17" s="1" t="s">
         <x:v>168</x:v>
       </x:c>
-      <x:c r="J17" s="0" t="s">
+      <x:c r="J17" s="1" t="s">
         <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:10">
-      <x:c r="A18" s="0" t="s">
+      <x:c r="A18" s="1" t="s">
         <x:v>170</x:v>
       </x:c>
-      <x:c r="B18" s="0" t="s">
+      <x:c r="B18" s="1" t="s">
         <x:v>171</x:v>
       </x:c>
-      <x:c r="C18" s="0" t="s">
+      <x:c r="C18" s="1" t="s">
         <x:v>172</x:v>
       </x:c>
-      <x:c r="D18" s="0" t="s">
+      <x:c r="D18" s="1" t="s">
         <x:v>173</x:v>
       </x:c>
-      <x:c r="E18" s="0" t="s">
+      <x:c r="E18" s="1" t="s">
         <x:v>174</x:v>
       </x:c>
-      <x:c r="F18" s="0" t="s">
+      <x:c r="F18" s="1" t="s">
         <x:v>175</x:v>
       </x:c>
-      <x:c r="G18" s="0" t="s">
+      <x:c r="G18" s="1" t="s">
         <x:v>176</x:v>
       </x:c>
-      <x:c r="H18" s="0" t="s">
+      <x:c r="H18" s="1" t="s">
         <x:v>177</x:v>
       </x:c>
-      <x:c r="I18" s="0" t="s">
+      <x:c r="I18" s="1" t="s">
         <x:v>178</x:v>
       </x:c>
-      <x:c r="J18" s="0" t="s">
+      <x:c r="J18" s="1" t="s">
         <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:10">
-      <x:c r="A19" s="0" t="s">
+      <x:c r="A19" s="1" t="s">
         <x:v>180</x:v>
       </x:c>
-      <x:c r="B19" s="0" t="s">
+      <x:c r="B19" s="1" t="s">
         <x:v>181</x:v>
       </x:c>
-      <x:c r="C19" s="0" t="s">
+      <x:c r="C19" s="1" t="s">
         <x:v>182</x:v>
       </x:c>
-      <x:c r="D19" s="0" t="s">
+      <x:c r="D19" s="1" t="s">
         <x:v>183</x:v>
       </x:c>
-      <x:c r="E19" s="0" t="s">
+      <x:c r="E19" s="1" t="s">
         <x:v>184</x:v>
       </x:c>
-      <x:c r="F19" s="0" t="s">
+      <x:c r="F19" s="1" t="s">
         <x:v>185</x:v>
       </x:c>
-      <x:c r="G19" s="0" t="s">
+      <x:c r="G19" s="1" t="s">
         <x:v>186</x:v>
       </x:c>
-      <x:c r="H19" s="0" t="s">
+      <x:c r="H19" s="1" t="s">
         <x:v>187</x:v>
       </x:c>
-      <x:c r="I19" s="0" t="s">
+      <x:c r="I19" s="1" t="s">
         <x:v>188</x:v>
       </x:c>
-      <x:c r="J19" s="0" t="s">
+      <x:c r="J19" s="1" t="s">
         <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10">
-      <x:c r="A20" s="0" t="s">
+      <x:c r="A20" s="1" t="s">
         <x:v>190</x:v>
       </x:c>
-      <x:c r="B20" s="0" t="s">
+      <x:c r="B20" s="1" t="s">
         <x:v>191</x:v>
       </x:c>
-      <x:c r="C20" s="0" t="s">
+      <x:c r="C20" s="1" t="s">
         <x:v>192</x:v>
       </x:c>
-      <x:c r="D20" s="0" t="s">
+      <x:c r="D20" s="1" t="s">
         <x:v>193</x:v>
       </x:c>
-      <x:c r="E20" s="0" t="s">
+      <x:c r="E20" s="1" t="s">
         <x:v>194</x:v>
       </x:c>
-      <x:c r="F20" s="0" t="s">
+      <x:c r="F20" s="1" t="s">
         <x:v>195</x:v>
       </x:c>
-      <x:c r="G20" s="0" t="s">
+      <x:c r="G20" s="1" t="s">
         <x:v>196</x:v>
       </x:c>
-      <x:c r="H20" s="0" t="s">
+      <x:c r="H20" s="1" t="s">
         <x:v>197</x:v>
       </x:c>
-      <x:c r="I20" s="0" t="s">
+      <x:c r="I20" s="1" t="s">
         <x:v>198</x:v>
       </x:c>
-      <x:c r="J20" s="0" t="s">
+      <x:c r="J20" s="1" t="s">
         <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:10">
-      <x:c r="A21" s="0" t="s">
+      <x:c r="A21" s="1" t="s">
         <x:v>200</x:v>
       </x:c>
-      <x:c r="B21" s="0" t="s">
+      <x:c r="B21" s="1" t="s">
         <x:v>201</x:v>
       </x:c>
-      <x:c r="C21" s="0" t="s">
+      <x:c r="C21" s="1" t="s">
         <x:v>202</x:v>
       </x:c>
-      <x:c r="D21" s="0" t="s">
+      <x:c r="D21" s="1" t="s">
         <x:v>203</x:v>
       </x:c>
-      <x:c r="E21" s="0" t="s">
+      <x:c r="E21" s="1" t="s">
         <x:v>204</x:v>
       </x:c>
-      <x:c r="F21" s="0" t="s">
+      <x:c r="F21" s="1" t="s">
         <x:v>205</x:v>
       </x:c>
-      <x:c r="G21" s="0" t="s">
+      <x:c r="G21" s="1" t="s">
         <x:v>206</x:v>
       </x:c>
-      <x:c r="H21" s="0" t="s">
+      <x:c r="H21" s="1" t="s">
         <x:v>207</x:v>
       </x:c>
-      <x:c r="I21" s="0" t="s">
+      <x:c r="I21" s="1" t="s">
         <x:v>208</x:v>
       </x:c>
-      <x:c r="J21" s="0" t="s">
+      <x:c r="J21" s="1" t="s">
         <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:10">
-      <x:c r="A22" s="0" t="s">
+      <x:c r="A22" s="1" t="s">
         <x:v>210</x:v>
       </x:c>
-      <x:c r="B22" s="0" t="s">
+      <x:c r="B22" s="1" t="s">
         <x:v>211</x:v>
       </x:c>
-      <x:c r="C22" s="0" t="s">
+      <x:c r="C22" s="1" t="s">
         <x:v>212</x:v>
       </x:c>
-      <x:c r="D22" s="0" t="s">
+      <x:c r="D22" s="1" t="s">
         <x:v>213</x:v>
       </x:c>
-      <x:c r="E22" s="0" t="s">
+      <x:c r="E22" s="1" t="s">
         <x:v>214</x:v>
       </x:c>
-      <x:c r="F22" s="0" t="s">
+      <x:c r="F22" s="1" t="s">
         <x:v>215</x:v>
       </x:c>
-      <x:c r="G22" s="0" t="s">
+      <x:c r="G22" s="1" t="s">
         <x:v>216</x:v>
       </x:c>
-      <x:c r="H22" s="0" t="s">
+      <x:c r="H22" s="1" t="s">
         <x:v>217</x:v>
       </x:c>
-      <x:c r="I22" s="0" t="s">
+      <x:c r="I22" s="1" t="s">
         <x:v>218</x:v>
       </x:c>
-      <x:c r="J22" s="0" t="s">
+      <x:c r="J22" s="1" t="s">
         <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:10">
-      <x:c r="A23" s="0" t="s">
+      <x:c r="A23" s="1" t="s">
         <x:v>220</x:v>
       </x:c>
-      <x:c r="B23" s="0" t="s">
+      <x:c r="B23" s="1" t="s">
         <x:v>221</x:v>
       </x:c>
-      <x:c r="C23" s="0" t="s">
+      <x:c r="C23" s="1" t="s">
         <x:v>222</x:v>
       </x:c>
-      <x:c r="D23" s="0" t="s">
+      <x:c r="D23" s="1" t="s">
         <x:v>223</x:v>
       </x:c>
-      <x:c r="E23" s="0" t="s">
+      <x:c r="E23" s="1" t="s">
         <x:v>224</x:v>
       </x:c>
-      <x:c r="F23" s="0" t="s">
+      <x:c r="F23" s="1" t="s">
         <x:v>225</x:v>
       </x:c>
-      <x:c r="G23" s="0" t="s">
+      <x:c r="G23" s="1" t="s">
         <x:v>226</x:v>
       </x:c>
-      <x:c r="H23" s="0" t="s">
+      <x:c r="H23" s="1" t="s">
         <x:v>227</x:v>
       </x:c>
-      <x:c r="I23" s="0" t="s">
+      <x:c r="I23" s="1" t="s">
         <x:v>228</x:v>
       </x:c>
-      <x:c r="J23" s="0" t="s">
+      <x:c r="J23" s="1" t="s">
         <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:10">
-      <x:c r="A24" s="0" t="s">
+      <x:c r="A24" s="1" t="s">
         <x:v>230</x:v>
       </x:c>
-      <x:c r="B24" s="0" t="s">
+      <x:c r="B24" s="1" t="s">
         <x:v>231</x:v>
       </x:c>
-      <x:c r="C24" s="0" t="s">
+      <x:c r="C24" s="1" t="s">
         <x:v>232</x:v>
       </x:c>
-      <x:c r="D24" s="0" t="s">
+      <x:c r="D24" s="1" t="s">
         <x:v>233</x:v>
       </x:c>
-      <x:c r="E24" s="0" t="s">
+      <x:c r="E24" s="1" t="s">
         <x:v>234</x:v>
       </x:c>
-      <x:c r="F24" s="0" t="s">
+      <x:c r="F24" s="1" t="s">
         <x:v>235</x:v>
       </x:c>
-      <x:c r="G24" s="0" t="s">
+      <x:c r="G24" s="1" t="s">
         <x:v>236</x:v>
       </x:c>
-      <x:c r="H24" s="0" t="s">
+      <x:c r="H24" s="1" t="s">
         <x:v>237</x:v>
       </x:c>
-      <x:c r="I24" s="0" t="s">
+      <x:c r="I24" s="1" t="s">
         <x:v>238</x:v>
       </x:c>
-      <x:c r="J24" s="0" t="s">
+      <x:c r="J24" s="1" t="s">
         <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:10">
-      <x:c r="A25" s="0" t="s">
+      <x:c r="A25" s="1" t="s">
         <x:v>240</x:v>
       </x:c>
-      <x:c r="B25" s="0" t="s">
+      <x:c r="B25" s="1" t="s">
         <x:v>241</x:v>
       </x:c>
-      <x:c r="C25" s="0" t="s">
+      <x:c r="C25" s="1" t="s">
         <x:v>242</x:v>
       </x:c>
-      <x:c r="D25" s="0" t="s">
+      <x:c r="D25" s="1" t="s">
         <x:v>243</x:v>
       </x:c>
-      <x:c r="E25" s="0" t="s">
+      <x:c r="E25" s="1" t="s">
         <x:v>244</x:v>
       </x:c>
-      <x:c r="F25" s="0" t="s">
+      <x:c r="F25" s="1" t="s">
         <x:v>245</x:v>
       </x:c>
-      <x:c r="G25" s="0" t="s">
+      <x:c r="G25" s="1" t="s">
         <x:v>246</x:v>
       </x:c>
-      <x:c r="H25" s="0" t="s">
+      <x:c r="H25" s="1" t="s">
         <x:v>247</x:v>
       </x:c>
-      <x:c r="I25" s="0" t="s">
+      <x:c r="I25" s="1" t="s">
         <x:v>248</x:v>
       </x:c>
-      <x:c r="J25" s="0" t="s">
+      <x:c r="J25" s="1" t="s">
         <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:10">
-      <x:c r="A26" s="0" t="s">
+      <x:c r="A26" s="1" t="s">
         <x:v>250</x:v>
       </x:c>
-      <x:c r="B26" s="0" t="s">
+      <x:c r="B26" s="1" t="s">
         <x:v>251</x:v>
       </x:c>
-      <x:c r="C26" s="0" t="s">
+      <x:c r="C26" s="1" t="s">
         <x:v>252</x:v>
       </x:c>
-      <x:c r="D26" s="0" t="s">
+      <x:c r="D26" s="1" t="s">
         <x:v>253</x:v>
       </x:c>
-      <x:c r="E26" s="0" t="s">
+      <x:c r="E26" s="1" t="s">
         <x:v>254</x:v>
       </x:c>
-      <x:c r="F26" s="0" t="s">
+      <x:c r="F26" s="1" t="s">
         <x:v>255</x:v>
       </x:c>
-      <x:c r="G26" s="0" t="s">
+      <x:c r="G26" s="1" t="s">
         <x:v>256</x:v>
       </x:c>
-      <x:c r="H26" s="0" t="s">
+      <x:c r="H26" s="1" t="s">
         <x:v>257</x:v>
       </x:c>
-      <x:c r="I26" s="0" t="s">
+      <x:c r="I26" s="1" t="s">
         <x:v>258</x:v>
       </x:c>
-      <x:c r="J26" s="0" t="s">
+      <x:c r="J26" s="1" t="s">
         <x:v>259</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:10">
-      <x:c r="A27" s="0" t="s">
+      <x:c r="A27" s="1" t="s">
         <x:v>260</x:v>
       </x:c>
-      <x:c r="B27" s="0" t="s">
+      <x:c r="B27" s="1" t="s">
         <x:v>261</x:v>
       </x:c>
-      <x:c r="C27" s="0" t="s">
+      <x:c r="C27" s="1" t="s">
         <x:v>262</x:v>
       </x:c>
-      <x:c r="D27" s="0" t="s">
+      <x:c r="D27" s="1" t="s">
         <x:v>263</x:v>
       </x:c>
-      <x:c r="E27" s="0" t="s">
+      <x:c r="E27" s="1" t="s">
         <x:v>264</x:v>
       </x:c>
-      <x:c r="F27" s="0" t="s">
+      <x:c r="F27" s="1" t="s">
         <x:v>265</x:v>
       </x:c>
-      <x:c r="G27" s="0" t="s">
+      <x:c r="G27" s="1" t="s">
         <x:v>266</x:v>
       </x:c>
-      <x:c r="H27" s="0" t="s">
+      <x:c r="H27" s="1" t="s">
         <x:v>267</x:v>
       </x:c>
-      <x:c r="I27" s="0" t="s">
+      <x:c r="I27" s="1" t="s">
         <x:v>268</x:v>
       </x:c>
-      <x:c r="J27" s="0" t="s">
+      <x:c r="J27" s="1" t="s">
         <x:v>269</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:10">
-      <x:c r="A28" s="0" t="s">
+      <x:c r="A28" s="1" t="s">
         <x:v>270</x:v>
       </x:c>
-      <x:c r="B28" s="0" t="s">
+      <x:c r="B28" s="1" t="s">
         <x:v>271</x:v>
       </x:c>
-      <x:c r="C28" s="0" t="s">
+      <x:c r="C28" s="1" t="s">
         <x:v>272</x:v>
       </x:c>
-      <x:c r="D28" s="0" t="s">
+      <x:c r="D28" s="1" t="s">
         <x:v>273</x:v>
       </x:c>
-      <x:c r="E28" s="0" t="s">
+      <x:c r="E28" s="1" t="s">
         <x:v>274</x:v>
       </x:c>
-      <x:c r="F28" s="0" t="s">
+      <x:c r="F28" s="1" t="s">
         <x:v>275</x:v>
       </x:c>
-      <x:c r="G28" s="0" t="s">
+      <x:c r="G28" s="1" t="s">
         <x:v>276</x:v>
       </x:c>
-      <x:c r="H28" s="0" t="s">
+      <x:c r="H28" s="1" t="s">
         <x:v>277</x:v>
       </x:c>
-      <x:c r="I28" s="0" t="s">
+      <x:c r="I28" s="1" t="s">
         <x:v>278</x:v>
       </x:c>
-      <x:c r="J28" s="0" t="s">
+      <x:c r="J28" s="1" t="s">
         <x:v>279</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:10">
-      <x:c r="A29" s="0" t="s">
+      <x:c r="A29" s="1" t="s">
         <x:v>280</x:v>
       </x:c>
-      <x:c r="B29" s="0" t="s">
+      <x:c r="B29" s="1" t="s">
         <x:v>281</x:v>
       </x:c>
-      <x:c r="C29" s="0" t="s">
+      <x:c r="C29" s="1" t="s">
         <x:v>282</x:v>
       </x:c>
-      <x:c r="D29" s="0" t="s">
+      <x:c r="D29" s="1" t="s">
         <x:v>283</x:v>
       </x:c>
-      <x:c r="E29" s="0" t="s">
+      <x:c r="E29" s="1" t="s">
         <x:v>284</x:v>
       </x:c>
-      <x:c r="F29" s="0" t="s">
+      <x:c r="F29" s="1" t="s">
         <x:v>285</x:v>
       </x:c>
-      <x:c r="G29" s="0" t="s">
+      <x:c r="G29" s="1" t="s">
         <x:v>286</x:v>
       </x:c>
-      <x:c r="H29" s="0" t="s">
+      <x:c r="H29" s="1" t="s">
         <x:v>287</x:v>
       </x:c>
-      <x:c r="I29" s="0" t="s">
+      <x:c r="I29" s="1" t="s">
         <x:v>288</x:v>
       </x:c>
-      <x:c r="J29" s="0" t="s">
+      <x:c r="J29" s="1" t="s">
         <x:v>289</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:10">
-      <x:c r="A30" s="0" t="s">
+      <x:c r="A30" s="1" t="s">
         <x:v>290</x:v>
       </x:c>
-      <x:c r="B30" s="0" t="s">
+      <x:c r="B30" s="1" t="s">
         <x:v>291</x:v>
       </x:c>
-      <x:c r="C30" s="0" t="s">
+      <x:c r="C30" s="1" t="s">
         <x:v>292</x:v>
       </x:c>
-      <x:c r="D30" s="0" t="s">
+      <x:c r="D30" s="1" t="s">
         <x:v>293</x:v>
       </x:c>
-      <x:c r="E30" s="0" t="s">
+      <x:c r="E30" s="1" t="s">
         <x:v>294</x:v>
       </x:c>
-      <x:c r="F30" s="0" t="s">
+      <x:c r="F30" s="1" t="s">
         <x:v>295</x:v>
       </x:c>
-      <x:c r="G30" s="0" t="s">
+      <x:c r="G30" s="1" t="s">
         <x:v>296</x:v>
       </x:c>
-      <x:c r="H30" s="0" t="s">
+      <x:c r="H30" s="1" t="s">
         <x:v>297</x:v>
       </x:c>
-      <x:c r="I30" s="0" t="s">
+      <x:c r="I30" s="1" t="s">
         <x:v>298</x:v>
       </x:c>
-      <x:c r="J30" s="0" t="s">
+      <x:c r="J30" s="1" t="s">
         <x:v>299</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:10">
-      <x:c r="A31" s="0" t="s">
+      <x:c r="A31" s="1" t="s">
         <x:v>300</x:v>
       </x:c>
-      <x:c r="B31" s="0" t="s">
+      <x:c r="B31" s="1" t="s">
         <x:v>301</x:v>
       </x:c>
-      <x:c r="C31" s="0" t="s">
+      <x:c r="C31" s="1" t="s">
         <x:v>302</x:v>
       </x:c>
-      <x:c r="D31" s="0" t="s">
+      <x:c r="D31" s="1" t="s">
         <x:v>303</x:v>
       </x:c>
-      <x:c r="E31" s="0" t="s">
+      <x:c r="E31" s="1" t="s">
         <x:v>304</x:v>
       </x:c>
-      <x:c r="F31" s="0" t="s">
+      <x:c r="F31" s="1" t="s">
         <x:v>305</x:v>
       </x:c>
-      <x:c r="G31" s="0" t="s">
+      <x:c r="G31" s="1" t="s">
         <x:v>306</x:v>
       </x:c>
-      <x:c r="H31" s="0" t="s">
+      <x:c r="H31" s="1" t="s">
         <x:v>307</x:v>
       </x:c>
-      <x:c r="I31" s="0" t="s">
+      <x:c r="I31" s="1" t="s">
         <x:v>308</x:v>
       </x:c>
-      <x:c r="J31" s="0" t="s">
+      <x:c r="J31" s="1" t="s">
         <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:10">
-      <x:c r="A32" s="0" t="s">
+      <x:c r="A32" s="1" t="s">
         <x:v>310</x:v>
       </x:c>
-      <x:c r="B32" s="0" t="s">
+      <x:c r="B32" s="1" t="s">
         <x:v>311</x:v>
       </x:c>
-      <x:c r="C32" s="0" t="s">
+      <x:c r="C32" s="1" t="s">
         <x:v>312</x:v>
       </x:c>
-      <x:c r="D32" s="0" t="s">
+      <x:c r="D32" s="1" t="s">
         <x:v>313</x:v>
       </x:c>
-      <x:c r="E32" s="0" t="s">
+      <x:c r="E32" s="1" t="s">
         <x:v>314</x:v>
       </x:c>
-      <x:c r="F32" s="0" t="s">
+      <x:c r="F32" s="1" t="s">
         <x:v>315</x:v>
       </x:c>
-      <x:c r="G32" s="0" t="s">
+      <x:c r="G32" s="1" t="s">
         <x:v>316</x:v>
       </x:c>
-      <x:c r="H32" s="0" t="s">
+      <x:c r="H32" s="1" t="s">
         <x:v>317</x:v>
       </x:c>
-      <x:c r="I32" s="0" t="s">
+      <x:c r="I32" s="1" t="s">
         <x:v>318</x:v>
       </x:c>
-      <x:c r="J32" s="0" t="s">
+      <x:c r="J32" s="1" t="s">
         <x:v>319</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:10">
-      <x:c r="A33" s="0" t="s">
+      <x:c r="A33" s="1" t="s">
         <x:v>320</x:v>
       </x:c>
-      <x:c r="B33" s="0" t="s">
+      <x:c r="B33" s="1" t="s">
         <x:v>321</x:v>
       </x:c>
-      <x:c r="C33" s="0" t="s">
+      <x:c r="C33" s="1" t="s">
         <x:v>322</x:v>
       </x:c>
-      <x:c r="D33" s="0" t="s">
+      <x:c r="D33" s="1" t="s">
         <x:v>323</x:v>
       </x:c>
-      <x:c r="E33" s="0" t="s">
+      <x:c r="E33" s="1" t="s">
         <x:v>324</x:v>
       </x:c>
-      <x:c r="F33" s="0" t="s">
+      <x:c r="F33" s="1" t="s">
         <x:v>325</x:v>
       </x:c>
-      <x:c r="G33" s="0" t="s">
+      <x:c r="G33" s="1" t="s">
         <x:v>326</x:v>
       </x:c>
-      <x:c r="H33" s="0" t="s">
+      <x:c r="H33" s="1" t="s">
         <x:v>327</x:v>
       </x:c>
-      <x:c r="I33" s="0" t="s">
+      <x:c r="I33" s="1" t="s">
         <x:v>328</x:v>
       </x:c>
-      <x:c r="J33" s="0" t="s">
+      <x:c r="J33" s="1" t="s">
         <x:v>329</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:10">
-      <x:c r="A34" s="0" t="s">
+      <x:c r="A34" s="1" t="s">
         <x:v>330</x:v>
       </x:c>
-      <x:c r="B34" s="0" t="s">
+      <x:c r="B34" s="1" t="s">
         <x:v>331</x:v>
       </x:c>
-      <x:c r="C34" s="0" t="s">
+      <x:c r="C34" s="1" t="s">
         <x:v>332</x:v>
       </x:c>
-      <x:c r="D34" s="0" t="s">
+      <x:c r="D34" s="1" t="s">
         <x:v>333</x:v>
       </x:c>
-      <x:c r="E34" s="0" t="s">
+      <x:c r="E34" s="1" t="s">
         <x:v>334</x:v>
       </x:c>
-      <x:c r="F34" s="0" t="s">
+      <x:c r="F34" s="1" t="s">
         <x:v>335</x:v>
       </x:c>
-      <x:c r="G34" s="0" t="s">
+      <x:c r="G34" s="1" t="s">
         <x:v>336</x:v>
       </x:c>
-      <x:c r="H34" s="0" t="s">
+      <x:c r="H34" s="1" t="s">
         <x:v>337</x:v>
       </x:c>
-      <x:c r="I34" s="0" t="s">
+      <x:c r="I34" s="1" t="s">
         <x:v>338</x:v>
       </x:c>
-      <x:c r="J34" s="0" t="s">
+      <x:c r="J34" s="1" t="s">
         <x:v>339</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:10">
-      <x:c r="A35" s="0" t="s">
+      <x:c r="A35" s="1" t="s">
         <x:v>340</x:v>
       </x:c>
-      <x:c r="B35" s="0" t="s">
+      <x:c r="B35" s="1" t="s">
         <x:v>341</x:v>
       </x:c>
-      <x:c r="C35" s="0" t="s">
+      <x:c r="C35" s="1" t="s">
         <x:v>342</x:v>
       </x:c>
-      <x:c r="D35" s="0" t="s">
+      <x:c r="D35" s="1" t="s">
         <x:v>343</x:v>
       </x:c>
-      <x:c r="E35" s="0" t="s">
+      <x:c r="E35" s="1" t="s">
         <x:v>344</x:v>
       </x:c>
-      <x:c r="F35" s="0" t="s">
+      <x:c r="F35" s="1" t="s">
         <x:v>345</x:v>
       </x:c>
-      <x:c r="G35" s="0" t="s">
+      <x:c r="G35" s="1" t="s">
         <x:v>346</x:v>
       </x:c>
-      <x:c r="H35" s="0" t="s">
+      <x:c r="H35" s="1" t="s">
         <x:v>347</x:v>
       </x:c>
-      <x:c r="I35" s="0" t="s">
+      <x:c r="I35" s="1" t="s">
         <x:v>348</x:v>
       </x:c>
-      <x:c r="J35" s="0" t="s">
+      <x:c r="J35" s="1" t="s">
         <x:v>349</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:10">
-      <x:c r="A36" s="0" t="s">
+      <x:c r="A36" s="1" t="s">
         <x:v>350</x:v>
       </x:c>
-      <x:c r="B36" s="0" t="s">
+      <x:c r="B36" s="1" t="s">
         <x:v>351</x:v>
       </x:c>
-      <x:c r="C36" s="0" t="s">
+      <x:c r="C36" s="1" t="s">
         <x:v>352</x:v>
       </x:c>
-      <x:c r="D36" s="0" t="s">
+      <x:c r="D36" s="1" t="s">
         <x:v>353</x:v>
       </x:c>
-      <x:c r="E36" s="0" t="s">
+      <x:c r="E36" s="1" t="s">
         <x:v>354</x:v>
       </x:c>
-      <x:c r="F36" s="0" t="s">
+      <x:c r="F36" s="1" t="s">
         <x:v>355</x:v>
       </x:c>
-      <x:c r="G36" s="0" t="s">
+      <x:c r="G36" s="1" t="s">
         <x:v>356</x:v>
       </x:c>
-      <x:c r="H36" s="0" t="s">
+      <x:c r="H36" s="1" t="s">
         <x:v>357</x:v>
       </x:c>
-      <x:c r="I36" s="0" t="s">
+      <x:c r="I36" s="1" t="s">
         <x:v>358</x:v>
       </x:c>
-      <x:c r="J36" s="0" t="s">
+      <x:c r="J36" s="1" t="s">
         <x:v>359</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:10">
-      <x:c r="A37" s="0" t="s">
+      <x:c r="A37" s="1" t="s">
         <x:v>360</x:v>
       </x:c>
-      <x:c r="B37" s="0" t="s">
+      <x:c r="B37" s="1" t="s">
         <x:v>361</x:v>
       </x:c>
-      <x:c r="C37" s="0" t="s">
+      <x:c r="C37" s="1" t="s">
         <x:v>362</x:v>
       </x:c>
-      <x:c r="D37" s="0" t="s">
+      <x:c r="D37" s="1" t="s">
         <x:v>363</x:v>
       </x:c>
-      <x:c r="E37" s="0" t="s">
+      <x:c r="E37" s="1" t="s">
         <x:v>364</x:v>
       </x:c>
-      <x:c r="F37" s="0" t="s">
+      <x:c r="F37" s="1" t="s">
         <x:v>365</x:v>
       </x:c>
-      <x:c r="G37" s="0" t="s">
+      <x:c r="G37" s="1" t="s">
         <x:v>366</x:v>
       </x:c>
-      <x:c r="H37" s="0" t="s">
+      <x:c r="H37" s="1" t="s">
         <x:v>367</x:v>
       </x:c>
-      <x:c r="I37" s="0" t="s">
+      <x:c r="I37" s="1" t="s">
         <x:v>368</x:v>
       </x:c>
-      <x:c r="J37" s="0" t="s">
+      <x:c r="J37" s="1" t="s">
         <x:v>369</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:10">
-      <x:c r="A38" s="0" t="s">
+      <x:c r="A38" s="1" t="s">
         <x:v>370</x:v>
       </x:c>
-      <x:c r="B38" s="0" t="s">
+      <x:c r="B38" s="1" t="s">
         <x:v>371</x:v>
       </x:c>
-      <x:c r="C38" s="0" t="s">
+      <x:c r="C38" s="1" t="s">
         <x:v>372</x:v>
       </x:c>
-      <x:c r="D38" s="0" t="s">
+      <x:c r="D38" s="1" t="s">
         <x:v>373</x:v>
       </x:c>
-      <x:c r="E38" s="0" t="s">
+      <x:c r="E38" s="1" t="s">
         <x:v>374</x:v>
       </x:c>
-      <x:c r="F38" s="0" t="s">
+      <x:c r="F38" s="1" t="s">
         <x:v>375</x:v>
       </x:c>
-      <x:c r="G38" s="0" t="s">
+      <x:c r="G38" s="1" t="s">
         <x:v>376</x:v>
       </x:c>
-      <x:c r="H38" s="0" t="s">
+      <x:c r="H38" s="1" t="s">
         <x:v>377</x:v>
       </x:c>
-      <x:c r="I38" s="0" t="s">
+      <x:c r="I38" s="1" t="s">
         <x:v>378</x:v>
       </x:c>
-      <x:c r="J38" s="0" t="s">
+      <x:c r="J38" s="1" t="s">
         <x:v>379</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:10">
-      <x:c r="A39" s="0" t="s">
+      <x:c r="A39" s="1" t="s">
         <x:v>380</x:v>
       </x:c>
-      <x:c r="B39" s="0" t="s">
+      <x:c r="B39" s="1" t="s">
         <x:v>381</x:v>
       </x:c>
-      <x:c r="C39" s="0" t="s">
+      <x:c r="C39" s="1" t="s">
         <x:v>382</x:v>
       </x:c>
-      <x:c r="D39" s="0" t="s">
+      <x:c r="D39" s="1" t="s">
         <x:v>383</x:v>
       </x:c>
-      <x:c r="E39" s="0" t="s">
+      <x:c r="E39" s="1" t="s">
         <x:v>384</x:v>
       </x:c>
-      <x:c r="F39" s="0" t="s">
+      <x:c r="F39" s="1" t="s">
         <x:v>385</x:v>
       </x:c>
-      <x:c r="G39" s="0" t="s">
+      <x:c r="G39" s="1" t="s">
         <x:v>386</x:v>
       </x:c>
-      <x:c r="H39" s="0" t="s">
+      <x:c r="H39" s="1" t="s">
         <x:v>387</x:v>
       </x:c>
-      <x:c r="I39" s="0" t="s">
+      <x:c r="I39" s="1" t="s">
         <x:v>388</x:v>
       </x:c>
-      <x:c r="J39" s="0" t="s">
+      <x:c r="J39" s="1" t="s">
         <x:v>389</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:10">
-      <x:c r="A40" s="0" t="s">
+      <x:c r="A40" s="1" t="s">
         <x:v>390</x:v>
       </x:c>
-      <x:c r="B40" s="0" t="s">
+      <x:c r="B40" s="1" t="s">
         <x:v>391</x:v>
       </x:c>
-      <x:c r="C40" s="0" t="s">
+      <x:c r="C40" s="1" t="s">
         <x:v>392</x:v>
       </x:c>
-      <x:c r="D40" s="0" t="s">
+      <x:c r="D40" s="1" t="s">
         <x:v>393</x:v>
       </x:c>
-      <x:c r="E40" s="0" t="s">
+      <x:c r="E40" s="1" t="s">
         <x:v>394</x:v>
       </x:c>
-      <x:c r="F40" s="0" t="s">
+      <x:c r="F40" s="1" t="s">
         <x:v>395</x:v>
       </x:c>
-      <x:c r="G40" s="0" t="s">
+      <x:c r="G40" s="1" t="s">
         <x:v>396</x:v>
       </x:c>
-      <x:c r="H40" s="0" t="s">
+      <x:c r="H40" s="1" t="s">
         <x:v>397</x:v>
       </x:c>
-      <x:c r="I40" s="0" t="s">
+      <x:c r="I40" s="1" t="s">
         <x:v>398</x:v>
       </x:c>
-      <x:c r="J40" s="0" t="s">
+      <x:c r="J40" s="1" t="s">
         <x:v>399</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:10">
-      <x:c r="A41" s="0" t="s">
+      <x:c r="A41" s="1" t="s">
         <x:v>400</x:v>
       </x:c>
-      <x:c r="B41" s="0" t="s">
+      <x:c r="B41" s="1" t="s">
         <x:v>401</x:v>
       </x:c>
-      <x:c r="C41" s="0" t="s">
+      <x:c r="C41" s="1" t="s">
         <x:v>402</x:v>
       </x:c>
-      <x:c r="D41" s="0" t="s">
+      <x:c r="D41" s="1" t="s">
         <x:v>403</x:v>
       </x:c>
-      <x:c r="E41" s="0" t="s">
+      <x:c r="E41" s="1" t="s">
         <x:v>404</x:v>
       </x:c>
-      <x:c r="F41" s="0" t="s">
+      <x:c r="F41" s="1" t="s">
         <x:v>405</x:v>
       </x:c>
-      <x:c r="G41" s="0" t="s">
+      <x:c r="G41" s="1" t="s">
         <x:v>406</x:v>
       </x:c>
-      <x:c r="H41" s="0" t="s">
+      <x:c r="H41" s="1" t="s">
         <x:v>407</x:v>
       </x:c>
-      <x:c r="I41" s="0" t="s">
+      <x:c r="I41" s="1" t="s">
         <x:v>408</x:v>
       </x:c>
-      <x:c r="J41" s="0" t="s">
+      <x:c r="J41" s="1" t="s">
         <x:v>409</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:10">
-      <x:c r="A42" s="0" t="s">
+      <x:c r="A42" s="1" t="s">
         <x:v>410</x:v>
       </x:c>
-      <x:c r="B42" s="0" t="s">
+      <x:c r="B42" s="1" t="s">
         <x:v>411</x:v>
       </x:c>
-      <x:c r="C42" s="0" t="s">
+      <x:c r="C42" s="1" t="s">
         <x:v>412</x:v>
       </x:c>
-      <x:c r="D42" s="0" t="s">
+      <x:c r="D42" s="1" t="s">
         <x:v>413</x:v>
       </x:c>
-      <x:c r="E42" s="0" t="s">
+      <x:c r="E42" s="1" t="s">
         <x:v>414</x:v>
       </x:c>
-      <x:c r="F42" s="0" t="s">
+      <x:c r="F42" s="1" t="s">
         <x:v>415</x:v>
       </x:c>
-      <x:c r="G42" s="0" t="s">
+      <x:c r="G42" s="1" t="s">
         <x:v>416</x:v>
       </x:c>
-      <x:c r="H42" s="0" t="s">
+      <x:c r="H42" s="1" t="s">
         <x:v>417</x:v>
       </x:c>
-      <x:c r="I42" s="0" t="s">
+      <x:c r="I42" s="1" t="s">
         <x:v>418</x:v>
       </x:c>
-      <x:c r="J42" s="0" t="s">
+      <x:c r="J42" s="1" t="s">
         <x:v>419</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:10">
-      <x:c r="A43" s="0" t="s">
+      <x:c r="A43" s="1" t="s">
         <x:v>420</x:v>
       </x:c>
-      <x:c r="B43" s="0" t="s">
+      <x:c r="B43" s="1" t="s">
         <x:v>421</x:v>
       </x:c>
-      <x:c r="C43" s="0" t="s">
+      <x:c r="C43" s="1" t="s">
         <x:v>422</x:v>
       </x:c>
-      <x:c r="D43" s="0" t="s">
+      <x:c r="D43" s="1" t="s">
         <x:v>423</x:v>
       </x:c>
-      <x:c r="E43" s="0" t="s">
+      <x:c r="E43" s="1" t="s">
         <x:v>424</x:v>
       </x:c>
-      <x:c r="F43" s="0" t="s">
+      <x:c r="F43" s="1" t="s">
         <x:v>425</x:v>
       </x:c>
-      <x:c r="G43" s="0" t="s">
+      <x:c r="G43" s="1" t="s">
         <x:v>426</x:v>
       </x:c>
-      <x:c r="H43" s="0" t="s">
+      <x:c r="H43" s="1" t="s">
         <x:v>427</x:v>
       </x:c>
-      <x:c r="I43" s="0" t="s">
+      <x:c r="I43" s="1" t="s">
         <x:v>428</x:v>
       </x:c>
-      <x:c r="J43" s="0" t="s">
+      <x:c r="J43" s="1" t="s">
         <x:v>429</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:10">
-      <x:c r="A44" s="0" t="s">
+      <x:c r="A44" s="1" t="s">
         <x:v>430</x:v>
       </x:c>
-      <x:c r="B44" s="0" t="s">
+      <x:c r="B44" s="1" t="s">
         <x:v>431</x:v>
       </x:c>
-      <x:c r="C44" s="0" t="s">
+      <x:c r="C44" s="1" t="s">
         <x:v>432</x:v>
       </x:c>
-      <x:c r="D44" s="0" t="s">
+      <x:c r="D44" s="1" t="s">
         <x:v>433</x:v>
       </x:c>
-      <x:c r="E44" s="0" t="s">
+      <x:c r="E44" s="1" t="s">
         <x:v>434</x:v>
       </x:c>
-      <x:c r="F44" s="0" t="s">
+      <x:c r="F44" s="1" t="s">
         <x:v>435</x:v>
       </x:c>
-      <x:c r="G44" s="0" t="s">
+      <x:c r="G44" s="1" t="s">
         <x:v>436</x:v>
       </x:c>
-      <x:c r="H44" s="0" t="s">
+      <x:c r="H44" s="1" t="s">
         <x:v>437</x:v>
       </x:c>
-      <x:c r="I44" s="0" t="s">
+      <x:c r="I44" s="1" t="s">
         <x:v>438</x:v>
       </x:c>
-      <x:c r="J44" s="0" t="s">
+      <x:c r="J44" s="1" t="s">
         <x:v>439</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:10">
-      <x:c r="A45" s="0" t="s">
+      <x:c r="A45" s="1" t="s">
         <x:v>440</x:v>
       </x:c>
-      <x:c r="B45" s="0" t="s">
+      <x:c r="B45" s="1" t="s">
         <x:v>441</x:v>
       </x:c>
-      <x:c r="C45" s="0" t="s">
+      <x:c r="C45" s="1" t="s">
         <x:v>442</x:v>
       </x:c>
-      <x:c r="D45" s="0" t="s">
+      <x:c r="D45" s="1" t="s">
         <x:v>443</x:v>
       </x:c>
-      <x:c r="E45" s="0" t="s">
+      <x:c r="E45" s="1" t="s">
         <x:v>444</x:v>
       </x:c>
-      <x:c r="F45" s="0" t="s">
+      <x:c r="F45" s="1" t="s">
         <x:v>445</x:v>
       </x:c>
-      <x:c r="G45" s="0" t="s">
+      <x:c r="G45" s="1" t="s">
         <x:v>446</x:v>
       </x:c>
-      <x:c r="H45" s="0" t="s">
+      <x:c r="H45" s="1" t="s">
         <x:v>447</x:v>
       </x:c>
-      <x:c r="I45" s="0" t="s">
+      <x:c r="I45" s="1" t="s">
         <x:v>448</x:v>
       </x:c>
-      <x:c r="J45" s="0" t="s">
+      <x:c r="J45" s="1" t="s">
         <x:v>449</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:10">
-      <x:c r="A46" s="0" t="s">
+      <x:c r="A46" s="1" t="s">
         <x:v>450</x:v>
       </x:c>
-      <x:c r="B46" s="0" t="s">
+      <x:c r="B46" s="1" t="s">
         <x:v>451</x:v>
       </x:c>
-      <x:c r="C46" s="0" t="s">
+      <x:c r="C46" s="1" t="s">
         <x:v>452</x:v>
       </x:c>
-      <x:c r="D46" s="0" t="s">
+      <x:c r="D46" s="1" t="s">
         <x:v>453</x:v>
       </x:c>
-      <x:c r="E46" s="0" t="s">
+      <x:c r="E46" s="1" t="s">
         <x:v>454</x:v>
       </x:c>
-      <x:c r="F46" s="0" t="s">
+      <x:c r="F46" s="1" t="s">
         <x:v>455</x:v>
       </x:c>
-      <x:c r="G46" s="0" t="s">
+      <x:c r="G46" s="1" t="s">
         <x:v>456</x:v>
       </x:c>
-      <x:c r="H46" s="0" t="s">
+      <x:c r="H46" s="1" t="s">
         <x:v>457</x:v>
       </x:c>
-      <x:c r="I46" s="0" t="s">
+      <x:c r="I46" s="1" t="s">
         <x:v>458</x:v>
       </x:c>
-      <x:c r="J46" s="0" t="s">
+      <x:c r="J46" s="1" t="s">
         <x:v>459</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:10">
-      <x:c r="A47" s="0" t="s">
+      <x:c r="A47" s="1" t="s">
         <x:v>460</x:v>
       </x:c>
-      <x:c r="B47" s="0" t="s">
+      <x:c r="B47" s="1" t="s">
         <x:v>461</x:v>
       </x:c>
-      <x:c r="C47" s="0" t="s">
+      <x:c r="C47" s="1" t="s">
         <x:v>462</x:v>
       </x:c>
-      <x:c r="D47" s="0" t="s">
+      <x:c r="D47" s="1" t="s">
         <x:v>463</x:v>
       </x:c>
-      <x:c r="E47" s="0" t="s">
+      <x:c r="E47" s="1" t="s">
         <x:v>464</x:v>
       </x:c>
-      <x:c r="F47" s="0" t="s">
+      <x:c r="F47" s="1" t="s">
         <x:v>465</x:v>
       </x:c>
-      <x:c r="G47" s="0" t="s">
+      <x:c r="G47" s="1" t="s">
         <x:v>466</x:v>
       </x:c>
-      <x:c r="H47" s="0" t="s">
+      <x:c r="H47" s="1" t="s">
         <x:v>467</x:v>
       </x:c>
-      <x:c r="I47" s="0" t="s">
+      <x:c r="I47" s="1" t="s">
         <x:v>468</x:v>
       </x:c>
-      <x:c r="J47" s="0" t="s">
+      <x:c r="J47" s="1" t="s">
         <x:v>469</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:10">
-      <x:c r="A48" s="0" t="s">
+      <x:c r="A48" s="1" t="s">
         <x:v>470</x:v>
       </x:c>
-      <x:c r="B48" s="0" t="s">
+      <x:c r="B48" s="1" t="s">
         <x:v>471</x:v>
       </x:c>
-      <x:c r="C48" s="0" t="s">
+      <x:c r="C48" s="1" t="s">
         <x:v>472</x:v>
       </x:c>
-      <x:c r="D48" s="0" t="s">
+      <x:c r="D48" s="1" t="s">
         <x:v>473</x:v>
       </x:c>
-      <x:c r="E48" s="0" t="s">
+      <x:c r="E48" s="1" t="s">
         <x:v>474</x:v>
       </x:c>
-      <x:c r="F48" s="0" t="s">
+      <x:c r="F48" s="1" t="s">
         <x:v>475</x:v>
       </x:c>
-      <x:c r="G48" s="0" t="s">
+      <x:c r="G48" s="1" t="s">
         <x:v>476</x:v>
       </x:c>
-      <x:c r="H48" s="0" t="s">
+      <x:c r="H48" s="1" t="s">
         <x:v>477</x:v>
       </x:c>
-      <x:c r="I48" s="0" t="s">
+      <x:c r="I48" s="1" t="s">
         <x:v>478</x:v>
       </x:c>
-      <x:c r="J48" s="0" t="s">
+      <x:c r="J48" s="1" t="s">
         <x:v>479</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:10">
-      <x:c r="A49" s="0" t="s">
+      <x:c r="A49" s="1" t="s">
         <x:v>480</x:v>
       </x:c>
-      <x:c r="B49" s="0" t="s">
+      <x:c r="B49" s="1" t="s">
         <x:v>481</x:v>
       </x:c>
-      <x:c r="C49" s="0" t="s">
+      <x:c r="C49" s="1" t="s">
         <x:v>482</x:v>
       </x:c>
-      <x:c r="D49" s="0" t="s">
+      <x:c r="D49" s="1" t="s">
         <x:v>483</x:v>
       </x:c>
-      <x:c r="E49" s="0" t="s">
+      <x:c r="E49" s="1" t="s">
         <x:v>484</x:v>
       </x:c>
-      <x:c r="F49" s="0" t="s">
+      <x:c r="F49" s="1" t="s">
         <x:v>485</x:v>
       </x:c>
-      <x:c r="G49" s="0" t="s">
+      <x:c r="G49" s="1" t="s">
         <x:v>486</x:v>
       </x:c>
-      <x:c r="H49" s="0" t="s">
+      <x:c r="H49" s="1" t="s">
         <x:v>487</x:v>
       </x:c>
-      <x:c r="I49" s="0" t="s">
+      <x:c r="I49" s="1" t="s">
         <x:v>488</x:v>
       </x:c>
-      <x:c r="J49" s="0" t="s">
+      <x:c r="J49" s="1" t="s">
         <x:v>489</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:10">
-      <x:c r="A50" s="0" t="s">
+      <x:c r="A50" s="1" t="s">
         <x:v>490</x:v>
       </x:c>
-      <x:c r="B50" s="0" t="s">
+      <x:c r="B50" s="1" t="s">
         <x:v>491</x:v>
       </x:c>
-      <x:c r="C50" s="0" t="s">
+      <x:c r="C50" s="1" t="s">
         <x:v>492</x:v>
       </x:c>
-      <x:c r="D50" s="0" t="s">
+      <x:c r="D50" s="1" t="s">
         <x:v>493</x:v>
       </x:c>
-      <x:c r="E50" s="0" t="s">
+      <x:c r="E50" s="1" t="s">
         <x:v>494</x:v>
       </x:c>
-      <x:c r="F50" s="0" t="s">
+      <x:c r="F50" s="1" t="s">
         <x:v>495</x:v>
       </x:c>
-      <x:c r="G50" s="0" t="s">
+      <x:c r="G50" s="1" t="s">
         <x:v>496</x:v>
       </x:c>
-      <x:c r="H50" s="0" t="s">
+      <x:c r="H50" s="1" t="s">
         <x:v>497</x:v>
       </x:c>
-      <x:c r="I50" s="0" t="s">
+      <x:c r="I50" s="1" t="s">
         <x:v>498</x:v>
       </x:c>
-      <x:c r="J50" s="0" t="s">
+      <x:c r="J50" s="1" t="s">
         <x:v>499</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:10">
-      <x:c r="A51" s="0" t="s">
+      <x:c r="A51" s="1" t="s">
         <x:v>500</x:v>
       </x:c>
-      <x:c r="B51" s="0" t="s">
+      <x:c r="B51" s="1" t="s">
         <x:v>501</x:v>
       </x:c>
-      <x:c r="C51" s="0" t="s">
+      <x:c r="C51" s="1" t="s">
         <x:v>502</x:v>
       </x:c>
-      <x:c r="D51" s="0" t="s">
+      <x:c r="D51" s="1" t="s">
         <x:v>503</x:v>
       </x:c>
-      <x:c r="E51" s="0" t="s">
+      <x:c r="E51" s="1" t="s">
         <x:v>504</x:v>
       </x:c>
-      <x:c r="F51" s="0" t="s">
+      <x:c r="F51" s="1" t="s">
         <x:v>505</x:v>
       </x:c>
-      <x:c r="G51" s="0" t="s">
+      <x:c r="G51" s="1" t="s">
         <x:v>506</x:v>
       </x:c>
-      <x:c r="H51" s="0" t="s">
+      <x:c r="H51" s="1" t="s">
         <x:v>507</x:v>
       </x:c>
-      <x:c r="I51" s="0" t="s">
+      <x:c r="I51" s="1" t="s">
         <x:v>508</x:v>
       </x:c>
-      <x:c r="J51" s="0" t="s">
+      <x:c r="J51" s="1" t="s">
         <x:v>509</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:10">
-      <x:c r="A52" s="0" t="s">
+      <x:c r="A52" s="1" t="s">
         <x:v>510</x:v>
       </x:c>
-      <x:c r="B52" s="0" t="s">
+      <x:c r="B52" s="1" t="s">
         <x:v>511</x:v>
       </x:c>
-      <x:c r="C52" s="0" t="s">
+      <x:c r="C52" s="1" t="s">
         <x:v>512</x:v>
       </x:c>
-      <x:c r="D52" s="0" t="s">
+      <x:c r="D52" s="1" t="s">
         <x:v>513</x:v>
       </x:c>
-      <x:c r="E52" s="0" t="s">
+      <x:c r="E52" s="1" t="s">
         <x:v>514</x:v>
       </x:c>
-      <x:c r="F52" s="0" t="s">
+      <x:c r="F52" s="1" t="s">
         <x:v>515</x:v>
       </x:c>
-      <x:c r="G52" s="0" t="s">
+      <x:c r="G52" s="1" t="s">
         <x:v>516</x:v>
       </x:c>
-      <x:c r="H52" s="0" t="s">
+      <x:c r="H52" s="1" t="s">
         <x:v>517</x:v>
       </x:c>
-      <x:c r="I52" s="0" t="s">
+      <x:c r="I52" s="1" t="s">
         <x:v>518</x:v>
       </x:c>
-      <x:c r="J52" s="0" t="s">
+      <x:c r="J52" s="1" t="s">
         <x:v>519</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:10">
-      <x:c r="A53" s="0" t="s">
+      <x:c r="A53" s="1" t="s">
         <x:v>520</x:v>
       </x:c>
-      <x:c r="B53" s="0" t="s">
+      <x:c r="B53" s="1" t="s">
         <x:v>521</x:v>
       </x:c>
-      <x:c r="C53" s="0" t="s">
+      <x:c r="C53" s="1" t="s">
         <x:v>522</x:v>
       </x:c>
-      <x:c r="D53" s="0" t="s">
+      <x:c r="D53" s="1" t="s">
         <x:v>523</x:v>
       </x:c>
-      <x:c r="E53" s="0" t="s">
+      <x:c r="E53" s="1" t="s">
         <x:v>524</x:v>
       </x:c>
-      <x:c r="F53" s="0" t="s">
+      <x:c r="F53" s="1" t="s">
         <x:v>525</x:v>
       </x:c>
-      <x:c r="G53" s="0" t="s">
+      <x:c r="G53" s="1" t="s">
         <x:v>526</x:v>
       </x:c>
-      <x:c r="H53" s="0" t="s">
+      <x:c r="H53" s="1" t="s">
         <x:v>527</x:v>
       </x:c>
-      <x:c r="I53" s="0" t="s">
+      <x:c r="I53" s="1" t="s">
         <x:v>528</x:v>
       </x:c>
-      <x:c r="J53" s="0" t="s">
+      <x:c r="J53" s="1" t="s">
         <x:v>529</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:10">
-      <x:c r="A54" s="0" t="s">
+      <x:c r="A54" s="1" t="s">
         <x:v>530</x:v>
       </x:c>
-      <x:c r="B54" s="0" t="s">
+      <x:c r="B54" s="1" t="s">
         <x:v>531</x:v>
       </x:c>
-      <x:c r="C54" s="0" t="s">
+      <x:c r="C54" s="1" t="s">
         <x:v>532</x:v>
       </x:c>
-      <x:c r="D54" s="0" t="s">
+      <x:c r="D54" s="1" t="s">
         <x:v>533</x:v>
       </x:c>
-      <x:c r="E54" s="0" t="s">
+      <x:c r="E54" s="1" t="s">
         <x:v>534</x:v>
       </x:c>
-      <x:c r="F54" s="0" t="s">
+      <x:c r="F54" s="1" t="s">
         <x:v>535</x:v>
       </x:c>
-      <x:c r="G54" s="0" t="s">
+      <x:c r="G54" s="1" t="s">
         <x:v>536</x:v>
       </x:c>
-      <x:c r="H54" s="0" t="s">
+      <x:c r="H54" s="1" t="s">
         <x:v>537</x:v>
       </x:c>
-      <x:c r="I54" s="0" t="s">
+      <x:c r="I54" s="1" t="s">
         <x:v>538</x:v>
       </x:c>
-      <x:c r="J54" s="0" t="s">
+      <x:c r="J54" s="1" t="s">
         <x:v>539</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:10">
-      <x:c r="A55" s="0" t="s">
+      <x:c r="A55" s="1" t="s">
         <x:v>540</x:v>
       </x:c>
-      <x:c r="B55" s="0" t="s">
+      <x:c r="B55" s="1" t="s">
         <x:v>541</x:v>
       </x:c>
-      <x:c r="C55" s="0" t="s">
+      <x:c r="C55" s="1" t="s">
         <x:v>542</x:v>
       </x:c>
-      <x:c r="D55" s="0" t="s">
+      <x:c r="D55" s="1" t="s">
         <x:v>543</x:v>
       </x:c>
-      <x:c r="E55" s="0" t="s">
+      <x:c r="E55" s="1" t="s">
         <x:v>544</x:v>
       </x:c>
-      <x:c r="F55" s="0" t="s">
+      <x:c r="F55" s="1" t="s">
         <x:v>545</x:v>
       </x:c>
-      <x:c r="G55" s="0" t="s">
+      <x:c r="G55" s="1" t="s">
         <x:v>546</x:v>
       </x:c>
-      <x:c r="H55" s="0" t="s">
+      <x:c r="H55" s="1" t="s">
         <x:v>547</x:v>
       </x:c>
-      <x:c r="I55" s="0" t="s">
+      <x:c r="I55" s="1" t="s">
         <x:v>548</x:v>
       </x:c>
-      <x:c r="J55" s="0" t="s">
+      <x:c r="J55" s="1" t="s">
         <x:v>549</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:10">
-      <x:c r="A56" s="0" t="s">
+      <x:c r="A56" s="1" t="s">
         <x:v>550</x:v>
       </x:c>
-      <x:c r="B56" s="0" t="s">
+      <x:c r="B56" s="1" t="s">
         <x:v>551</x:v>
       </x:c>
-      <x:c r="C56" s="0" t="s">
+      <x:c r="C56" s="1" t="s">
         <x:v>552</x:v>
       </x:c>
-      <x:c r="D56" s="0" t="s">
+      <x:c r="D56" s="1" t="s">
         <x:v>553</x:v>
       </x:c>
-      <x:c r="E56" s="0" t="s">
+      <x:c r="E56" s="1" t="s">
         <x:v>554</x:v>
       </x:c>
-      <x:c r="F56" s="0" t="s">
+      <x:c r="F56" s="1" t="s">
         <x:v>555</x:v>
       </x:c>
-      <x:c r="G56" s="0" t="s">
+      <x:c r="G56" s="1" t="s">
         <x:v>556</x:v>
       </x:c>
-      <x:c r="H56" s="0" t="s">
+      <x:c r="H56" s="1" t="s">
         <x:v>557</x:v>
       </x:c>
-      <x:c r="I56" s="0" t="s">
+      <x:c r="I56" s="1" t="s">
         <x:v>558</x:v>
       </x:c>
-      <x:c r="J56" s="0" t="s">
+      <x:c r="J56" s="1" t="s">
         <x:v>559</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:10">
-      <x:c r="A57" s="0" t="s">
+      <x:c r="A57" s="1" t="s">
         <x:v>560</x:v>
       </x:c>
-      <x:c r="B57" s="0" t="s">
+      <x:c r="B57" s="1" t="s">
         <x:v>561</x:v>
       </x:c>
-      <x:c r="C57" s="0" t="s">
+      <x:c r="C57" s="1" t="s">
         <x:v>562</x:v>
       </x:c>
-      <x:c r="D57" s="0" t="s">
+      <x:c r="D57" s="1" t="s">
         <x:v>563</x:v>
       </x:c>
-      <x:c r="E57" s="0" t="s">
+      <x:c r="E57" s="1" t="s">
         <x:v>564</x:v>
       </x:c>
-      <x:c r="F57" s="0" t="s">
+      <x:c r="F57" s="1" t="s">
         <x:v>565</x:v>
       </x:c>
-      <x:c r="G57" s="0" t="s">
+      <x:c r="G57" s="1" t="s">
         <x:v>566</x:v>
       </x:c>
-      <x:c r="H57" s="0" t="s">
+      <x:c r="H57" s="1" t="s">
         <x:v>567</x:v>
       </x:c>
-      <x:c r="I57" s="0" t="s">
+      <x:c r="I57" s="1" t="s">
         <x:v>568</x:v>
       </x:c>
-      <x:c r="J57" s="0" t="s">
+      <x:c r="J57" s="1" t="s">
         <x:v>569</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:10">
-      <x:c r="A58" s="0" t="s">
+      <x:c r="A58" s="1" t="s">
         <x:v>570</x:v>
       </x:c>
-      <x:c r="B58" s="0" t="s">
+      <x:c r="B58" s="1" t="s">
         <x:v>571</x:v>
       </x:c>
-      <x:c r="C58" s="0" t="s">
+      <x:c r="C58" s="1" t="s">
         <x:v>572</x:v>
       </x:c>
-      <x:c r="D58" s="0" t="s">
+      <x:c r="D58" s="1" t="s">
         <x:v>573</x:v>
       </x:c>
-      <x:c r="E58" s="0" t="s">
+      <x:c r="E58" s="1" t="s">
         <x:v>574</x:v>
       </x:c>
-      <x:c r="F58" s="0" t="s">
+      <x:c r="F58" s="1" t="s">
         <x:v>575</x:v>
       </x:c>
-      <x:c r="G58" s="0" t="s">
+      <x:c r="G58" s="1" t="s">
         <x:v>576</x:v>
       </x:c>
-      <x:c r="H58" s="0" t="s">
+      <x:c r="H58" s="1" t="s">
         <x:v>577</x:v>
       </x:c>
-      <x:c r="I58" s="0" t="s">
+      <x:c r="I58" s="1" t="s">
         <x:v>578</x:v>
       </x:c>
-      <x:c r="J58" s="0" t="s">
+      <x:c r="J58" s="1" t="s">
         <x:v>579</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:10">
-      <x:c r="A59" s="0" t="s">
+      <x:c r="A59" s="1" t="s">
         <x:v>580</x:v>
       </x:c>
-      <x:c r="B59" s="0" t="s">
+      <x:c r="B59" s="1" t="s">
         <x:v>581</x:v>
       </x:c>
-      <x:c r="C59" s="0" t="s">
+      <x:c r="C59" s="1" t="s">
         <x:v>582</x:v>
       </x:c>
-      <x:c r="D59" s="0" t="s">
+      <x:c r="D59" s="1" t="s">
         <x:v>583</x:v>
       </x:c>
-      <x:c r="E59" s="0" t="s">
+      <x:c r="E59" s="1" t="s">
         <x:v>584</x:v>
       </x:c>
-      <x:c r="F59" s="0" t="s">
+      <x:c r="F59" s="1" t="s">
         <x:v>585</x:v>
       </x:c>
-      <x:c r="G59" s="0" t="s">
+      <x:c r="G59" s="1" t="s">
         <x:v>586</x:v>
       </x:c>
-      <x:c r="H59" s="0" t="s">
+      <x:c r="H59" s="1" t="s">
         <x:v>587</x:v>
       </x:c>
-      <x:c r="I59" s="0" t="s">
+      <x:c r="I59" s="1" t="s">
         <x:v>588</x:v>
       </x:c>
-      <x:c r="J59" s="0" t="s">
+      <x:c r="J59" s="1" t="s">
         <x:v>589</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:10">
-      <x:c r="A60" s="0" t="s">
+      <x:c r="A60" s="1" t="s">
         <x:v>590</x:v>
       </x:c>
-      <x:c r="B60" s="0" t="s">
+      <x:c r="B60" s="1" t="s">
         <x:v>591</x:v>
       </x:c>
-      <x:c r="C60" s="0" t="s">
+      <x:c r="C60" s="1" t="s">
         <x:v>592</x:v>
       </x:c>
-      <x:c r="D60" s="0" t="s">
+      <x:c r="D60" s="1" t="s">
         <x:v>593</x:v>
       </x:c>
-      <x:c r="E60" s="0" t="s">
+      <x:c r="E60" s="1" t="s">
         <x:v>594</x:v>
       </x:c>
-      <x:c r="F60" s="0" t="s">
+      <x:c r="F60" s="1" t="s">
         <x:v>595</x:v>
       </x:c>
-      <x:c r="G60" s="0" t="s">
+      <x:c r="G60" s="1" t="s">
         <x:v>596</x:v>
       </x:c>
-      <x:c r="H60" s="0" t="s">
+      <x:c r="H60" s="1" t="s">
         <x:v>597</x:v>
       </x:c>
-      <x:c r="I60" s="0" t="s">
+      <x:c r="I60" s="1" t="s">
         <x:v>598</x:v>
       </x:c>
-      <x:c r="J60" s="0" t="s">
+      <x:c r="J60" s="1" t="s">
         <x:v>599</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:10">
-      <x:c r="A61" s="0" t="s">
+      <x:c r="A61" s="1" t="s">
         <x:v>600</x:v>
       </x:c>
-      <x:c r="B61" s="0" t="s">
+      <x:c r="B61" s="1" t="s">
         <x:v>601</x:v>
       </x:c>
-      <x:c r="C61" s="0" t="s">
+      <x:c r="C61" s="1" t="s">
         <x:v>602</x:v>
       </x:c>
-      <x:c r="D61" s="0" t="s">
+      <x:c r="D61" s="1" t="s">
         <x:v>603</x:v>
       </x:c>
-      <x:c r="E61" s="0" t="s">
+      <x:c r="E61" s="1" t="s">
         <x:v>604</x:v>
       </x:c>
-      <x:c r="F61" s="0" t="s">
+      <x:c r="F61" s="1" t="s">
         <x:v>605</x:v>
       </x:c>
-      <x:c r="G61" s="0" t="s">
+      <x:c r="G61" s="1" t="s">
         <x:v>606</x:v>
       </x:c>
-      <x:c r="H61" s="0" t="s">
+      <x:c r="H61" s="1" t="s">
         <x:v>607</x:v>
       </x:c>
-      <x:c r="I61" s="0" t="s">
+      <x:c r="I61" s="1" t="s">
         <x:v>608</x:v>
       </x:c>
-      <x:c r="J61" s="0" t="s">
+      <x:c r="J61" s="1" t="s">
         <x:v>609</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:10">
-      <x:c r="A62" s="0" t="s">
+      <x:c r="A62" s="1" t="s">
         <x:v>610</x:v>
       </x:c>
-      <x:c r="B62" s="0" t="s">
+      <x:c r="B62" s="1" t="s">
         <x:v>611</x:v>
       </x:c>
-      <x:c r="C62" s="0" t="s">
+      <x:c r="C62" s="1" t="s">
         <x:v>612</x:v>
       </x:c>
-      <x:c r="D62" s="0" t="s">
+      <x:c r="D62" s="1" t="s">
         <x:v>613</x:v>
       </x:c>
-      <x:c r="E62" s="0" t="s">
+      <x:c r="E62" s="1" t="s">
         <x:v>614</x:v>
       </x:c>
-      <x:c r="F62" s="0" t="s">
+      <x:c r="F62" s="1" t="s">
         <x:v>615</x:v>
       </x:c>
-      <x:c r="G62" s="0" t="s">
+      <x:c r="G62" s="1" t="s">
         <x:v>616</x:v>
       </x:c>
-      <x:c r="H62" s="0" t="s">
+      <x:c r="H62" s="1" t="s">
         <x:v>617</x:v>
       </x:c>
-      <x:c r="I62" s="0" t="s">
+      <x:c r="I62" s="1" t="s">
         <x:v>618</x:v>
       </x:c>
-      <x:c r="J62" s="0" t="s">
+      <x:c r="J62" s="1" t="s">
         <x:v>619</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:10">
-      <x:c r="A63" s="0" t="s">
+      <x:c r="A63" s="1" t="s">
         <x:v>620</x:v>
       </x:c>
-      <x:c r="B63" s="0" t="s">
+      <x:c r="B63" s="1" t="s">
         <x:v>621</x:v>
       </x:c>
-      <x:c r="C63" s="0" t="s">
+      <x:c r="C63" s="1" t="s">
         <x:v>622</x:v>
       </x:c>
-      <x:c r="D63" s="0" t="s">
+      <x:c r="D63" s="1" t="s">
         <x:v>623</x:v>
       </x:c>
-      <x:c r="E63" s="0" t="s">
+      <x:c r="E63" s="1" t="s">
         <x:v>624</x:v>
       </x:c>
-      <x:c r="F63" s="0" t="s">
+      <x:c r="F63" s="1" t="s">
         <x:v>625</x:v>
       </x:c>
-      <x:c r="G63" s="0" t="s">
+      <x:c r="G63" s="1" t="s">
         <x:v>626</x:v>
       </x:c>
-      <x:c r="H63" s="0" t="s">
+      <x:c r="H63" s="1" t="s">
         <x:v>627</x:v>
       </x:c>
-      <x:c r="I63" s="0" t="s">
+      <x:c r="I63" s="1" t="s">
         <x:v>628</x:v>
       </x:c>
-      <x:c r="J63" s="0" t="s">
+      <x:c r="J63" s="1" t="s">
         <x:v>629</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:10">
-      <x:c r="A64" s="0" t="s">
+      <x:c r="A64" s="1" t="s">
         <x:v>630</x:v>
       </x:c>
-      <x:c r="B64" s="0" t="s">
+      <x:c r="B64" s="1" t="s">
         <x:v>631</x:v>
       </x:c>
-      <x:c r="C64" s="0" t="s">
+      <x:c r="C64" s="1" t="s">
         <x:v>632</x:v>
       </x:c>
-      <x:c r="D64" s="0" t="s">
+      <x:c r="D64" s="1" t="s">
         <x:v>633</x:v>
       </x:c>
-      <x:c r="E64" s="0" t="s">
+      <x:c r="E64" s="1" t="s">
         <x:v>634</x:v>
       </x:c>
-      <x:c r="F64" s="0" t="s">
+      <x:c r="F64" s="1" t="s">
         <x:v>635</x:v>
       </x:c>
-      <x:c r="G64" s="0" t="s">
+      <x:c r="G64" s="1" t="s">
         <x:v>636</x:v>
       </x:c>
-      <x:c r="H64" s="0" t="s">
+      <x:c r="H64" s="1" t="s">
         <x:v>637</x:v>
       </x:c>
-      <x:c r="I64" s="0" t="s">
+      <x:c r="I64" s="1" t="s">
         <x:v>638</x:v>
       </x:c>
-      <x:c r="J64" s="0" t="s">
+      <x:c r="J64" s="1" t="s">
         <x:v>639</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:10">
-      <x:c r="A65" s="0" t="s">
+      <x:c r="A65" s="1" t="s">
         <x:v>640</x:v>
       </x:c>
-      <x:c r="B65" s="0" t="s">
+      <x:c r="B65" s="1" t="s">
         <x:v>641</x:v>
       </x:c>
-      <x:c r="C65" s="0" t="s">
+      <x:c r="C65" s="1" t="s">
         <x:v>642</x:v>
       </x:c>
-      <x:c r="D65" s="0" t="s">
+      <x:c r="D65" s="1" t="s">
         <x:v>643</x:v>
       </x:c>
-      <x:c r="E65" s="0" t="s">
+      <x:c r="E65" s="1" t="s">
         <x:v>644</x:v>
       </x:c>
-      <x:c r="F65" s="0" t="s">
+      <x:c r="F65" s="1" t="s">
         <x:v>645</x:v>
       </x:c>
-      <x:c r="G65" s="0" t="s">
+      <x:c r="G65" s="1" t="s">
         <x:v>646</x:v>
       </x:c>
-      <x:c r="H65" s="0" t="s">
+      <x:c r="H65" s="1" t="s">
         <x:v>647</x:v>
       </x:c>
-      <x:c r="I65" s="0" t="s">
+      <x:c r="I65" s="1" t="s">
         <x:v>648</x:v>
       </x:c>
-      <x:c r="J65" s="0" t="s">
+      <x:c r="J65" s="1" t="s">
         <x:v>649</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:10">
-      <x:c r="A66" s="0" t="s">
+      <x:c r="A66" s="1" t="s">
         <x:v>650</x:v>
       </x:c>
-      <x:c r="B66" s="0" t="s">
+      <x:c r="B66" s="1" t="s">
         <x:v>651</x:v>
       </x:c>
-      <x:c r="C66" s="0" t="s">
+      <x:c r="C66" s="1" t="s">
         <x:v>652</x:v>
       </x:c>
-      <x:c r="D66" s="0" t="s">
+      <x:c r="D66" s="1" t="s">
         <x:v>653</x:v>
       </x:c>
-      <x:c r="E66" s="0" t="s">
+      <x:c r="E66" s="1" t="s">
         <x:v>654</x:v>
       </x:c>
-      <x:c r="F66" s="0" t="s">
+      <x:c r="F66" s="1" t="s">
         <x:v>655</x:v>
       </x:c>
-      <x:c r="G66" s="0" t="s">
+      <x:c r="G66" s="1" t="s">
         <x:v>656</x:v>
       </x:c>
-      <x:c r="H66" s="0" t="s">
+      <x:c r="H66" s="1" t="s">
         <x:v>657</x:v>
       </x:c>
-      <x:c r="I66" s="0" t="s">
+      <x:c r="I66" s="1" t="s">
         <x:v>658</x:v>
       </x:c>
-      <x:c r="J66" s="0" t="s">
+      <x:c r="J66" s="1" t="s">
         <x:v>659</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:10">
-      <x:c r="A67" s="0" t="s">
+      <x:c r="A67" s="1" t="s">
         <x:v>660</x:v>
       </x:c>
-      <x:c r="B67" s="0" t="s">
+      <x:c r="B67" s="1" t="s">
         <x:v>661</x:v>
       </x:c>
-      <x:c r="C67" s="0" t="s">
+      <x:c r="C67" s="1" t="s">
         <x:v>662</x:v>
       </x:c>
-      <x:c r="D67" s="0" t="s">
+      <x:c r="D67" s="1" t="s">
         <x:v>663</x:v>
       </x:c>
-      <x:c r="E67" s="0" t="s">
+      <x:c r="E67" s="1" t="s">
         <x:v>664</x:v>
       </x:c>
-      <x:c r="F67" s="0" t="s">
+      <x:c r="F67" s="1" t="s">
         <x:v>665</x:v>
       </x:c>
-      <x:c r="G67" s="0" t="s">
+      <x:c r="G67" s="1" t="s">
         <x:v>666</x:v>
       </x:c>
-      <x:c r="H67" s="0" t="s">
+      <x:c r="H67" s="1" t="s">
         <x:v>667</x:v>
       </x:c>
-      <x:c r="I67" s="0" t="s">
+      <x:c r="I67" s="1" t="s">
         <x:v>668</x:v>
       </x:c>
-      <x:c r="J67" s="0" t="s">
+      <x:c r="J67" s="1" t="s">
         <x:v>669</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:10">
-      <x:c r="A68" s="0" t="s">
+      <x:c r="A68" s="1" t="s">
         <x:v>670</x:v>
       </x:c>
-      <x:c r="B68" s="0" t="s">
+      <x:c r="B68" s="1" t="s">
         <x:v>671</x:v>
       </x:c>
-      <x:c r="C68" s="0" t="s">
+      <x:c r="C68" s="1" t="s">
         <x:v>672</x:v>
       </x:c>
-      <x:c r="D68" s="0" t="s">
+      <x:c r="D68" s="1" t="s">
         <x:v>673</x:v>
       </x:c>
-      <x:c r="E68" s="0" t="s">
+      <x:c r="E68" s="1" t="s">
         <x:v>674</x:v>
       </x:c>
-      <x:c r="F68" s="0" t="s">
+      <x:c r="F68" s="1" t="s">
         <x:v>675</x:v>
       </x:c>
-      <x:c r="G68" s="0" t="s">
+      <x:c r="G68" s="1" t="s">
         <x:v>676</x:v>
       </x:c>
-      <x:c r="H68" s="0" t="s">
+      <x:c r="H68" s="1" t="s">
         <x:v>677</x:v>
       </x:c>
-      <x:c r="I68" s="0" t="s">
+      <x:c r="I68" s="1" t="s">
         <x:v>678</x:v>
       </x:c>
-      <x:c r="J68" s="0" t="s">
+      <x:c r="J68" s="1" t="s">
         <x:v>679</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:10">
-      <x:c r="A69" s="0" t="s">
+      <x:c r="A69" s="1" t="s">
         <x:v>680</x:v>
       </x:c>
-      <x:c r="B69" s="0" t="s">
+      <x:c r="B69" s="1" t="s">
         <x:v>681</x:v>
       </x:c>
-      <x:c r="C69" s="0" t="s">
+      <x:c r="C69" s="1" t="s">
         <x:v>682</x:v>
       </x:c>
-      <x:c r="D69" s="0" t="s">
+      <x:c r="D69" s="1" t="s">
         <x:v>683</x:v>
       </x:c>
-      <x:c r="E69" s="0" t="s">
+      <x:c r="E69" s="1" t="s">
         <x:v>684</x:v>
       </x:c>
-      <x:c r="F69" s="0" t="s">
+      <x:c r="F69" s="1" t="s">
         <x:v>685</x:v>
       </x:c>
-      <x:c r="G69" s="0" t="s">
+      <x:c r="G69" s="1" t="s">
         <x:v>686</x:v>
       </x:c>
-      <x:c r="H69" s="0" t="s">
+      <x:c r="H69" s="1" t="s">
         <x:v>687</x:v>
       </x:c>
-      <x:c r="I69" s="0" t="s">
+      <x:c r="I69" s="1" t="s">
         <x:v>688</x:v>
       </x:c>
-      <x:c r="J69" s="0" t="s">
+      <x:c r="J69" s="1" t="s">
         <x:v>689</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:10">
-      <x:c r="A70" s="0" t="s">
+      <x:c r="A70" s="1" t="s">
         <x:v>690</x:v>
       </x:c>
-      <x:c r="B70" s="0" t="s">
+      <x:c r="B70" s="1" t="s">
         <x:v>691</x:v>
       </x:c>
-      <x:c r="C70" s="0" t="s">
+      <x:c r="C70" s="1" t="s">
         <x:v>692</x:v>
       </x:c>
-      <x:c r="D70" s="0" t="s">
+      <x:c r="D70" s="1" t="s">
         <x:v>693</x:v>
       </x:c>
-      <x:c r="E70" s="0" t="s">
+      <x:c r="E70" s="1" t="s">
         <x:v>694</x:v>
       </x:c>
-      <x:c r="F70" s="0" t="s">
+      <x:c r="F70" s="1" t="s">
         <x:v>695</x:v>
       </x:c>
-      <x:c r="G70" s="0" t="s">
+      <x:c r="G70" s="1" t="s">
         <x:v>696</x:v>
       </x:c>
-      <x:c r="H70" s="0" t="s">
+      <x:c r="H70" s="1" t="s">
         <x:v>697</x:v>
       </x:c>
-      <x:c r="I70" s="0" t="s">
+      <x:c r="I70" s="1" t="s">
         <x:v>698</x:v>
       </x:c>
-      <x:c r="J70" s="0" t="s">
+      <x:c r="J70" s="1" t="s">
         <x:v>699</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:10">
-      <x:c r="A71" s="0" t="s">
+      <x:c r="A71" s="1" t="s">
         <x:v>700</x:v>
       </x:c>
-      <x:c r="B71" s="0" t="s">
+      <x:c r="B71" s="1" t="s">
         <x:v>701</x:v>
       </x:c>
-      <x:c r="C71" s="0" t="s">
+      <x:c r="C71" s="1" t="s">
         <x:v>702</x:v>
       </x:c>
-      <x:c r="D71" s="0" t="s">
+      <x:c r="D71" s="1" t="s">
         <x:v>703</x:v>
       </x:c>
-      <x:c r="E71" s="0" t="s">
+      <x:c r="E71" s="1" t="s">
         <x:v>704</x:v>
       </x:c>
-      <x:c r="F71" s="0" t="s">
+      <x:c r="F71" s="1" t="s">
         <x:v>705</x:v>
       </x:c>
-      <x:c r="G71" s="0" t="s">
+      <x:c r="G71" s="1" t="s">
         <x:v>706</x:v>
       </x:c>
-      <x:c r="H71" s="0" t="s">
+      <x:c r="H71" s="1" t="s">
         <x:v>707</x:v>
       </x:c>
-      <x:c r="I71" s="0" t="s">
+      <x:c r="I71" s="1" t="s">
         <x:v>708</x:v>
       </x:c>
-      <x:c r="J71" s="0" t="s">
+      <x:c r="J71" s="1" t="s">
         <x:v>709</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:10">
-      <x:c r="A72" s="0" t="s">
+      <x:c r="A72" s="1" t="s">
         <x:v>710</x:v>
       </x:c>
-      <x:c r="B72" s="0" t="s">
+      <x:c r="B72" s="1" t="s">
         <x:v>711</x:v>
       </x:c>
-      <x:c r="C72" s="0" t="s">
+      <x:c r="C72" s="1" t="s">
         <x:v>712</x:v>
       </x:c>
-      <x:c r="D72" s="0" t="s">
+      <x:c r="D72" s="1" t="s">
         <x:v>713</x:v>
       </x:c>
-      <x:c r="E72" s="0" t="s">
+      <x:c r="E72" s="1" t="s">
         <x:v>714</x:v>
       </x:c>
-      <x:c r="F72" s="0" t="s">
+      <x:c r="F72" s="1" t="s">
         <x:v>715</x:v>
       </x:c>
-      <x:c r="G72" s="0" t="s">
+      <x:c r="G72" s="1" t="s">
         <x:v>716</x:v>
       </x:c>
-      <x:c r="H72" s="0" t="s">
+      <x:c r="H72" s="1" t="s">
         <x:v>717</x:v>
       </x:c>
-      <x:c r="I72" s="0" t="s">
+      <x:c r="I72" s="1" t="s">
         <x:v>718</x:v>
       </x:c>
-      <x:c r="J72" s="0" t="s">
+      <x:c r="J72" s="1" t="s">
         <x:v>719</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:10">
-      <x:c r="A73" s="0" t="s">
+      <x:c r="A73" s="1" t="s">
         <x:v>720</x:v>
       </x:c>
-      <x:c r="B73" s="0" t="s">
+      <x:c r="B73" s="1" t="s">
         <x:v>721</x:v>
       </x:c>
-      <x:c r="C73" s="0" t="s">
+      <x:c r="C73" s="1" t="s">
         <x:v>722</x:v>
       </x:c>
-      <x:c r="D73" s="0" t="s">
+      <x:c r="D73" s="1" t="s">
         <x:v>723</x:v>
       </x:c>
-      <x:c r="E73" s="0" t="s">
+      <x:c r="E73" s="1" t="s">
         <x:v>724</x:v>
       </x:c>
-      <x:c r="F73" s="0" t="s">
+      <x:c r="F73" s="1" t="s">
         <x:v>725</x:v>
       </x:c>
-      <x:c r="G73" s="0" t="s">
+      <x:c r="G73" s="1" t="s">
         <x:v>726</x:v>
       </x:c>
-      <x:c r="H73" s="0" t="s">
+      <x:c r="H73" s="1" t="s">
         <x:v>727</x:v>
       </x:c>
-      <x:c r="I73" s="0" t="s">
+      <x:c r="I73" s="1" t="s">
         <x:v>728</x:v>
       </x:c>
-      <x:c r="J73" s="0" t="s">
+      <x:c r="J73" s="1" t="s">
         <x:v>729</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:10">
-      <x:c r="A74" s="0" t="s">
+      <x:c r="A74" s="1" t="s">
         <x:v>730</x:v>
       </x:c>
-      <x:c r="B74" s="0" t="s">
+      <x:c r="B74" s="1" t="s">
         <x:v>731</x:v>
       </x:c>
-      <x:c r="C74" s="0" t="s">
+      <x:c r="C74" s="1" t="s">
         <x:v>732</x:v>
       </x:c>
-      <x:c r="D74" s="0" t="s">
+      <x:c r="D74" s="1" t="s">
         <x:v>733</x:v>
       </x:c>
-      <x:c r="E74" s="0" t="s">
+      <x:c r="E74" s="1" t="s">
         <x:v>734</x:v>
       </x:c>
-      <x:c r="F74" s="0" t="s">
+      <x:c r="F74" s="1" t="s">
         <x:v>735</x:v>
       </x:c>
-      <x:c r="G74" s="0" t="s">
+      <x:c r="G74" s="1" t="s">
         <x:v>736</x:v>
       </x:c>
-      <x:c r="H74" s="0" t="s">
+      <x:c r="H74" s="1" t="s">
         <x:v>737</x:v>
       </x:c>
-      <x:c r="I74" s="0" t="s">
+      <x:c r="I74" s="1" t="s">
         <x:v>738</x:v>
       </x:c>
-      <x:c r="J74" s="0" t="s">
+      <x:c r="J74" s="1" t="s">
         <x:v>739</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:10">
-      <x:c r="A75" s="0" t="s">
+      <x:c r="A75" s="1" t="s">
         <x:v>740</x:v>
       </x:c>
-      <x:c r="B75" s="0" t="s">
+      <x:c r="B75" s="1" t="s">
         <x:v>741</x:v>
       </x:c>
-      <x:c r="C75" s="0" t="s">
+      <x:c r="C75" s="1" t="s">
         <x:v>742</x:v>
       </x:c>
-      <x:c r="D75" s="0" t="s">
+      <x:c r="D75" s="1" t="s">
         <x:v>743</x:v>
       </x:c>
-      <x:c r="E75" s="0" t="s">
+      <x:c r="E75" s="1" t="s">
         <x:v>744</x:v>
       </x:c>
-      <x:c r="F75" s="0" t="s">
+      <x:c r="F75" s="1" t="s">
         <x:v>745</x:v>
       </x:c>
-      <x:c r="G75" s="0" t="s">
+      <x:c r="G75" s="1" t="s">
         <x:v>746</x:v>
       </x:c>
-      <x:c r="H75" s="0" t="s">
+      <x:c r="H75" s="1" t="s">
         <x:v>747</x:v>
       </x:c>
-      <x:c r="I75" s="0" t="s">
+      <x:c r="I75" s="1" t="s">
         <x:v>748</x:v>
       </x:c>
-      <x:c r="J75" s="0" t="s">
+      <x:c r="J75" s="1" t="s">
         <x:v>749</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:10">
-      <x:c r="A76" s="0" t="s">
+      <x:c r="A76" s="1" t="s">
         <x:v>750</x:v>
       </x:c>
-      <x:c r="B76" s="0" t="s">
+      <x:c r="B76" s="1" t="s">
         <x:v>751</x:v>
       </x:c>
-      <x:c r="C76" s="0" t="s">
+      <x:c r="C76" s="1" t="s">
         <x:v>752</x:v>
       </x:c>
-      <x:c r="D76" s="0" t="s">
+      <x:c r="D76" s="1" t="s">
         <x:v>753</x:v>
       </x:c>
-      <x:c r="E76" s="0" t="s">
+      <x:c r="E76" s="1" t="s">
         <x:v>754</x:v>
       </x:c>
-      <x:c r="F76" s="0" t="s">
+      <x:c r="F76" s="1" t="s">
         <x:v>755</x:v>
       </x:c>
-      <x:c r="G76" s="0" t="s">
+      <x:c r="G76" s="1" t="s">
         <x:v>756</x:v>
       </x:c>
-      <x:c r="H76" s="0" t="s">
+      <x:c r="H76" s="1" t="s">
         <x:v>757</x:v>
       </x:c>
-      <x:c r="I76" s="0" t="s">
+      <x:c r="I76" s="1" t="s">
         <x:v>758</x:v>
       </x:c>
-      <x:c r="J76" s="0" t="s">
+      <x:c r="J76" s="1" t="s">
         <x:v>759</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:10">
-      <x:c r="A77" s="0" t="s">
+      <x:c r="A77" s="1" t="s">
         <x:v>760</x:v>
       </x:c>
-      <x:c r="B77" s="0" t="s">
+      <x:c r="B77" s="1" t="s">
         <x:v>761</x:v>
       </x:c>
-      <x:c r="C77" s="0" t="s">
+      <x:c r="C77" s="1" t="s">
         <x:v>762</x:v>
       </x:c>
-      <x:c r="D77" s="0" t="s">
+      <x:c r="D77" s="1" t="s">
         <x:v>763</x:v>
       </x:c>
-      <x:c r="E77" s="0" t="s">
+      <x:c r="E77" s="1" t="s">
         <x:v>764</x:v>
       </x:c>
-      <x:c r="F77" s="0" t="s">
+      <x:c r="F77" s="1" t="s">
         <x:v>765</x:v>
       </x:c>
-      <x:c r="G77" s="0" t="s">
+      <x:c r="G77" s="1" t="s">
         <x:v>766</x:v>
       </x:c>
-      <x:c r="H77" s="0" t="s">
+      <x:c r="H77" s="1" t="s">
         <x:v>767</x:v>
       </x:c>
-      <x:c r="I77" s="0" t="s">
+      <x:c r="I77" s="1" t="s">
         <x:v>768</x:v>
       </x:c>
-      <x:c r="J77" s="0" t="s">
+      <x:c r="J77" s="1" t="s">
         <x:v>769</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:10">
-      <x:c r="A78" s="0" t="s">
+      <x:c r="A78" s="1" t="s">
         <x:v>770</x:v>
       </x:c>
-      <x:c r="B78" s="0" t="s">
+      <x:c r="B78" s="1" t="s">
         <x:v>771</x:v>
       </x:c>
-      <x:c r="C78" s="0" t="s">
+      <x:c r="C78" s="1" t="s">
         <x:v>772</x:v>
       </x:c>
-      <x:c r="D78" s="0" t="s">
+      <x:c r="D78" s="1" t="s">
         <x:v>773</x:v>
       </x:c>
-      <x:c r="E78" s="0" t="s">
+      <x:c r="E78" s="1" t="s">
         <x:v>774</x:v>
       </x:c>
-      <x:c r="F78" s="0" t="s">
+      <x:c r="F78" s="1" t="s">
         <x:v>775</x:v>
       </x:c>
-      <x:c r="G78" s="0" t="s">
+      <x:c r="G78" s="1" t="s">
         <x:v>776</x:v>
       </x:c>
-      <x:c r="H78" s="0" t="s">
+      <x:c r="H78" s="1" t="s">
         <x:v>777</x:v>
       </x:c>
-      <x:c r="I78" s="0" t="s">
+      <x:c r="I78" s="1" t="s">
         <x:v>778</x:v>
       </x:c>
-      <x:c r="J78" s="0" t="s">
+      <x:c r="J78" s="1" t="s">
         <x:v>779</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:10">
-      <x:c r="A79" s="0" t="s">
+      <x:c r="A79" s="1" t="s">
         <x:v>780</x:v>
       </x:c>
-      <x:c r="B79" s="0" t="s">
+      <x:c r="B79" s="1" t="s">
         <x:v>781</x:v>
       </x:c>
-      <x:c r="C79" s="0" t="s">
+      <x:c r="C79" s="1" t="s">
         <x:v>782</x:v>
       </x:c>
-      <x:c r="D79" s="0" t="s">
+      <x:c r="D79" s="1" t="s">
         <x:v>783</x:v>
       </x:c>
-      <x:c r="E79" s="0" t="s">
+      <x:c r="E79" s="1" t="s">
         <x:v>784</x:v>
       </x:c>
-      <x:c r="F79" s="0" t="s">
+      <x:c r="F79" s="1" t="s">
         <x:v>785</x:v>
       </x:c>
-      <x:c r="G79" s="0" t="s">
+      <x:c r="G79" s="1" t="s">
         <x:v>786</x:v>
       </x:c>
-      <x:c r="H79" s="0" t="s">
+      <x:c r="H79" s="1" t="s">
         <x:v>787</x:v>
       </x:c>
-      <x:c r="I79" s="0" t="s">
+      <x:c r="I79" s="1" t="s">
         <x:v>788</x:v>
       </x:c>
-      <x:c r="J79" s="0" t="s">
+      <x:c r="J79" s="1" t="s">
         <x:v>789</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:10">
-      <x:c r="A80" s="0" t="s">
+      <x:c r="A80" s="1" t="s">
         <x:v>790</x:v>
       </x:c>
-      <x:c r="B80" s="0" t="s">
+      <x:c r="B80" s="1" t="s">
         <x:v>791</x:v>
       </x:c>
-      <x:c r="C80" s="0" t="s">
+      <x:c r="C80" s="1" t="s">
         <x:v>792</x:v>
       </x:c>
-      <x:c r="D80" s="0" t="s">
+      <x:c r="D80" s="1" t="s">
         <x:v>793</x:v>
       </x:c>
-      <x:c r="E80" s="0" t="s">
+      <x:c r="E80" s="1" t="s">
         <x:v>794</x:v>
       </x:c>
-      <x:c r="F80" s="0" t="s">
+      <x:c r="F80" s="1" t="s">
         <x:v>795</x:v>
       </x:c>
-      <x:c r="G80" s="0" t="s">
+      <x:c r="G80" s="1" t="s">
         <x:v>796</x:v>
       </x:c>
-      <x:c r="H80" s="0" t="s">
+      <x:c r="H80" s="1" t="s">
         <x:v>797</x:v>
       </x:c>
-      <x:c r="I80" s="0" t="s">
+      <x:c r="I80" s="1" t="s">
         <x:v>798</x:v>
       </x:c>
-      <x:c r="J80" s="0" t="s">
+      <x:c r="J80" s="1" t="s">
         <x:v>799</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:10">
-      <x:c r="A81" s="0" t="s">
+      <x:c r="A81" s="1" t="s">
         <x:v>800</x:v>
       </x:c>
-      <x:c r="B81" s="0" t="s">
+      <x:c r="B81" s="1" t="s">
         <x:v>801</x:v>
       </x:c>
-      <x:c r="C81" s="0" t="s">
+      <x:c r="C81" s="1" t="s">
         <x:v>802</x:v>
       </x:c>
-      <x:c r="D81" s="0" t="s">
+      <x:c r="D81" s="1" t="s">
         <x:v>803</x:v>
       </x:c>
-      <x:c r="E81" s="0" t="s">
+      <x:c r="E81" s="1" t="s">
         <x:v>804</x:v>
       </x:c>
-      <x:c r="F81" s="0" t="s">
+      <x:c r="F81" s="1" t="s">
         <x:v>805</x:v>
       </x:c>
-      <x:c r="G81" s="0" t="s">
+      <x:c r="G81" s="1" t="s">
         <x:v>806</x:v>
       </x:c>
-      <x:c r="H81" s="0" t="s">
+      <x:c r="H81" s="1" t="s">
         <x:v>807</x:v>
       </x:c>
-      <x:c r="I81" s="0" t="s">
+      <x:c r="I81" s="1" t="s">
         <x:v>808</x:v>
       </x:c>
-      <x:c r="J81" s="0" t="s">
+      <x:c r="J81" s="1" t="s">
         <x:v>809</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:10">
-      <x:c r="A82" s="0" t="s">
+      <x:c r="A82" s="1" t="s">
         <x:v>810</x:v>
       </x:c>
-      <x:c r="B82" s="0" t="s">
+      <x:c r="B82" s="1" t="s">
         <x:v>811</x:v>
       </x:c>
-      <x:c r="C82" s="0" t="s">
+      <x:c r="C82" s="1" t="s">
         <x:v>812</x:v>
       </x:c>
-      <x:c r="D82" s="0" t="s">
+      <x:c r="D82" s="1" t="s">
         <x:v>813</x:v>
       </x:c>
-      <x:c r="E82" s="0" t="s">
+      <x:c r="E82" s="1" t="s">
         <x:v>814</x:v>
       </x:c>
-      <x:c r="F82" s="0" t="s">
+      <x:c r="F82" s="1" t="s">
         <x:v>815</x:v>
       </x:c>
-      <x:c r="G82" s="0" t="s">
+      <x:c r="G82" s="1" t="s">
         <x:v>816</x:v>
       </x:c>
-      <x:c r="H82" s="0" t="s">
+      <x:c r="H82" s="1" t="s">
         <x:v>817</x:v>
       </x:c>
-      <x:c r="I82" s="0" t="s">
+      <x:c r="I82" s="1" t="s">
         <x:v>818</x:v>
       </x:c>
-      <x:c r="J82" s="0" t="s">
+      <x:c r="J82" s="1" t="s">
         <x:v>819</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:10">
-      <x:c r="A83" s="0" t="s">
+      <x:c r="A83" s="1" t="s">
         <x:v>820</x:v>
       </x:c>
-      <x:c r="B83" s="0" t="s">
+      <x:c r="B83" s="1" t="s">
         <x:v>821</x:v>
       </x:c>
-      <x:c r="C83" s="0" t="s">
+      <x:c r="C83" s="1" t="s">
         <x:v>822</x:v>
       </x:c>
-      <x:c r="D83" s="0" t="s">
+      <x:c r="D83" s="1" t="s">
         <x:v>823</x:v>
       </x:c>
-      <x:c r="E83" s="0" t="s">
+      <x:c r="E83" s="1" t="s">
         <x:v>824</x:v>
       </x:c>
-      <x:c r="F83" s="0" t="s">
+      <x:c r="F83" s="1" t="s">
         <x:v>825</x:v>
       </x:c>
-      <x:c r="G83" s="0" t="s">
+      <x:c r="G83" s="1" t="s">
         <x:v>826</x:v>
       </x:c>
-      <x:c r="H83" s="0" t="s">
+      <x:c r="H83" s="1" t="s">
         <x:v>827</x:v>
       </x:c>
-      <x:c r="I83" s="0" t="s">
+      <x:c r="I83" s="1" t="s">
         <x:v>828</x:v>
       </x:c>
-      <x:c r="J83" s="0" t="s">
+      <x:c r="J83" s="1" t="s">
         <x:v>829</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:10">
-      <x:c r="A84" s="0" t="s">
+      <x:c r="A84" s="1" t="s">
         <x:v>830</x:v>
       </x:c>
-      <x:c r="B84" s="0" t="s">
+      <x:c r="B84" s="1" t="s">
         <x:v>831</x:v>
       </x:c>
-      <x:c r="C84" s="0" t="s">
+      <x:c r="C84" s="1" t="s">
         <x:v>832</x:v>
       </x:c>
-      <x:c r="D84" s="0" t="s">
+      <x:c r="D84" s="1" t="s">
         <x:v>833</x:v>
       </x:c>
-      <x:c r="E84" s="0" t="s">
+      <x:c r="E84" s="1" t="s">
         <x:v>834</x:v>
       </x:c>
-      <x:c r="F84" s="0" t="s">
+      <x:c r="F84" s="1" t="s">
         <x:v>835</x:v>
       </x:c>
-      <x:c r="G84" s="0" t="s">
+      <x:c r="G84" s="1" t="s">
         <x:v>836</x:v>
       </x:c>
-      <x:c r="H84" s="0" t="s">
+      <x:c r="H84" s="1" t="s">
         <x:v>837</x:v>
       </x:c>
-      <x:c r="I84" s="0" t="s">
+      <x:c r="I84" s="1" t="s">
         <x:v>838</x:v>
       </x:c>
-      <x:c r="J84" s="0" t="s">
+      <x:c r="J84" s="1" t="s">
         <x:v>839</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:10">
-      <x:c r="A85" s="0" t="s">
+      <x:c r="A85" s="1" t="s">
         <x:v>840</x:v>
       </x:c>
-      <x:c r="B85" s="0" t="s">
+      <x:c r="B85" s="1" t="s">
         <x:v>841</x:v>
       </x:c>
-      <x:c r="C85" s="0" t="s">
+      <x:c r="C85" s="1" t="s">
         <x:v>842</x:v>
       </x:c>
-      <x:c r="D85" s="0" t="s">
+      <x:c r="D85" s="1" t="s">
         <x:v>843</x:v>
       </x:c>
-      <x:c r="E85" s="0" t="s">
+      <x:c r="E85" s="1" t="s">
         <x:v>844</x:v>
       </x:c>
-      <x:c r="F85" s="0" t="s">
+      <x:c r="F85" s="1" t="s">
         <x:v>845</x:v>
       </x:c>
-      <x:c r="G85" s="0" t="s">
+      <x:c r="G85" s="1" t="s">
         <x:v>846</x:v>
       </x:c>
-      <x:c r="H85" s="0" t="s">
+      <x:c r="H85" s="1" t="s">
         <x:v>847</x:v>
       </x:c>
-      <x:c r="I85" s="0" t="s">
+      <x:c r="I85" s="1" t="s">
         <x:v>848</x:v>
       </x:c>
-      <x:c r="J85" s="0" t="s">
+      <x:c r="J85" s="1" t="s">
         <x:v>849</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:10">
-      <x:c r="A86" s="0" t="s">
+      <x:c r="A86" s="1" t="s">
         <x:v>850</x:v>
       </x:c>
-      <x:c r="B86" s="0" t="s">
+      <x:c r="B86" s="1" t="s">
         <x:v>851</x:v>
       </x:c>
-      <x:c r="C86" s="0" t="s">
+      <x:c r="C86" s="1" t="s">
         <x:v>852</x:v>
       </x:c>
-      <x:c r="D86" s="0" t="s">
+      <x:c r="D86" s="1" t="s">
         <x:v>853</x:v>
       </x:c>
-      <x:c r="E86" s="0" t="s">
+      <x:c r="E86" s="1" t="s">
         <x:v>854</x:v>
       </x:c>
-      <x:c r="F86" s="0" t="s">
+      <x:c r="F86" s="1" t="s">
         <x:v>855</x:v>
       </x:c>
-      <x:c r="G86" s="0" t="s">
+      <x:c r="G86" s="1" t="s">
         <x:v>856</x:v>
       </x:c>
-      <x:c r="H86" s="0" t="s">
+      <x:c r="H86" s="1" t="s">
         <x:v>857</x:v>
       </x:c>
-      <x:c r="I86" s="0" t="s">
+      <x:c r="I86" s="1" t="s">
         <x:v>858</x:v>
       </x:c>
-      <x:c r="J86" s="0" t="s">
+      <x:c r="J86" s="1" t="s">
         <x:v>859</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:10">
-      <x:c r="A87" s="0" t="s">
+      <x:c r="A87" s="1" t="s">
         <x:v>860</x:v>
       </x:c>
-      <x:c r="B87" s="0" t="s">
+      <x:c r="B87" s="1" t="s">
         <x:v>861</x:v>
       </x:c>
-      <x:c r="C87" s="0" t="s">
+      <x:c r="C87" s="1" t="s">
         <x:v>862</x:v>
       </x:c>
-      <x:c r="D87" s="0" t="s">
+      <x:c r="D87" s="1" t="s">
         <x:v>863</x:v>
       </x:c>
-      <x:c r="E87" s="0" t="s">
+      <x:c r="E87" s="1" t="s">
         <x:v>864</x:v>
       </x:c>
-      <x:c r="F87" s="0" t="s">
+      <x:c r="F87" s="1" t="s">
         <x:v>865</x:v>
       </x:c>
-      <x:c r="G87" s="0" t="s">
+      <x:c r="G87" s="1" t="s">
         <x:v>866</x:v>
       </x:c>
-      <x:c r="H87" s="0" t="s">
+      <x:c r="H87" s="1" t="s">
         <x:v>867</x:v>
       </x:c>
-      <x:c r="I87" s="0" t="s">
+      <x:c r="I87" s="1" t="s">
         <x:v>868</x:v>
       </x:c>
-      <x:c r="J87" s="0" t="s">
+      <x:c r="J87" s="1" t="s">
         <x:v>869</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:10">
-      <x:c r="A88" s="0" t="s">
+      <x:c r="A88" s="1" t="s">
         <x:v>870</x:v>
       </x:c>
-      <x:c r="B88" s="0" t="s">
+      <x:c r="B88" s="1" t="s">
         <x:v>871</x:v>
       </x:c>
-      <x:c r="C88" s="0" t="s">
+      <x:c r="C88" s="1" t="s">
         <x:v>872</x:v>
       </x:c>
-      <x:c r="D88" s="0" t="s">
+      <x:c r="D88" s="1" t="s">
         <x:v>873</x:v>
       </x:c>
-      <x:c r="E88" s="0" t="s">
+      <x:c r="E88" s="1" t="s">
         <x:v>874</x:v>
       </x:c>
-      <x:c r="F88" s="0" t="s">
+      <x:c r="F88" s="1" t="s">
         <x:v>875</x:v>
       </x:c>
-      <x:c r="G88" s="0" t="s">
+      <x:c r="G88" s="1" t="s">
         <x:v>876</x:v>
       </x:c>
-      <x:c r="H88" s="0" t="s">
+      <x:c r="H88" s="1" t="s">
         <x:v>877</x:v>
       </x:c>
-      <x:c r="I88" s="0" t="s">
+      <x:c r="I88" s="1" t="s">
         <x:v>878</x:v>
       </x:c>
-      <x:c r="J88" s="0" t="s">
+      <x:c r="J88" s="1" t="s">
         <x:v>879</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:10">
-      <x:c r="A89" s="0" t="s">
+      <x:c r="A89" s="1" t="s">
         <x:v>880</x:v>
       </x:c>
-      <x:c r="B89" s="0" t="s">
+      <x:c r="B89" s="1" t="s">
         <x:v>881</x:v>
       </x:c>
-      <x:c r="C89" s="0" t="s">
+      <x:c r="C89" s="1" t="s">
         <x:v>882</x:v>
       </x:c>
-      <x:c r="D89" s="0" t="s">
+      <x:c r="D89" s="1" t="s">
         <x:v>883</x:v>
       </x:c>
-      <x:c r="E89" s="0" t="s">
+      <x:c r="E89" s="1" t="s">
         <x:v>884</x:v>
       </x:c>
-      <x:c r="F89" s="0" t="s">
+      <x:c r="F89" s="1" t="s">
         <x:v>885</x:v>
       </x:c>
-      <x:c r="G89" s="0" t="s">
+      <x:c r="G89" s="1" t="s">
         <x:v>886</x:v>
       </x:c>
-      <x:c r="H89" s="0" t="s">
+      <x:c r="H89" s="1" t="s">
         <x:v>887</x:v>
       </x:c>
-      <x:c r="I89" s="0" t="s">
+      <x:c r="I89" s="1" t="s">
         <x:v>888</x:v>
       </x:c>
-      <x:c r="J89" s="0" t="s">
+      <x:c r="J89" s="1" t="s">
         <x:v>889</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:10">
-      <x:c r="A90" s="0" t="s">
+      <x:c r="A90" s="1" t="s">
         <x:v>890</x:v>
       </x:c>
-      <x:c r="B90" s="0" t="s">
+      <x:c r="B90" s="1" t="s">
         <x:v>891</x:v>
       </x:c>
-      <x:c r="C90" s="0" t="s">
+      <x:c r="C90" s="1" t="s">
         <x:v>892</x:v>
       </x:c>
-      <x:c r="D90" s="0" t="s">
+      <x:c r="D90" s="1" t="s">
         <x:v>893</x:v>
       </x:c>
-      <x:c r="E90" s="0" t="s">
+      <x:c r="E90" s="1" t="s">
         <x:v>894</x:v>
       </x:c>
-      <x:c r="F90" s="0" t="s">
+      <x:c r="F90" s="1" t="s">
         <x:v>895</x:v>
       </x:c>
-      <x:c r="G90" s="0" t="s">
+      <x:c r="G90" s="1" t="s">
         <x:v>896</x:v>
       </x:c>
-      <x:c r="H90" s="0" t="s">
+      <x:c r="H90" s="1" t="s">
         <x:v>897</x:v>
       </x:c>
-      <x:c r="I90" s="0" t="s">
+      <x:c r="I90" s="1" t="s">
         <x:v>898</x:v>
       </x:c>
-      <x:c r="J90" s="0" t="s">
+      <x:c r="J90" s="1" t="s">
         <x:v>899</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:10">
-      <x:c r="A91" s="0" t="s">
+      <x:c r="A91" s="1" t="s">
         <x:v>900</x:v>
       </x:c>
-      <x:c r="B91" s="0" t="s">
+      <x:c r="B91" s="1" t="s">
         <x:v>901</x:v>
       </x:c>
-      <x:c r="C91" s="0" t="s">
+      <x:c r="C91" s="1" t="s">
         <x:v>902</x:v>
       </x:c>
-      <x:c r="D91" s="0" t="s">
+      <x:c r="D91" s="1" t="s">
         <x:v>903</x:v>
       </x:c>
-      <x:c r="E91" s="0" t="s">
+      <x:c r="E91" s="1" t="s">
         <x:v>904</x:v>
       </x:c>
-      <x:c r="F91" s="0" t="s">
+      <x:c r="F91" s="1" t="s">
         <x:v>905</x:v>
       </x:c>
-      <x:c r="G91" s="0" t="s">
+      <x:c r="G91" s="1" t="s">
         <x:v>906</x:v>
       </x:c>
-      <x:c r="H91" s="0" t="s">
+      <x:c r="H91" s="1" t="s">
         <x:v>907</x:v>
       </x:c>
-      <x:c r="I91" s="0" t="s">
+      <x:c r="I91" s="1" t="s">
         <x:v>908</x:v>
       </x:c>
-      <x:c r="J91" s="0" t="s">
+      <x:c r="J91" s="1" t="s">
         <x:v>909</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:10">
-      <x:c r="A92" s="0" t="s">
+      <x:c r="A92" s="1" t="s">
         <x:v>910</x:v>
       </x:c>
-      <x:c r="B92" s="0" t="s">
+      <x:c r="B92" s="1" t="s">
         <x:v>911</x:v>
       </x:c>
-      <x:c r="C92" s="0" t="s">
+      <x:c r="C92" s="1" t="s">
         <x:v>912</x:v>
       </x:c>
-      <x:c r="D92" s="0" t="s">
+      <x:c r="D92" s="1" t="s">
         <x:v>913</x:v>
       </x:c>
-      <x:c r="E92" s="0" t="s">
+      <x:c r="E92" s="1" t="s">
         <x:v>914</x:v>
       </x:c>
-      <x:c r="F92" s="0" t="s">
+      <x:c r="F92" s="1" t="s">
         <x:v>915</x:v>
       </x:c>
-      <x:c r="G92" s="0" t="s">
+      <x:c r="G92" s="1" t="s">
         <x:v>916</x:v>
       </x:c>
-      <x:c r="H92" s="0" t="s">
+      <x:c r="H92" s="1" t="s">
         <x:v>917</x:v>
       </x:c>
-      <x:c r="I92" s="0" t="s">
+      <x:c r="I92" s="1" t="s">
         <x:v>918</x:v>
       </x:c>
-      <x:c r="J92" s="0" t="s">
+      <x:c r="J92" s="1" t="s">
         <x:v>919</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:10">
-      <x:c r="A93" s="0" t="s">
+      <x:c r="A93" s="1" t="s">
         <x:v>920</x:v>
       </x:c>
-      <x:c r="B93" s="0" t="s">
+      <x:c r="B93" s="1" t="s">
         <x:v>921</x:v>
       </x:c>
-      <x:c r="C93" s="0" t="s">
+      <x:c r="C93" s="1" t="s">
         <x:v>922</x:v>
       </x:c>
-      <x:c r="D93" s="0" t="s">
+      <x:c r="D93" s="1" t="s">
         <x:v>923</x:v>
       </x:c>
-      <x:c r="E93" s="0" t="s">
+      <x:c r="E93" s="1" t="s">
         <x:v>924</x:v>
       </x:c>
-      <x:c r="F93" s="0" t="s">
+      <x:c r="F93" s="1" t="s">
         <x:v>925</x:v>
       </x:c>
-      <x:c r="G93" s="0" t="s">
+      <x:c r="G93" s="1" t="s">
         <x:v>926</x:v>
       </x:c>
-      <x:c r="H93" s="0" t="s">
+      <x:c r="H93" s="1" t="s">
         <x:v>927</x:v>
       </x:c>
-      <x:c r="I93" s="0" t="s">
+      <x:c r="I93" s="1" t="s">
         <x:v>928</x:v>
       </x:c>
-      <x:c r="J93" s="0" t="s">
+      <x:c r="J93" s="1" t="s">
         <x:v>929</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:10">
-      <x:c r="A94" s="0" t="s">
+      <x:c r="A94" s="1" t="s">
         <x:v>930</x:v>
       </x:c>
-      <x:c r="B94" s="0" t="s">
+      <x:c r="B94" s="1" t="s">
         <x:v>931</x:v>
       </x:c>
-      <x:c r="C94" s="0" t="s">
+      <x:c r="C94" s="1" t="s">
         <x:v>932</x:v>
       </x:c>
-      <x:c r="D94" s="0" t="s">
+      <x:c r="D94" s="1" t="s">
         <x:v>933</x:v>
       </x:c>
-      <x:c r="E94" s="0" t="s">
+      <x:c r="E94" s="1" t="s">
         <x:v>934</x:v>
       </x:c>
-      <x:c r="F94" s="0" t="s">
+      <x:c r="F94" s="1" t="s">
         <x:v>935</x:v>
       </x:c>
-      <x:c r="G94" s="0" t="s">
+      <x:c r="G94" s="1" t="s">
         <x:v>936</x:v>
       </x:c>
-      <x:c r="H94" s="0" t="s">
+      <x:c r="H94" s="1" t="s">
         <x:v>937</x:v>
       </x:c>
-      <x:c r="I94" s="0" t="s">
+      <x:c r="I94" s="1" t="s">
         <x:v>938</x:v>
       </x:c>
-      <x:c r="J94" s="0" t="s">
+      <x:c r="J94" s="1" t="s">
         <x:v>939</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:10">
-      <x:c r="A95" s="0" t="s">
+      <x:c r="A95" s="1" t="s">
         <x:v>940</x:v>
       </x:c>
-      <x:c r="B95" s="0" t="s">
+      <x:c r="B95" s="1" t="s">
         <x:v>941</x:v>
       </x:c>
-      <x:c r="C95" s="0" t="s">
+      <x:c r="C95" s="1" t="s">
         <x:v>942</x:v>
       </x:c>
-      <x:c r="D95" s="0" t="s">
+      <x:c r="D95" s="1" t="s">
         <x:v>943</x:v>
       </x:c>
-      <x:c r="E95" s="0" t="s">
+      <x:c r="E95" s="1" t="s">
         <x:v>944</x:v>
       </x:c>
-      <x:c r="F95" s="0" t="s">
+      <x:c r="F95" s="1" t="s">
         <x:v>945</x:v>
       </x:c>
-      <x:c r="G95" s="0" t="s">
+      <x:c r="G95" s="1" t="s">
         <x:v>946</x:v>
       </x:c>
-      <x:c r="H95" s="0" t="s">
+      <x:c r="H95" s="1" t="s">
         <x:v>947</x:v>
       </x:c>
-      <x:c r="I95" s="0" t="s">
+      <x:c r="I95" s="1" t="s">
         <x:v>948</x:v>
       </x:c>
-      <x:c r="J95" s="0" t="s">
+      <x:c r="J95" s="1" t="s">
         <x:v>949</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:10">
-      <x:c r="A96" s="0" t="s">
+      <x:c r="A96" s="1" t="s">
         <x:v>950</x:v>
       </x:c>
-      <x:c r="B96" s="0" t="s">
+      <x:c r="B96" s="1" t="s">
         <x:v>951</x:v>
       </x:c>
-      <x:c r="C96" s="0" t="s">
+      <x:c r="C96" s="1" t="s">
         <x:v>952</x:v>
       </x:c>
-      <x:c r="D96" s="0" t="s">
+      <x:c r="D96" s="1" t="s">
         <x:v>953</x:v>
       </x:c>
-      <x:c r="E96" s="0" t="s">
+      <x:c r="E96" s="1" t="s">
         <x:v>954</x:v>
       </x:c>
-      <x:c r="F96" s="0" t="s">
+      <x:c r="F96" s="1" t="s">
         <x:v>955</x:v>
       </x:c>
-      <x:c r="G96" s="0" t="s">
+      <x:c r="G96" s="1" t="s">
         <x:v>956</x:v>
       </x:c>
-      <x:c r="H96" s="0" t="s">
+      <x:c r="H96" s="1" t="s">
         <x:v>957</x:v>
       </x:c>
-      <x:c r="I96" s="0" t="s">
+      <x:c r="I96" s="1" t="s">
         <x:v>958</x:v>
       </x:c>
-      <x:c r="J96" s="0" t="s">
+      <x:c r="J96" s="1" t="s">
         <x:v>959</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:10">
-      <x:c r="A97" s="0" t="s">
+      <x:c r="A97" s="1" t="s">
         <x:v>960</x:v>
       </x:c>
-      <x:c r="B97" s="0" t="s">
+      <x:c r="B97" s="1" t="s">
         <x:v>961</x:v>
       </x:c>
-      <x:c r="C97" s="0" t="s">
+      <x:c r="C97" s="1" t="s">
         <x:v>962</x:v>
       </x:c>
-      <x:c r="D97" s="0" t="s">
+      <x:c r="D97" s="1" t="s">
         <x:v>963</x:v>
       </x:c>
-      <x:c r="E97" s="0" t="s">
+      <x:c r="E97" s="1" t="s">
         <x:v>964</x:v>
       </x:c>
-      <x:c r="F97" s="0" t="s">
+      <x:c r="F97" s="1" t="s">
         <x:v>965</x:v>
       </x:c>
-      <x:c r="G97" s="0" t="s">
+      <x:c r="G97" s="1" t="s">
         <x:v>966</x:v>
       </x:c>
-      <x:c r="H97" s="0" t="s">
+      <x:c r="H97" s="1" t="s">
         <x:v>967</x:v>
       </x:c>
-      <x:c r="I97" s="0" t="s">
+      <x:c r="I97" s="1" t="s">
         <x:v>968</x:v>
       </x:c>
-      <x:c r="J97" s="0" t="s">
+      <x:c r="J97" s="1" t="s">
         <x:v>969</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:10">
-      <x:c r="A98" s="0" t="s">
+      <x:c r="A98" s="1" t="s">
         <x:v>970</x:v>
       </x:c>
-      <x:c r="B98" s="0" t="s">
+      <x:c r="B98" s="1" t="s">
         <x:v>971</x:v>
       </x:c>
-      <x:c r="C98" s="0" t="s">
+      <x:c r="C98" s="1" t="s">
         <x:v>972</x:v>
       </x:c>
-      <x:c r="D98" s="0" t="s">
+      <x:c r="D98" s="1" t="s">
         <x:v>973</x:v>
       </x:c>
-      <x:c r="E98" s="0" t="s">
+      <x:c r="E98" s="1" t="s">
         <x:v>974</x:v>
       </x:c>
-      <x:c r="F98" s="0" t="s">
+      <x:c r="F98" s="1" t="s">
         <x:v>975</x:v>
       </x:c>
-      <x:c r="G98" s="0" t="s">
+      <x:c r="G98" s="1" t="s">
         <x:v>976</x:v>
       </x:c>
-      <x:c r="H98" s="0" t="s">
+      <x:c r="H98" s="1" t="s">
         <x:v>977</x:v>
       </x:c>
-      <x:c r="I98" s="0" t="s">
+      <x:c r="I98" s="1" t="s">
         <x:v>978</x:v>
       </x:c>
-      <x:c r="J98" s="0" t="s">
+      <x:c r="J98" s="1" t="s">
         <x:v>979</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:10">
-      <x:c r="A99" s="0" t="s">
+      <x:c r="A99" s="1" t="s">
         <x:v>980</x:v>
       </x:c>
-      <x:c r="B99" s="0" t="s">
+      <x:c r="B99" s="1" t="s">
         <x:v>981</x:v>
       </x:c>
-      <x:c r="C99" s="0" t="s">
+      <x:c r="C99" s="1" t="s">
         <x:v>982</x:v>
       </x:c>
-      <x:c r="D99" s="0" t="s">
+      <x:c r="D99" s="1" t="s">
         <x:v>983</x:v>
       </x:c>
-      <x:c r="E99" s="0" t="s">
+      <x:c r="E99" s="1" t="s">
         <x:v>984</x:v>
       </x:c>
-      <x:c r="F99" s="0" t="s">
+      <x:c r="F99" s="1" t="s">
         <x:v>985</x:v>
       </x:c>
-      <x:c r="G99" s="0" t="s">
+      <x:c r="G99" s="1" t="s">
         <x:v>986</x:v>
       </x:c>
-      <x:c r="H99" s="0" t="s">
+      <x:c r="H99" s="1" t="s">
         <x:v>987</x:v>
       </x:c>
-      <x:c r="I99" s="0" t="s">
+      <x:c r="I99" s="1" t="s">
         <x:v>988</x:v>
       </x:c>
-      <x:c r="J99" s="0" t="s">
+      <x:c r="J99" s="1" t="s">
         <x:v>989</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:10">
-      <x:c r="A100" s="0" t="s">
+      <x:c r="A100" s="1" t="s">
         <x:v>990</x:v>
       </x:c>
-      <x:c r="B100" s="0" t="s">
+      <x:c r="B100" s="1" t="s">
         <x:v>991</x:v>
       </x:c>
-      <x:c r="C100" s="0" t="s">
+      <x:c r="C100" s="1" t="s">
         <x:v>992</x:v>
       </x:c>
-      <x:c r="D100" s="0" t="s">
+      <x:c r="D100" s="1" t="s">
         <x:v>993</x:v>
       </x:c>
-      <x:c r="E100" s="0" t="s">
+      <x:c r="E100" s="1" t="s">
         <x:v>994</x:v>
       </x:c>
-      <x:c r="F100" s="0" t="s">
+      <x:c r="F100" s="1" t="s">
         <x:v>995</x:v>
       </x:c>
-      <x:c r="G100" s="0" t="s">
+      <x:c r="G100" s="1" t="s">
         <x:v>996</x:v>
       </x:c>
-      <x:c r="H100" s="0" t="s">
+      <x:c r="H100" s="1" t="s">
         <x:v>997</x:v>
       </x:c>
-      <x:c r="I100" s="0" t="s">
+      <x:c r="I100" s="1" t="s">
         <x:v>998</x:v>
       </x:c>
-      <x:c r="J100" s="0" t="s">
+      <x:c r="J100" s="1" t="s">
         <x:v>999</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/PageSetup/TwoPages.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/PageSetup/TwoPages.xlsx
@@ -3059,21 +3059,14 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+  <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -3379,3202 +3372,3202 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:10">
-      <x:c r="A1" s="1" t="s">
+      <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="1" t="s">
+      <x:c r="B1" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="1" t="s">
+      <x:c r="C1" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="1" t="s">
+      <x:c r="D1" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="1" t="s">
+      <x:c r="E1" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="1" t="s">
+      <x:c r="F1" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G1" s="1" t="s">
+      <x:c r="G1" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H1" s="1" t="s">
+      <x:c r="H1" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I1" s="1" t="s">
+      <x:c r="I1" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J1" s="1" t="s">
+      <x:c r="J1" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:10">
-      <x:c r="A2" s="1" t="s">
+      <x:c r="A2" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B2" s="1" t="s">
+      <x:c r="B2" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C2" s="1" t="s">
+      <x:c r="C2" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D2" s="1" t="s">
+      <x:c r="D2" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="E2" s="1" t="s">
+      <x:c r="E2" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="F2" s="1" t="s">
+      <x:c r="F2" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="G2" s="1" t="s">
+      <x:c r="G2" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="H2" s="1" t="s">
+      <x:c r="H2" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="I2" s="1" t="s">
+      <x:c r="I2" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="J2" s="1" t="s">
+      <x:c r="J2" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10">
-      <x:c r="A3" s="1" t="s">
+      <x:c r="A3" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B3" s="1" t="s">
+      <x:c r="B3" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C3" s="1" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D3" s="1" t="s">
+      <x:c r="D3" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="E3" s="1" t="s">
+      <x:c r="E3" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="F3" s="1" t="s">
+      <x:c r="F3" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="G3" s="1" t="s">
+      <x:c r="G3" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="H3" s="1" t="s">
+      <x:c r="H3" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="I3" s="1" t="s">
+      <x:c r="I3" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="J3" s="1" t="s">
+      <x:c r="J3" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:10">
-      <x:c r="A4" s="1" t="s">
+      <x:c r="A4" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B4" s="1" t="s">
+      <x:c r="B4" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C4" s="1" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="D4" s="1" t="s">
+      <x:c r="D4" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="E4" s="1" t="s">
+      <x:c r="E4" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="F4" s="1" t="s">
+      <x:c r="F4" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="G4" s="1" t="s">
+      <x:c r="G4" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="H4" s="1" t="s">
+      <x:c r="H4" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="I4" s="1" t="s">
+      <x:c r="I4" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="J4" s="1" t="s">
+      <x:c r="J4" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:10">
-      <x:c r="A5" s="1" t="s">
+      <x:c r="A5" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="B5" s="1" t="s">
+      <x:c r="B5" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C5" s="1" t="s">
+      <x:c r="C5" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D5" s="1" t="s">
+      <x:c r="D5" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="E5" s="1" t="s">
+      <x:c r="E5" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="F5" s="1" t="s">
+      <x:c r="F5" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="G5" s="1" t="s">
+      <x:c r="G5" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="H5" s="1" t="s">
+      <x:c r="H5" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="I5" s="1" t="s">
+      <x:c r="I5" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="J5" s="1" t="s">
+      <x:c r="J5" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10">
-      <x:c r="A6" s="1" t="s">
+      <x:c r="A6" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="B6" s="1" t="s">
+      <x:c r="B6" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="C6" s="1" t="s">
+      <x:c r="C6" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="D6" s="1" t="s">
+      <x:c r="D6" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="E6" s="1" t="s">
+      <x:c r="E6" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="F6" s="1" t="s">
+      <x:c r="F6" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="G6" s="1" t="s">
+      <x:c r="G6" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="H6" s="1" t="s">
+      <x:c r="H6" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="I6" s="1" t="s">
+      <x:c r="I6" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="J6" s="1" t="s">
+      <x:c r="J6" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:10">
-      <x:c r="A7" s="1" t="s">
+      <x:c r="A7" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="B7" s="1" t="s">
+      <x:c r="B7" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="C7" s="1" t="s">
+      <x:c r="C7" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="D7" s="1" t="s">
+      <x:c r="D7" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="E7" s="1" t="s">
+      <x:c r="E7" s="0" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="F7" s="1" t="s">
+      <x:c r="F7" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="G7" s="1" t="s">
+      <x:c r="G7" s="0" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="H7" s="1" t="s">
+      <x:c r="H7" s="0" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="I7" s="1" t="s">
+      <x:c r="I7" s="0" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="J7" s="1" t="s">
+      <x:c r="J7" s="0" t="s">
         <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10">
-      <x:c r="A8" s="1" t="s">
+      <x:c r="A8" s="0" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="B8" s="1" t="s">
+      <x:c r="B8" s="0" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="C8" s="1" t="s">
+      <x:c r="C8" s="0" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="D8" s="1" t="s">
+      <x:c r="D8" s="0" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="E8" s="1" t="s">
+      <x:c r="E8" s="0" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="F8" s="1" t="s">
+      <x:c r="F8" s="0" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="G8" s="1" t="s">
+      <x:c r="G8" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="H8" s="1" t="s">
+      <x:c r="H8" s="0" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="I8" s="1" t="s">
+      <x:c r="I8" s="0" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="J8" s="1" t="s">
+      <x:c r="J8" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10">
-      <x:c r="A9" s="1" t="s">
+      <x:c r="A9" s="0" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="B9" s="1" t="s">
+      <x:c r="B9" s="0" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="C9" s="1" t="s">
+      <x:c r="C9" s="0" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="D9" s="1" t="s">
+      <x:c r="D9" s="0" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="E9" s="1" t="s">
+      <x:c r="E9" s="0" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="F9" s="1" t="s">
+      <x:c r="F9" s="0" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="G9" s="1" t="s">
+      <x:c r="G9" s="0" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="H9" s="1" t="s">
+      <x:c r="H9" s="0" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="I9" s="1" t="s">
+      <x:c r="I9" s="0" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="J9" s="1" t="s">
+      <x:c r="J9" s="0" t="s">
         <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:10">
-      <x:c r="A10" s="1" t="s">
+      <x:c r="A10" s="0" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="B10" s="1" t="s">
+      <x:c r="B10" s="0" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="C10" s="1" t="s">
+      <x:c r="C10" s="0" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="D10" s="1" t="s">
+      <x:c r="D10" s="0" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="E10" s="1" t="s">
+      <x:c r="E10" s="0" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="F10" s="1" t="s">
+      <x:c r="F10" s="0" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="G10" s="1" t="s">
+      <x:c r="G10" s="0" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="H10" s="1" t="s">
+      <x:c r="H10" s="0" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="I10" s="1" t="s">
+      <x:c r="I10" s="0" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="J10" s="1" t="s">
+      <x:c r="J10" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10">
-      <x:c r="A11" s="1" t="s">
+      <x:c r="A11" s="0" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="B11" s="1" t="s">
+      <x:c r="B11" s="0" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="C11" s="1" t="s">
+      <x:c r="C11" s="0" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="D11" s="1" t="s">
+      <x:c r="D11" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="E11" s="1" t="s">
+      <x:c r="E11" s="0" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="F11" s="1" t="s">
+      <x:c r="F11" s="0" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="G11" s="1" t="s">
+      <x:c r="G11" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="H11" s="1" t="s">
+      <x:c r="H11" s="0" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="I11" s="1" t="s">
+      <x:c r="I11" s="0" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="J11" s="1" t="s">
+      <x:c r="J11" s="0" t="s">
         <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10">
-      <x:c r="A12" s="1" t="s">
+      <x:c r="A12" s="0" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="B12" s="1" t="s">
+      <x:c r="B12" s="0" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="C12" s="1" t="s">
+      <x:c r="C12" s="0" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="D12" s="1" t="s">
+      <x:c r="D12" s="0" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="E12" s="1" t="s">
+      <x:c r="E12" s="0" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="F12" s="1" t="s">
+      <x:c r="F12" s="0" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="G12" s="1" t="s">
+      <x:c r="G12" s="0" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="H12" s="1" t="s">
+      <x:c r="H12" s="0" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="I12" s="1" t="s">
+      <x:c r="I12" s="0" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="J12" s="1" t="s">
+      <x:c r="J12" s="0" t="s">
         <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10">
-      <x:c r="A13" s="1" t="s">
+      <x:c r="A13" s="0" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="B13" s="1" t="s">
+      <x:c r="B13" s="0" t="s">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="C13" s="1" t="s">
+      <x:c r="C13" s="0" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="D13" s="1" t="s">
+      <x:c r="D13" s="0" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="E13" s="1" t="s">
+      <x:c r="E13" s="0" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="F13" s="1" t="s">
+      <x:c r="F13" s="0" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="G13" s="1" t="s">
+      <x:c r="G13" s="0" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="H13" s="1" t="s">
+      <x:c r="H13" s="0" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="I13" s="1" t="s">
+      <x:c r="I13" s="0" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="J13" s="1" t="s">
+      <x:c r="J13" s="0" t="s">
         <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:10">
-      <x:c r="A14" s="1" t="s">
+      <x:c r="A14" s="0" t="s">
         <x:v>130</x:v>
       </x:c>
-      <x:c r="B14" s="1" t="s">
+      <x:c r="B14" s="0" t="s">
         <x:v>131</x:v>
       </x:c>
-      <x:c r="C14" s="1" t="s">
+      <x:c r="C14" s="0" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="D14" s="1" t="s">
+      <x:c r="D14" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="E14" s="1" t="s">
+      <x:c r="E14" s="0" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="F14" s="1" t="s">
+      <x:c r="F14" s="0" t="s">
         <x:v>135</x:v>
       </x:c>
-      <x:c r="G14" s="1" t="s">
+      <x:c r="G14" s="0" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="H14" s="1" t="s">
+      <x:c r="H14" s="0" t="s">
         <x:v>137</x:v>
       </x:c>
-      <x:c r="I14" s="1" t="s">
+      <x:c r="I14" s="0" t="s">
         <x:v>138</x:v>
       </x:c>
-      <x:c r="J14" s="1" t="s">
+      <x:c r="J14" s="0" t="s">
         <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:10">
-      <x:c r="A15" s="1" t="s">
+      <x:c r="A15" s="0" t="s">
         <x:v>140</x:v>
       </x:c>
-      <x:c r="B15" s="1" t="s">
+      <x:c r="B15" s="0" t="s">
         <x:v>141</x:v>
       </x:c>
-      <x:c r="C15" s="1" t="s">
+      <x:c r="C15" s="0" t="s">
         <x:v>142</x:v>
       </x:c>
-      <x:c r="D15" s="1" t="s">
+      <x:c r="D15" s="0" t="s">
         <x:v>143</x:v>
       </x:c>
-      <x:c r="E15" s="1" t="s">
+      <x:c r="E15" s="0" t="s">
         <x:v>144</x:v>
       </x:c>
-      <x:c r="F15" s="1" t="s">
+      <x:c r="F15" s="0" t="s">
         <x:v>145</x:v>
       </x:c>
-      <x:c r="G15" s="1" t="s">
+      <x:c r="G15" s="0" t="s">
         <x:v>146</x:v>
       </x:c>
-      <x:c r="H15" s="1" t="s">
+      <x:c r="H15" s="0" t="s">
         <x:v>147</x:v>
       </x:c>
-      <x:c r="I15" s="1" t="s">
+      <x:c r="I15" s="0" t="s">
         <x:v>148</x:v>
       </x:c>
-      <x:c r="J15" s="1" t="s">
+      <x:c r="J15" s="0" t="s">
         <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:10">
-      <x:c r="A16" s="1" t="s">
+      <x:c r="A16" s="0" t="s">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="B16" s="1" t="s">
+      <x:c r="B16" s="0" t="s">
         <x:v>151</x:v>
       </x:c>
-      <x:c r="C16" s="1" t="s">
+      <x:c r="C16" s="0" t="s">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="D16" s="1" t="s">
+      <x:c r="D16" s="0" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="E16" s="1" t="s">
+      <x:c r="E16" s="0" t="s">
         <x:v>154</x:v>
       </x:c>
-      <x:c r="F16" s="1" t="s">
+      <x:c r="F16" s="0" t="s">
         <x:v>155</x:v>
       </x:c>
-      <x:c r="G16" s="1" t="s">
+      <x:c r="G16" s="0" t="s">
         <x:v>156</x:v>
       </x:c>
-      <x:c r="H16" s="1" t="s">
+      <x:c r="H16" s="0" t="s">
         <x:v>157</x:v>
       </x:c>
-      <x:c r="I16" s="1" t="s">
+      <x:c r="I16" s="0" t="s">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="J16" s="1" t="s">
+      <x:c r="J16" s="0" t="s">
         <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:10">
-      <x:c r="A17" s="1" t="s">
+      <x:c r="A17" s="0" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="B17" s="1" t="s">
+      <x:c r="B17" s="0" t="s">
         <x:v>161</x:v>
       </x:c>
-      <x:c r="C17" s="1" t="s">
+      <x:c r="C17" s="0" t="s">
         <x:v>162</x:v>
       </x:c>
-      <x:c r="D17" s="1" t="s">
+      <x:c r="D17" s="0" t="s">
         <x:v>163</x:v>
       </x:c>
-      <x:c r="E17" s="1" t="s">
+      <x:c r="E17" s="0" t="s">
         <x:v>164</x:v>
       </x:c>
-      <x:c r="F17" s="1" t="s">
+      <x:c r="F17" s="0" t="s">
         <x:v>165</x:v>
       </x:c>
-      <x:c r="G17" s="1" t="s">
+      <x:c r="G17" s="0" t="s">
         <x:v>166</x:v>
       </x:c>
-      <x:c r="H17" s="1" t="s">
+      <x:c r="H17" s="0" t="s">
         <x:v>167</x:v>
       </x:c>
-      <x:c r="I17" s="1" t="s">
+      <x:c r="I17" s="0" t="s">
         <x:v>168</x:v>
       </x:c>
-      <x:c r="J17" s="1" t="s">
+      <x:c r="J17" s="0" t="s">
         <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:10">
-      <x:c r="A18" s="1" t="s">
+      <x:c r="A18" s="0" t="s">
         <x:v>170</x:v>
       </x:c>
-      <x:c r="B18" s="1" t="s">
+      <x:c r="B18" s="0" t="s">
         <x:v>171</x:v>
       </x:c>
-      <x:c r="C18" s="1" t="s">
+      <x:c r="C18" s="0" t="s">
         <x:v>172</x:v>
       </x:c>
-      <x:c r="D18" s="1" t="s">
+      <x:c r="D18" s="0" t="s">
         <x:v>173</x:v>
       </x:c>
-      <x:c r="E18" s="1" t="s">
+      <x:c r="E18" s="0" t="s">
         <x:v>174</x:v>
       </x:c>
-      <x:c r="F18" s="1" t="s">
+      <x:c r="F18" s="0" t="s">
         <x:v>175</x:v>
       </x:c>
-      <x:c r="G18" s="1" t="s">
+      <x:c r="G18" s="0" t="s">
         <x:v>176</x:v>
       </x:c>
-      <x:c r="H18" s="1" t="s">
+      <x:c r="H18" s="0" t="s">
         <x:v>177</x:v>
       </x:c>
-      <x:c r="I18" s="1" t="s">
+      <x:c r="I18" s="0" t="s">
         <x:v>178</x:v>
       </x:c>
-      <x:c r="J18" s="1" t="s">
+      <x:c r="J18" s="0" t="s">
         <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:10">
-      <x:c r="A19" s="1" t="s">
+      <x:c r="A19" s="0" t="s">
         <x:v>180</x:v>
       </x:c>
-      <x:c r="B19" s="1" t="s">
+      <x:c r="B19" s="0" t="s">
         <x:v>181</x:v>
       </x:c>
-      <x:c r="C19" s="1" t="s">
+      <x:c r="C19" s="0" t="s">
         <x:v>182</x:v>
       </x:c>
-      <x:c r="D19" s="1" t="s">
+      <x:c r="D19" s="0" t="s">
         <x:v>183</x:v>
       </x:c>
-      <x:c r="E19" s="1" t="s">
+      <x:c r="E19" s="0" t="s">
         <x:v>184</x:v>
       </x:c>
-      <x:c r="F19" s="1" t="s">
+      <x:c r="F19" s="0" t="s">
         <x:v>185</x:v>
       </x:c>
-      <x:c r="G19" s="1" t="s">
+      <x:c r="G19" s="0" t="s">
         <x:v>186</x:v>
       </x:c>
-      <x:c r="H19" s="1" t="s">
+      <x:c r="H19" s="0" t="s">
         <x:v>187</x:v>
       </x:c>
-      <x:c r="I19" s="1" t="s">
+      <x:c r="I19" s="0" t="s">
         <x:v>188</x:v>
       </x:c>
-      <x:c r="J19" s="1" t="s">
+      <x:c r="J19" s="0" t="s">
         <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10">
-      <x:c r="A20" s="1" t="s">
+      <x:c r="A20" s="0" t="s">
         <x:v>190</x:v>
       </x:c>
-      <x:c r="B20" s="1" t="s">
+      <x:c r="B20" s="0" t="s">
         <x:v>191</x:v>
       </x:c>
-      <x:c r="C20" s="1" t="s">
+      <x:c r="C20" s="0" t="s">
         <x:v>192</x:v>
       </x:c>
-      <x:c r="D20" s="1" t="s">
+      <x:c r="D20" s="0" t="s">
         <x:v>193</x:v>
       </x:c>
-      <x:c r="E20" s="1" t="s">
+      <x:c r="E20" s="0" t="s">
         <x:v>194</x:v>
       </x:c>
-      <x:c r="F20" s="1" t="s">
+      <x:c r="F20" s="0" t="s">
         <x:v>195</x:v>
       </x:c>
-      <x:c r="G20" s="1" t="s">
+      <x:c r="G20" s="0" t="s">
         <x:v>196</x:v>
       </x:c>
-      <x:c r="H20" s="1" t="s">
+      <x:c r="H20" s="0" t="s">
         <x:v>197</x:v>
       </x:c>
-      <x:c r="I20" s="1" t="s">
+      <x:c r="I20" s="0" t="s">
         <x:v>198</x:v>
       </x:c>
-      <x:c r="J20" s="1" t="s">
+      <x:c r="J20" s="0" t="s">
         <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:10">
-      <x:c r="A21" s="1" t="s">
+      <x:c r="A21" s="0" t="s">
         <x:v>200</x:v>
       </x:c>
-      <x:c r="B21" s="1" t="s">
+      <x:c r="B21" s="0" t="s">
         <x:v>201</x:v>
       </x:c>
-      <x:c r="C21" s="1" t="s">
+      <x:c r="C21" s="0" t="s">
         <x:v>202</x:v>
       </x:c>
-      <x:c r="D21" s="1" t="s">
+      <x:c r="D21" s="0" t="s">
         <x:v>203</x:v>
       </x:c>
-      <x:c r="E21" s="1" t="s">
+      <x:c r="E21" s="0" t="s">
         <x:v>204</x:v>
       </x:c>
-      <x:c r="F21" s="1" t="s">
+      <x:c r="F21" s="0" t="s">
         <x:v>205</x:v>
       </x:c>
-      <x:c r="G21" s="1" t="s">
+      <x:c r="G21" s="0" t="s">
         <x:v>206</x:v>
       </x:c>
-      <x:c r="H21" s="1" t="s">
+      <x:c r="H21" s="0" t="s">
         <x:v>207</x:v>
       </x:c>
-      <x:c r="I21" s="1" t="s">
+      <x:c r="I21" s="0" t="s">
         <x:v>208</x:v>
       </x:c>
-      <x:c r="J21" s="1" t="s">
+      <x:c r="J21" s="0" t="s">
         <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:10">
-      <x:c r="A22" s="1" t="s">
+      <x:c r="A22" s="0" t="s">
         <x:v>210</x:v>
       </x:c>
-      <x:c r="B22" s="1" t="s">
+      <x:c r="B22" s="0" t="s">
         <x:v>211</x:v>
       </x:c>
-      <x:c r="C22" s="1" t="s">
+      <x:c r="C22" s="0" t="s">
         <x:v>212</x:v>
       </x:c>
-      <x:c r="D22" s="1" t="s">
+      <x:c r="D22" s="0" t="s">
         <x:v>213</x:v>
       </x:c>
-      <x:c r="E22" s="1" t="s">
+      <x:c r="E22" s="0" t="s">
         <x:v>214</x:v>
       </x:c>
-      <x:c r="F22" s="1" t="s">
+      <x:c r="F22" s="0" t="s">
         <x:v>215</x:v>
       </x:c>
-      <x:c r="G22" s="1" t="s">
+      <x:c r="G22" s="0" t="s">
         <x:v>216</x:v>
       </x:c>
-      <x:c r="H22" s="1" t="s">
+      <x:c r="H22" s="0" t="s">
         <x:v>217</x:v>
       </x:c>
-      <x:c r="I22" s="1" t="s">
+      <x:c r="I22" s="0" t="s">
         <x:v>218</x:v>
       </x:c>
-      <x:c r="J22" s="1" t="s">
+      <x:c r="J22" s="0" t="s">
         <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:10">
-      <x:c r="A23" s="1" t="s">
+      <x:c r="A23" s="0" t="s">
         <x:v>220</x:v>
       </x:c>
-      <x:c r="B23" s="1" t="s">
+      <x:c r="B23" s="0" t="s">
         <x:v>221</x:v>
       </x:c>
-      <x:c r="C23" s="1" t="s">
+      <x:c r="C23" s="0" t="s">
         <x:v>222</x:v>
       </x:c>
-      <x:c r="D23" s="1" t="s">
+      <x:c r="D23" s="0" t="s">
         <x:v>223</x:v>
       </x:c>
-      <x:c r="E23" s="1" t="s">
+      <x:c r="E23" s="0" t="s">
         <x:v>224</x:v>
       </x:c>
-      <x:c r="F23" s="1" t="s">
+      <x:c r="F23" s="0" t="s">
         <x:v>225</x:v>
       </x:c>
-      <x:c r="G23" s="1" t="s">
+      <x:c r="G23" s="0" t="s">
         <x:v>226</x:v>
       </x:c>
-      <x:c r="H23" s="1" t="s">
+      <x:c r="H23" s="0" t="s">
         <x:v>227</x:v>
       </x:c>
-      <x:c r="I23" s="1" t="s">
+      <x:c r="I23" s="0" t="s">
         <x:v>228</x:v>
       </x:c>
-      <x:c r="J23" s="1" t="s">
+      <x:c r="J23" s="0" t="s">
         <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:10">
-      <x:c r="A24" s="1" t="s">
+      <x:c r="A24" s="0" t="s">
         <x:v>230</x:v>
       </x:c>
-      <x:c r="B24" s="1" t="s">
+      <x:c r="B24" s="0" t="s">
         <x:v>231</x:v>
       </x:c>
-      <x:c r="C24" s="1" t="s">
+      <x:c r="C24" s="0" t="s">
         <x:v>232</x:v>
       </x:c>
-      <x:c r="D24" s="1" t="s">
+      <x:c r="D24" s="0" t="s">
         <x:v>233</x:v>
       </x:c>
-      <x:c r="E24" s="1" t="s">
+      <x:c r="E24" s="0" t="s">
         <x:v>234</x:v>
       </x:c>
-      <x:c r="F24" s="1" t="s">
+      <x:c r="F24" s="0" t="s">
         <x:v>235</x:v>
       </x:c>
-      <x:c r="G24" s="1" t="s">
+      <x:c r="G24" s="0" t="s">
         <x:v>236</x:v>
       </x:c>
-      <x:c r="H24" s="1" t="s">
+      <x:c r="H24" s="0" t="s">
         <x:v>237</x:v>
       </x:c>
-      <x:c r="I24" s="1" t="s">
+      <x:c r="I24" s="0" t="s">
         <x:v>238</x:v>
       </x:c>
-      <x:c r="J24" s="1" t="s">
+      <x:c r="J24" s="0" t="s">
         <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:10">
-      <x:c r="A25" s="1" t="s">
+      <x:c r="A25" s="0" t="s">
         <x:v>240</x:v>
       </x:c>
-      <x:c r="B25" s="1" t="s">
+      <x:c r="B25" s="0" t="s">
         <x:v>241</x:v>
       </x:c>
-      <x:c r="C25" s="1" t="s">
+      <x:c r="C25" s="0" t="s">
         <x:v>242</x:v>
       </x:c>
-      <x:c r="D25" s="1" t="s">
+      <x:c r="D25" s="0" t="s">
         <x:v>243</x:v>
       </x:c>
-      <x:c r="E25" s="1" t="s">
+      <x:c r="E25" s="0" t="s">
         <x:v>244</x:v>
       </x:c>
-      <x:c r="F25" s="1" t="s">
+      <x:c r="F25" s="0" t="s">
         <x:v>245</x:v>
       </x:c>
-      <x:c r="G25" s="1" t="s">
+      <x:c r="G25" s="0" t="s">
         <x:v>246</x:v>
       </x:c>
-      <x:c r="H25" s="1" t="s">
+      <x:c r="H25" s="0" t="s">
         <x:v>247</x:v>
       </x:c>
-      <x:c r="I25" s="1" t="s">
+      <x:c r="I25" s="0" t="s">
         <x:v>248</x:v>
       </x:c>
-      <x:c r="J25" s="1" t="s">
+      <x:c r="J25" s="0" t="s">
         <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:10">
-      <x:c r="A26" s="1" t="s">
+      <x:c r="A26" s="0" t="s">
         <x:v>250</x:v>
       </x:c>
-      <x:c r="B26" s="1" t="s">
+      <x:c r="B26" s="0" t="s">
         <x:v>251</x:v>
       </x:c>
-      <x:c r="C26" s="1" t="s">
+      <x:c r="C26" s="0" t="s">
         <x:v>252</x:v>
       </x:c>
-      <x:c r="D26" s="1" t="s">
+      <x:c r="D26" s="0" t="s">
         <x:v>253</x:v>
       </x:c>
-      <x:c r="E26" s="1" t="s">
+      <x:c r="E26" s="0" t="s">
         <x:v>254</x:v>
       </x:c>
-      <x:c r="F26" s="1" t="s">
+      <x:c r="F26" s="0" t="s">
         <x:v>255</x:v>
       </x:c>
-      <x:c r="G26" s="1" t="s">
+      <x:c r="G26" s="0" t="s">
         <x:v>256</x:v>
       </x:c>
-      <x:c r="H26" s="1" t="s">
+      <x:c r="H26" s="0" t="s">
         <x:v>257</x:v>
       </x:c>
-      <x:c r="I26" s="1" t="s">
+      <x:c r="I26" s="0" t="s">
         <x:v>258</x:v>
       </x:c>
-      <x:c r="J26" s="1" t="s">
+      <x:c r="J26" s="0" t="s">
         <x:v>259</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:10">
-      <x:c r="A27" s="1" t="s">
+      <x:c r="A27" s="0" t="s">
         <x:v>260</x:v>
       </x:c>
-      <x:c r="B27" s="1" t="s">
+      <x:c r="B27" s="0" t="s">
         <x:v>261</x:v>
       </x:c>
-      <x:c r="C27" s="1" t="s">
+      <x:c r="C27" s="0" t="s">
         <x:v>262</x:v>
       </x:c>
-      <x:c r="D27" s="1" t="s">
+      <x:c r="D27" s="0" t="s">
         <x:v>263</x:v>
       </x:c>
-      <x:c r="E27" s="1" t="s">
+      <x:c r="E27" s="0" t="s">
         <x:v>264</x:v>
       </x:c>
-      <x:c r="F27" s="1" t="s">
+      <x:c r="F27" s="0" t="s">
         <x:v>265</x:v>
       </x:c>
-      <x:c r="G27" s="1" t="s">
+      <x:c r="G27" s="0" t="s">
         <x:v>266</x:v>
       </x:c>
-      <x:c r="H27" s="1" t="s">
+      <x:c r="H27" s="0" t="s">
         <x:v>267</x:v>
       </x:c>
-      <x:c r="I27" s="1" t="s">
+      <x:c r="I27" s="0" t="s">
         <x:v>268</x:v>
       </x:c>
-      <x:c r="J27" s="1" t="s">
+      <x:c r="J27" s="0" t="s">
         <x:v>269</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:10">
-      <x:c r="A28" s="1" t="s">
+      <x:c r="A28" s="0" t="s">
         <x:v>270</x:v>
       </x:c>
-      <x:c r="B28" s="1" t="s">
+      <x:c r="B28" s="0" t="s">
         <x:v>271</x:v>
       </x:c>
-      <x:c r="C28" s="1" t="s">
+      <x:c r="C28" s="0" t="s">
         <x:v>272</x:v>
       </x:c>
-      <x:c r="D28" s="1" t="s">
+      <x:c r="D28" s="0" t="s">
         <x:v>273</x:v>
       </x:c>
-      <x:c r="E28" s="1" t="s">
+      <x:c r="E28" s="0" t="s">
         <x:v>274</x:v>
       </x:c>
-      <x:c r="F28" s="1" t="s">
+      <x:c r="F28" s="0" t="s">
         <x:v>275</x:v>
       </x:c>
-      <x:c r="G28" s="1" t="s">
+      <x:c r="G28" s="0" t="s">
         <x:v>276</x:v>
       </x:c>
-      <x:c r="H28" s="1" t="s">
+      <x:c r="H28" s="0" t="s">
         <x:v>277</x:v>
       </x:c>
-      <x:c r="I28" s="1" t="s">
+      <x:c r="I28" s="0" t="s">
         <x:v>278</x:v>
       </x:c>
-      <x:c r="J28" s="1" t="s">
+      <x:c r="J28" s="0" t="s">
         <x:v>279</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:10">
-      <x:c r="A29" s="1" t="s">
+      <x:c r="A29" s="0" t="s">
         <x:v>280</x:v>
       </x:c>
-      <x:c r="B29" s="1" t="s">
+      <x:c r="B29" s="0" t="s">
         <x:v>281</x:v>
       </x:c>
-      <x:c r="C29" s="1" t="s">
+      <x:c r="C29" s="0" t="s">
         <x:v>282</x:v>
       </x:c>
-      <x:c r="D29" s="1" t="s">
+      <x:c r="D29" s="0" t="s">
         <x:v>283</x:v>
       </x:c>
-      <x:c r="E29" s="1" t="s">
+      <x:c r="E29" s="0" t="s">
         <x:v>284</x:v>
       </x:c>
-      <x:c r="F29" s="1" t="s">
+      <x:c r="F29" s="0" t="s">
         <x:v>285</x:v>
       </x:c>
-      <x:c r="G29" s="1" t="s">
+      <x:c r="G29" s="0" t="s">
         <x:v>286</x:v>
       </x:c>
-      <x:c r="H29" s="1" t="s">
+      <x:c r="H29" s="0" t="s">
         <x:v>287</x:v>
       </x:c>
-      <x:c r="I29" s="1" t="s">
+      <x:c r="I29" s="0" t="s">
         <x:v>288</x:v>
       </x:c>
-      <x:c r="J29" s="1" t="s">
+      <x:c r="J29" s="0" t="s">
         <x:v>289</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:10">
-      <x:c r="A30" s="1" t="s">
+      <x:c r="A30" s="0" t="s">
         <x:v>290</x:v>
       </x:c>
-      <x:c r="B30" s="1" t="s">
+      <x:c r="B30" s="0" t="s">
         <x:v>291</x:v>
       </x:c>
-      <x:c r="C30" s="1" t="s">
+      <x:c r="C30" s="0" t="s">
         <x:v>292</x:v>
       </x:c>
-      <x:c r="D30" s="1" t="s">
+      <x:c r="D30" s="0" t="s">
         <x:v>293</x:v>
       </x:c>
-      <x:c r="E30" s="1" t="s">
+      <x:c r="E30" s="0" t="s">
         <x:v>294</x:v>
       </x:c>
-      <x:c r="F30" s="1" t="s">
+      <x:c r="F30" s="0" t="s">
         <x:v>295</x:v>
       </x:c>
-      <x:c r="G30" s="1" t="s">
+      <x:c r="G30" s="0" t="s">
         <x:v>296</x:v>
       </x:c>
-      <x:c r="H30" s="1" t="s">
+      <x:c r="H30" s="0" t="s">
         <x:v>297</x:v>
       </x:c>
-      <x:c r="I30" s="1" t="s">
+      <x:c r="I30" s="0" t="s">
         <x:v>298</x:v>
       </x:c>
-      <x:c r="J30" s="1" t="s">
+      <x:c r="J30" s="0" t="s">
         <x:v>299</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:10">
-      <x:c r="A31" s="1" t="s">
+      <x:c r="A31" s="0" t="s">
         <x:v>300</x:v>
       </x:c>
-      <x:c r="B31" s="1" t="s">
+      <x:c r="B31" s="0" t="s">
         <x:v>301</x:v>
       </x:c>
-      <x:c r="C31" s="1" t="s">
+      <x:c r="C31" s="0" t="s">
         <x:v>302</x:v>
       </x:c>
-      <x:c r="D31" s="1" t="s">
+      <x:c r="D31" s="0" t="s">
         <x:v>303</x:v>
       </x:c>
-      <x:c r="E31" s="1" t="s">
+      <x:c r="E31" s="0" t="s">
         <x:v>304</x:v>
       </x:c>
-      <x:c r="F31" s="1" t="s">
+      <x:c r="F31" s="0" t="s">
         <x:v>305</x:v>
       </x:c>
-      <x:c r="G31" s="1" t="s">
+      <x:c r="G31" s="0" t="s">
         <x:v>306</x:v>
       </x:c>
-      <x:c r="H31" s="1" t="s">
+      <x:c r="H31" s="0" t="s">
         <x:v>307</x:v>
       </x:c>
-      <x:c r="I31" s="1" t="s">
+      <x:c r="I31" s="0" t="s">
         <x:v>308</x:v>
       </x:c>
-      <x:c r="J31" s="1" t="s">
+      <x:c r="J31" s="0" t="s">
         <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:10">
-      <x:c r="A32" s="1" t="s">
+      <x:c r="A32" s="0" t="s">
         <x:v>310</x:v>
       </x:c>
-      <x:c r="B32" s="1" t="s">
+      <x:c r="B32" s="0" t="s">
         <x:v>311</x:v>
       </x:c>
-      <x:c r="C32" s="1" t="s">
+      <x:c r="C32" s="0" t="s">
         <x:v>312</x:v>
       </x:c>
-      <x:c r="D32" s="1" t="s">
+      <x:c r="D32" s="0" t="s">
         <x:v>313</x:v>
       </x:c>
-      <x:c r="E32" s="1" t="s">
+      <x:c r="E32" s="0" t="s">
         <x:v>314</x:v>
       </x:c>
-      <x:c r="F32" s="1" t="s">
+      <x:c r="F32" s="0" t="s">
         <x:v>315</x:v>
       </x:c>
-      <x:c r="G32" s="1" t="s">
+      <x:c r="G32" s="0" t="s">
         <x:v>316</x:v>
       </x:c>
-      <x:c r="H32" s="1" t="s">
+      <x:c r="H32" s="0" t="s">
         <x:v>317</x:v>
       </x:c>
-      <x:c r="I32" s="1" t="s">
+      <x:c r="I32" s="0" t="s">
         <x:v>318</x:v>
       </x:c>
-      <x:c r="J32" s="1" t="s">
+      <x:c r="J32" s="0" t="s">
         <x:v>319</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:10">
-      <x:c r="A33" s="1" t="s">
+      <x:c r="A33" s="0" t="s">
         <x:v>320</x:v>
       </x:c>
-      <x:c r="B33" s="1" t="s">
+      <x:c r="B33" s="0" t="s">
         <x:v>321</x:v>
       </x:c>
-      <x:c r="C33" s="1" t="s">
+      <x:c r="C33" s="0" t="s">
         <x:v>322</x:v>
       </x:c>
-      <x:c r="D33" s="1" t="s">
+      <x:c r="D33" s="0" t="s">
         <x:v>323</x:v>
       </x:c>
-      <x:c r="E33" s="1" t="s">
+      <x:c r="E33" s="0" t="s">
         <x:v>324</x:v>
       </x:c>
-      <x:c r="F33" s="1" t="s">
+      <x:c r="F33" s="0" t="s">
         <x:v>325</x:v>
       </x:c>
-      <x:c r="G33" s="1" t="s">
+      <x:c r="G33" s="0" t="s">
         <x:v>326</x:v>
       </x:c>
-      <x:c r="H33" s="1" t="s">
+      <x:c r="H33" s="0" t="s">
         <x:v>327</x:v>
       </x:c>
-      <x:c r="I33" s="1" t="s">
+      <x:c r="I33" s="0" t="s">
         <x:v>328</x:v>
       </x:c>
-      <x:c r="J33" s="1" t="s">
+      <x:c r="J33" s="0" t="s">
         <x:v>329</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:10">
-      <x:c r="A34" s="1" t="s">
+      <x:c r="A34" s="0" t="s">
         <x:v>330</x:v>
       </x:c>
-      <x:c r="B34" s="1" t="s">
+      <x:c r="B34" s="0" t="s">
         <x:v>331</x:v>
       </x:c>
-      <x:c r="C34" s="1" t="s">
+      <x:c r="C34" s="0" t="s">
         <x:v>332</x:v>
       </x:c>
-      <x:c r="D34" s="1" t="s">
+      <x:c r="D34" s="0" t="s">
         <x:v>333</x:v>
       </x:c>
-      <x:c r="E34" s="1" t="s">
+      <x:c r="E34" s="0" t="s">
         <x:v>334</x:v>
       </x:c>
-      <x:c r="F34" s="1" t="s">
+      <x:c r="F34" s="0" t="s">
         <x:v>335</x:v>
       </x:c>
-      <x:c r="G34" s="1" t="s">
+      <x:c r="G34" s="0" t="s">
         <x:v>336</x:v>
       </x:c>
-      <x:c r="H34" s="1" t="s">
+      <x:c r="H34" s="0" t="s">
         <x:v>337</x:v>
       </x:c>
-      <x:c r="I34" s="1" t="s">
+      <x:c r="I34" s="0" t="s">
         <x:v>338</x:v>
       </x:c>
-      <x:c r="J34" s="1" t="s">
+      <x:c r="J34" s="0" t="s">
         <x:v>339</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:10">
-      <x:c r="A35" s="1" t="s">
+      <x:c r="A35" s="0" t="s">
         <x:v>340</x:v>
       </x:c>
-      <x:c r="B35" s="1" t="s">
+      <x:c r="B35" s="0" t="s">
         <x:v>341</x:v>
       </x:c>
-      <x:c r="C35" s="1" t="s">
+      <x:c r="C35" s="0" t="s">
         <x:v>342</x:v>
       </x:c>
-      <x:c r="D35" s="1" t="s">
+      <x:c r="D35" s="0" t="s">
         <x:v>343</x:v>
       </x:c>
-      <x:c r="E35" s="1" t="s">
+      <x:c r="E35" s="0" t="s">
         <x:v>344</x:v>
       </x:c>
-      <x:c r="F35" s="1" t="s">
+      <x:c r="F35" s="0" t="s">
         <x:v>345</x:v>
       </x:c>
-      <x:c r="G35" s="1" t="s">
+      <x:c r="G35" s="0" t="s">
         <x:v>346</x:v>
       </x:c>
-      <x:c r="H35" s="1" t="s">
+      <x:c r="H35" s="0" t="s">
         <x:v>347</x:v>
       </x:c>
-      <x:c r="I35" s="1" t="s">
+      <x:c r="I35" s="0" t="s">
         <x:v>348</x:v>
       </x:c>
-      <x:c r="J35" s="1" t="s">
+      <x:c r="J35" s="0" t="s">
         <x:v>349</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:10">
-      <x:c r="A36" s="1" t="s">
+      <x:c r="A36" s="0" t="s">
         <x:v>350</x:v>
       </x:c>
-      <x:c r="B36" s="1" t="s">
+      <x:c r="B36" s="0" t="s">
         <x:v>351</x:v>
       </x:c>
-      <x:c r="C36" s="1" t="s">
+      <x:c r="C36" s="0" t="s">
         <x:v>352</x:v>
       </x:c>
-      <x:c r="D36" s="1" t="s">
+      <x:c r="D36" s="0" t="s">
         <x:v>353</x:v>
       </x:c>
-      <x:c r="E36" s="1" t="s">
+      <x:c r="E36" s="0" t="s">
         <x:v>354</x:v>
       </x:c>
-      <x:c r="F36" s="1" t="s">
+      <x:c r="F36" s="0" t="s">
         <x:v>355</x:v>
       </x:c>
-      <x:c r="G36" s="1" t="s">
+      <x:c r="G36" s="0" t="s">
         <x:v>356</x:v>
       </x:c>
-      <x:c r="H36" s="1" t="s">
+      <x:c r="H36" s="0" t="s">
         <x:v>357</x:v>
       </x:c>
-      <x:c r="I36" s="1" t="s">
+      <x:c r="I36" s="0" t="s">
         <x:v>358</x:v>
       </x:c>
-      <x:c r="J36" s="1" t="s">
+      <x:c r="J36" s="0" t="s">
         <x:v>359</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:10">
-      <x:c r="A37" s="1" t="s">
+      <x:c r="A37" s="0" t="s">
         <x:v>360</x:v>
       </x:c>
-      <x:c r="B37" s="1" t="s">
+      <x:c r="B37" s="0" t="s">
         <x:v>361</x:v>
       </x:c>
-      <x:c r="C37" s="1" t="s">
+      <x:c r="C37" s="0" t="s">
         <x:v>362</x:v>
       </x:c>
-      <x:c r="D37" s="1" t="s">
+      <x:c r="D37" s="0" t="s">
         <x:v>363</x:v>
       </x:c>
-      <x:c r="E37" s="1" t="s">
+      <x:c r="E37" s="0" t="s">
         <x:v>364</x:v>
       </x:c>
-      <x:c r="F37" s="1" t="s">
+      <x:c r="F37" s="0" t="s">
         <x:v>365</x:v>
       </x:c>
-      <x:c r="G37" s="1" t="s">
+      <x:c r="G37" s="0" t="s">
         <x:v>366</x:v>
       </x:c>
-      <x:c r="H37" s="1" t="s">
+      <x:c r="H37" s="0" t="s">
         <x:v>367</x:v>
       </x:c>
-      <x:c r="I37" s="1" t="s">
+      <x:c r="I37" s="0" t="s">
         <x:v>368</x:v>
       </x:c>
-      <x:c r="J37" s="1" t="s">
+      <x:c r="J37" s="0" t="s">
         <x:v>369</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:10">
-      <x:c r="A38" s="1" t="s">
+      <x:c r="A38" s="0" t="s">
         <x:v>370</x:v>
       </x:c>
-      <x:c r="B38" s="1" t="s">
+      <x:c r="B38" s="0" t="s">
         <x:v>371</x:v>
       </x:c>
-      <x:c r="C38" s="1" t="s">
+      <x:c r="C38" s="0" t="s">
         <x:v>372</x:v>
       </x:c>
-      <x:c r="D38" s="1" t="s">
+      <x:c r="D38" s="0" t="s">
         <x:v>373</x:v>
       </x:c>
-      <x:c r="E38" s="1" t="s">
+      <x:c r="E38" s="0" t="s">
         <x:v>374</x:v>
       </x:c>
-      <x:c r="F38" s="1" t="s">
+      <x:c r="F38" s="0" t="s">
         <x:v>375</x:v>
       </x:c>
-      <x:c r="G38" s="1" t="s">
+      <x:c r="G38" s="0" t="s">
         <x:v>376</x:v>
       </x:c>
-      <x:c r="H38" s="1" t="s">
+      <x:c r="H38" s="0" t="s">
         <x:v>377</x:v>
       </x:c>
-      <x:c r="I38" s="1" t="s">
+      <x:c r="I38" s="0" t="s">
         <x:v>378</x:v>
       </x:c>
-      <x:c r="J38" s="1" t="s">
+      <x:c r="J38" s="0" t="s">
         <x:v>379</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:10">
-      <x:c r="A39" s="1" t="s">
+      <x:c r="A39" s="0" t="s">
         <x:v>380</x:v>
       </x:c>
-      <x:c r="B39" s="1" t="s">
+      <x:c r="B39" s="0" t="s">
         <x:v>381</x:v>
       </x:c>
-      <x:c r="C39" s="1" t="s">
+      <x:c r="C39" s="0" t="s">
         <x:v>382</x:v>
       </x:c>
-      <x:c r="D39" s="1" t="s">
+      <x:c r="D39" s="0" t="s">
         <x:v>383</x:v>
       </x:c>
-      <x:c r="E39" s="1" t="s">
+      <x:c r="E39" s="0" t="s">
         <x:v>384</x:v>
       </x:c>
-      <x:c r="F39" s="1" t="s">
+      <x:c r="F39" s="0" t="s">
         <x:v>385</x:v>
       </x:c>
-      <x:c r="G39" s="1" t="s">
+      <x:c r="G39" s="0" t="s">
         <x:v>386</x:v>
       </x:c>
-      <x:c r="H39" s="1" t="s">
+      <x:c r="H39" s="0" t="s">
         <x:v>387</x:v>
       </x:c>
-      <x:c r="I39" s="1" t="s">
+      <x:c r="I39" s="0" t="s">
         <x:v>388</x:v>
       </x:c>
-      <x:c r="J39" s="1" t="s">
+      <x:c r="J39" s="0" t="s">
         <x:v>389</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:10">
-      <x:c r="A40" s="1" t="s">
+      <x:c r="A40" s="0" t="s">
         <x:v>390</x:v>
       </x:c>
-      <x:c r="B40" s="1" t="s">
+      <x:c r="B40" s="0" t="s">
         <x:v>391</x:v>
       </x:c>
-      <x:c r="C40" s="1" t="s">
+      <x:c r="C40" s="0" t="s">
         <x:v>392</x:v>
       </x:c>
-      <x:c r="D40" s="1" t="s">
+      <x:c r="D40" s="0" t="s">
         <x:v>393</x:v>
       </x:c>
-      <x:c r="E40" s="1" t="s">
+      <x:c r="E40" s="0" t="s">
         <x:v>394</x:v>
       </x:c>
-      <x:c r="F40" s="1" t="s">
+      <x:c r="F40" s="0" t="s">
         <x:v>395</x:v>
       </x:c>
-      <x:c r="G40" s="1" t="s">
+      <x:c r="G40" s="0" t="s">
         <x:v>396</x:v>
       </x:c>
-      <x:c r="H40" s="1" t="s">
+      <x:c r="H40" s="0" t="s">
         <x:v>397</x:v>
       </x:c>
-      <x:c r="I40" s="1" t="s">
+      <x:c r="I40" s="0" t="s">
         <x:v>398</x:v>
       </x:c>
-      <x:c r="J40" s="1" t="s">
+      <x:c r="J40" s="0" t="s">
         <x:v>399</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:10">
-      <x:c r="A41" s="1" t="s">
+      <x:c r="A41" s="0" t="s">
         <x:v>400</x:v>
       </x:c>
-      <x:c r="B41" s="1" t="s">
+      <x:c r="B41" s="0" t="s">
         <x:v>401</x:v>
       </x:c>
-      <x:c r="C41" s="1" t="s">
+      <x:c r="C41" s="0" t="s">
         <x:v>402</x:v>
       </x:c>
-      <x:c r="D41" s="1" t="s">
+      <x:c r="D41" s="0" t="s">
         <x:v>403</x:v>
       </x:c>
-      <x:c r="E41" s="1" t="s">
+      <x:c r="E41" s="0" t="s">
         <x:v>404</x:v>
       </x:c>
-      <x:c r="F41" s="1" t="s">
+      <x:c r="F41" s="0" t="s">
         <x:v>405</x:v>
       </x:c>
-      <x:c r="G41" s="1" t="s">
+      <x:c r="G41" s="0" t="s">
         <x:v>406</x:v>
       </x:c>
-      <x:c r="H41" s="1" t="s">
+      <x:c r="H41" s="0" t="s">
         <x:v>407</x:v>
       </x:c>
-      <x:c r="I41" s="1" t="s">
+      <x:c r="I41" s="0" t="s">
         <x:v>408</x:v>
       </x:c>
-      <x:c r="J41" s="1" t="s">
+      <x:c r="J41" s="0" t="s">
         <x:v>409</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:10">
-      <x:c r="A42" s="1" t="s">
+      <x:c r="A42" s="0" t="s">
         <x:v>410</x:v>
       </x:c>
-      <x:c r="B42" s="1" t="s">
+      <x:c r="B42" s="0" t="s">
         <x:v>411</x:v>
       </x:c>
-      <x:c r="C42" s="1" t="s">
+      <x:c r="C42" s="0" t="s">
         <x:v>412</x:v>
       </x:c>
-      <x:c r="D42" s="1" t="s">
+      <x:c r="D42" s="0" t="s">
         <x:v>413</x:v>
       </x:c>
-      <x:c r="E42" s="1" t="s">
+      <x:c r="E42" s="0" t="s">
         <x:v>414</x:v>
       </x:c>
-      <x:c r="F42" s="1" t="s">
+      <x:c r="F42" s="0" t="s">
         <x:v>415</x:v>
       </x:c>
-      <x:c r="G42" s="1" t="s">
+      <x:c r="G42" s="0" t="s">
         <x:v>416</x:v>
       </x:c>
-      <x:c r="H42" s="1" t="s">
+      <x:c r="H42" s="0" t="s">
         <x:v>417</x:v>
       </x:c>
-      <x:c r="I42" s="1" t="s">
+      <x:c r="I42" s="0" t="s">
         <x:v>418</x:v>
       </x:c>
-      <x:c r="J42" s="1" t="s">
+      <x:c r="J42" s="0" t="s">
         <x:v>419</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:10">
-      <x:c r="A43" s="1" t="s">
+      <x:c r="A43" s="0" t="s">
         <x:v>420</x:v>
       </x:c>
-      <x:c r="B43" s="1" t="s">
+      <x:c r="B43" s="0" t="s">
         <x:v>421</x:v>
       </x:c>
-      <x:c r="C43" s="1" t="s">
+      <x:c r="C43" s="0" t="s">
         <x:v>422</x:v>
       </x:c>
-      <x:c r="D43" s="1" t="s">
+      <x:c r="D43" s="0" t="s">
         <x:v>423</x:v>
       </x:c>
-      <x:c r="E43" s="1" t="s">
+      <x:c r="E43" s="0" t="s">
         <x:v>424</x:v>
       </x:c>
-      <x:c r="F43" s="1" t="s">
+      <x:c r="F43" s="0" t="s">
         <x:v>425</x:v>
       </x:c>
-      <x:c r="G43" s="1" t="s">
+      <x:c r="G43" s="0" t="s">
         <x:v>426</x:v>
       </x:c>
-      <x:c r="H43" s="1" t="s">
+      <x:c r="H43" s="0" t="s">
         <x:v>427</x:v>
       </x:c>
-      <x:c r="I43" s="1" t="s">
+      <x:c r="I43" s="0" t="s">
         <x:v>428</x:v>
       </x:c>
-      <x:c r="J43" s="1" t="s">
+      <x:c r="J43" s="0" t="s">
         <x:v>429</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:10">
-      <x:c r="A44" s="1" t="s">
+      <x:c r="A44" s="0" t="s">
         <x:v>430</x:v>
       </x:c>
-      <x:c r="B44" s="1" t="s">
+      <x:c r="B44" s="0" t="s">
         <x:v>431</x:v>
       </x:c>
-      <x:c r="C44" s="1" t="s">
+      <x:c r="C44" s="0" t="s">
         <x:v>432</x:v>
       </x:c>
-      <x:c r="D44" s="1" t="s">
+      <x:c r="D44" s="0" t="s">
         <x:v>433</x:v>
       </x:c>
-      <x:c r="E44" s="1" t="s">
+      <x:c r="E44" s="0" t="s">
         <x:v>434</x:v>
       </x:c>
-      <x:c r="F44" s="1" t="s">
+      <x:c r="F44" s="0" t="s">
         <x:v>435</x:v>
       </x:c>
-      <x:c r="G44" s="1" t="s">
+      <x:c r="G44" s="0" t="s">
         <x:v>436</x:v>
       </x:c>
-      <x:c r="H44" s="1" t="s">
+      <x:c r="H44" s="0" t="s">
         <x:v>437</x:v>
       </x:c>
-      <x:c r="I44" s="1" t="s">
+      <x:c r="I44" s="0" t="s">
         <x:v>438</x:v>
       </x:c>
-      <x:c r="J44" s="1" t="s">
+      <x:c r="J44" s="0" t="s">
         <x:v>439</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:10">
-      <x:c r="A45" s="1" t="s">
+      <x:c r="A45" s="0" t="s">
         <x:v>440</x:v>
       </x:c>
-      <x:c r="B45" s="1" t="s">
+      <x:c r="B45" s="0" t="s">
         <x:v>441</x:v>
       </x:c>
-      <x:c r="C45" s="1" t="s">
+      <x:c r="C45" s="0" t="s">
         <x:v>442</x:v>
       </x:c>
-      <x:c r="D45" s="1" t="s">
+      <x:c r="D45" s="0" t="s">
         <x:v>443</x:v>
       </x:c>
-      <x:c r="E45" s="1" t="s">
+      <x:c r="E45" s="0" t="s">
         <x:v>444</x:v>
       </x:c>
-      <x:c r="F45" s="1" t="s">
+      <x:c r="F45" s="0" t="s">
         <x:v>445</x:v>
       </x:c>
-      <x:c r="G45" s="1" t="s">
+      <x:c r="G45" s="0" t="s">
         <x:v>446</x:v>
       </x:c>
-      <x:c r="H45" s="1" t="s">
+      <x:c r="H45" s="0" t="s">
         <x:v>447</x:v>
       </x:c>
-      <x:c r="I45" s="1" t="s">
+      <x:c r="I45" s="0" t="s">
         <x:v>448</x:v>
       </x:c>
-      <x:c r="J45" s="1" t="s">
+      <x:c r="J45" s="0" t="s">
         <x:v>449</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:10">
-      <x:c r="A46" s="1" t="s">
+      <x:c r="A46" s="0" t="s">
         <x:v>450</x:v>
       </x:c>
-      <x:c r="B46" s="1" t="s">
+      <x:c r="B46" s="0" t="s">
         <x:v>451</x:v>
       </x:c>
-      <x:c r="C46" s="1" t="s">
+      <x:c r="C46" s="0" t="s">
         <x:v>452</x:v>
       </x:c>
-      <x:c r="D46" s="1" t="s">
+      <x:c r="D46" s="0" t="s">
         <x:v>453</x:v>
       </x:c>
-      <x:c r="E46" s="1" t="s">
+      <x:c r="E46" s="0" t="s">
         <x:v>454</x:v>
       </x:c>
-      <x:c r="F46" s="1" t="s">
+      <x:c r="F46" s="0" t="s">
         <x:v>455</x:v>
       </x:c>
-      <x:c r="G46" s="1" t="s">
+      <x:c r="G46" s="0" t="s">
         <x:v>456</x:v>
       </x:c>
-      <x:c r="H46" s="1" t="s">
+      <x:c r="H46" s="0" t="s">
         <x:v>457</x:v>
       </x:c>
-      <x:c r="I46" s="1" t="s">
+      <x:c r="I46" s="0" t="s">
         <x:v>458</x:v>
       </x:c>
-      <x:c r="J46" s="1" t="s">
+      <x:c r="J46" s="0" t="s">
         <x:v>459</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:10">
-      <x:c r="A47" s="1" t="s">
+      <x:c r="A47" s="0" t="s">
         <x:v>460</x:v>
       </x:c>
-      <x:c r="B47" s="1" t="s">
+      <x:c r="B47" s="0" t="s">
         <x:v>461</x:v>
       </x:c>
-      <x:c r="C47" s="1" t="s">
+      <x:c r="C47" s="0" t="s">
         <x:v>462</x:v>
       </x:c>
-      <x:c r="D47" s="1" t="s">
+      <x:c r="D47" s="0" t="s">
         <x:v>463</x:v>
       </x:c>
-      <x:c r="E47" s="1" t="s">
+      <x:c r="E47" s="0" t="s">
         <x:v>464</x:v>
       </x:c>
-      <x:c r="F47" s="1" t="s">
+      <x:c r="F47" s="0" t="s">
         <x:v>465</x:v>
       </x:c>
-      <x:c r="G47" s="1" t="s">
+      <x:c r="G47" s="0" t="s">
         <x:v>466</x:v>
       </x:c>
-      <x:c r="H47" s="1" t="s">
+      <x:c r="H47" s="0" t="s">
         <x:v>467</x:v>
       </x:c>
-      <x:c r="I47" s="1" t="s">
+      <x:c r="I47" s="0" t="s">
         <x:v>468</x:v>
       </x:c>
-      <x:c r="J47" s="1" t="s">
+      <x:c r="J47" s="0" t="s">
         <x:v>469</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:10">
-      <x:c r="A48" s="1" t="s">
+      <x:c r="A48" s="0" t="s">
         <x:v>470</x:v>
       </x:c>
-      <x:c r="B48" s="1" t="s">
+      <x:c r="B48" s="0" t="s">
         <x:v>471</x:v>
       </x:c>
-      <x:c r="C48" s="1" t="s">
+      <x:c r="C48" s="0" t="s">
         <x:v>472</x:v>
       </x:c>
-      <x:c r="D48" s="1" t="s">
+      <x:c r="D48" s="0" t="s">
         <x:v>473</x:v>
       </x:c>
-      <x:c r="E48" s="1" t="s">
+      <x:c r="E48" s="0" t="s">
         <x:v>474</x:v>
       </x:c>
-      <x:c r="F48" s="1" t="s">
+      <x:c r="F48" s="0" t="s">
         <x:v>475</x:v>
       </x:c>
-      <x:c r="G48" s="1" t="s">
+      <x:c r="G48" s="0" t="s">
         <x:v>476</x:v>
       </x:c>
-      <x:c r="H48" s="1" t="s">
+      <x:c r="H48" s="0" t="s">
         <x:v>477</x:v>
       </x:c>
-      <x:c r="I48" s="1" t="s">
+      <x:c r="I48" s="0" t="s">
         <x:v>478</x:v>
       </x:c>
-      <x:c r="J48" s="1" t="s">
+      <x:c r="J48" s="0" t="s">
         <x:v>479</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:10">
-      <x:c r="A49" s="1" t="s">
+      <x:c r="A49" s="0" t="s">
         <x:v>480</x:v>
       </x:c>
-      <x:c r="B49" s="1" t="s">
+      <x:c r="B49" s="0" t="s">
         <x:v>481</x:v>
       </x:c>
-      <x:c r="C49" s="1" t="s">
+      <x:c r="C49" s="0" t="s">
         <x:v>482</x:v>
       </x:c>
-      <x:c r="D49" s="1" t="s">
+      <x:c r="D49" s="0" t="s">
         <x:v>483</x:v>
       </x:c>
-      <x:c r="E49" s="1" t="s">
+      <x:c r="E49" s="0" t="s">
         <x:v>484</x:v>
       </x:c>
-      <x:c r="F49" s="1" t="s">
+      <x:c r="F49" s="0" t="s">
         <x:v>485</x:v>
       </x:c>
-      <x:c r="G49" s="1" t="s">
+      <x:c r="G49" s="0" t="s">
         <x:v>486</x:v>
       </x:c>
-      <x:c r="H49" s="1" t="s">
+      <x:c r="H49" s="0" t="s">
         <x:v>487</x:v>
       </x:c>
-      <x:c r="I49" s="1" t="s">
+      <x:c r="I49" s="0" t="s">
         <x:v>488</x:v>
       </x:c>
-      <x:c r="J49" s="1" t="s">
+      <x:c r="J49" s="0" t="s">
         <x:v>489</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:10">
-      <x:c r="A50" s="1" t="s">
+      <x:c r="A50" s="0" t="s">
         <x:v>490</x:v>
       </x:c>
-      <x:c r="B50" s="1" t="s">
+      <x:c r="B50" s="0" t="s">
         <x:v>491</x:v>
       </x:c>
-      <x:c r="C50" s="1" t="s">
+      <x:c r="C50" s="0" t="s">
         <x:v>492</x:v>
       </x:c>
-      <x:c r="D50" s="1" t="s">
+      <x:c r="D50" s="0" t="s">
         <x:v>493</x:v>
       </x:c>
-      <x:c r="E50" s="1" t="s">
+      <x:c r="E50" s="0" t="s">
         <x:v>494</x:v>
       </x:c>
-      <x:c r="F50" s="1" t="s">
+      <x:c r="F50" s="0" t="s">
         <x:v>495</x:v>
       </x:c>
-      <x:c r="G50" s="1" t="s">
+      <x:c r="G50" s="0" t="s">
         <x:v>496</x:v>
       </x:c>
-      <x:c r="H50" s="1" t="s">
+      <x:c r="H50" s="0" t="s">
         <x:v>497</x:v>
       </x:c>
-      <x:c r="I50" s="1" t="s">
+      <x:c r="I50" s="0" t="s">
         <x:v>498</x:v>
       </x:c>
-      <x:c r="J50" s="1" t="s">
+      <x:c r="J50" s="0" t="s">
         <x:v>499</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:10">
-      <x:c r="A51" s="1" t="s">
+      <x:c r="A51" s="0" t="s">
         <x:v>500</x:v>
       </x:c>
-      <x:c r="B51" s="1" t="s">
+      <x:c r="B51" s="0" t="s">
         <x:v>501</x:v>
       </x:c>
-      <x:c r="C51" s="1" t="s">
+      <x:c r="C51" s="0" t="s">
         <x:v>502</x:v>
       </x:c>
-      <x:c r="D51" s="1" t="s">
+      <x:c r="D51" s="0" t="s">
         <x:v>503</x:v>
       </x:c>
-      <x:c r="E51" s="1" t="s">
+      <x:c r="E51" s="0" t="s">
         <x:v>504</x:v>
       </x:c>
-      <x:c r="F51" s="1" t="s">
+      <x:c r="F51" s="0" t="s">
         <x:v>505</x:v>
       </x:c>
-      <x:c r="G51" s="1" t="s">
+      <x:c r="G51" s="0" t="s">
         <x:v>506</x:v>
       </x:c>
-      <x:c r="H51" s="1" t="s">
+      <x:c r="H51" s="0" t="s">
         <x:v>507</x:v>
       </x:c>
-      <x:c r="I51" s="1" t="s">
+      <x:c r="I51" s="0" t="s">
         <x:v>508</x:v>
       </x:c>
-      <x:c r="J51" s="1" t="s">
+      <x:c r="J51" s="0" t="s">
         <x:v>509</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:10">
-      <x:c r="A52" s="1" t="s">
+      <x:c r="A52" s="0" t="s">
         <x:v>510</x:v>
       </x:c>
-      <x:c r="B52" s="1" t="s">
+      <x:c r="B52" s="0" t="s">
         <x:v>511</x:v>
       </x:c>
-      <x:c r="C52" s="1" t="s">
+      <x:c r="C52" s="0" t="s">
         <x:v>512</x:v>
       </x:c>
-      <x:c r="D52" s="1" t="s">
+      <x:c r="D52" s="0" t="s">
         <x:v>513</x:v>
       </x:c>
-      <x:c r="E52" s="1" t="s">
+      <x:c r="E52" s="0" t="s">
         <x:v>514</x:v>
       </x:c>
-      <x:c r="F52" s="1" t="s">
+      <x:c r="F52" s="0" t="s">
         <x:v>515</x:v>
       </x:c>
-      <x:c r="G52" s="1" t="s">
+      <x:c r="G52" s="0" t="s">
         <x:v>516</x:v>
       </x:c>
-      <x:c r="H52" s="1" t="s">
+      <x:c r="H52" s="0" t="s">
         <x:v>517</x:v>
       </x:c>
-      <x:c r="I52" s="1" t="s">
+      <x:c r="I52" s="0" t="s">
         <x:v>518</x:v>
       </x:c>
-      <x:c r="J52" s="1" t="s">
+      <x:c r="J52" s="0" t="s">
         <x:v>519</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:10">
-      <x:c r="A53" s="1" t="s">
+      <x:c r="A53" s="0" t="s">
         <x:v>520</x:v>
       </x:c>
-      <x:c r="B53" s="1" t="s">
+      <x:c r="B53" s="0" t="s">
         <x:v>521</x:v>
       </x:c>
-      <x:c r="C53" s="1" t="s">
+      <x:c r="C53" s="0" t="s">
         <x:v>522</x:v>
       </x:c>
-      <x:c r="D53" s="1" t="s">
+      <x:c r="D53" s="0" t="s">
         <x:v>523</x:v>
       </x:c>
-      <x:c r="E53" s="1" t="s">
+      <x:c r="E53" s="0" t="s">
         <x:v>524</x:v>
       </x:c>
-      <x:c r="F53" s="1" t="s">
+      <x:c r="F53" s="0" t="s">
         <x:v>525</x:v>
       </x:c>
-      <x:c r="G53" s="1" t="s">
+      <x:c r="G53" s="0" t="s">
         <x:v>526</x:v>
       </x:c>
-      <x:c r="H53" s="1" t="s">
+      <x:c r="H53" s="0" t="s">
         <x:v>527</x:v>
       </x:c>
-      <x:c r="I53" s="1" t="s">
+      <x:c r="I53" s="0" t="s">
         <x:v>528</x:v>
       </x:c>
-      <x:c r="J53" s="1" t="s">
+      <x:c r="J53" s="0" t="s">
         <x:v>529</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:10">
-      <x:c r="A54" s="1" t="s">
+      <x:c r="A54" s="0" t="s">
         <x:v>530</x:v>
       </x:c>
-      <x:c r="B54" s="1" t="s">
+      <x:c r="B54" s="0" t="s">
         <x:v>531</x:v>
       </x:c>
-      <x:c r="C54" s="1" t="s">
+      <x:c r="C54" s="0" t="s">
         <x:v>532</x:v>
       </x:c>
-      <x:c r="D54" s="1" t="s">
+      <x:c r="D54" s="0" t="s">
         <x:v>533</x:v>
       </x:c>
-      <x:c r="E54" s="1" t="s">
+      <x:c r="E54" s="0" t="s">
         <x:v>534</x:v>
       </x:c>
-      <x:c r="F54" s="1" t="s">
+      <x:c r="F54" s="0" t="s">
         <x:v>535</x:v>
       </x:c>
-      <x:c r="G54" s="1" t="s">
+      <x:c r="G54" s="0" t="s">
         <x:v>536</x:v>
       </x:c>
-      <x:c r="H54" s="1" t="s">
+      <x:c r="H54" s="0" t="s">
         <x:v>537</x:v>
       </x:c>
-      <x:c r="I54" s="1" t="s">
+      <x:c r="I54" s="0" t="s">
         <x:v>538</x:v>
       </x:c>
-      <x:c r="J54" s="1" t="s">
+      <x:c r="J54" s="0" t="s">
         <x:v>539</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:10">
-      <x:c r="A55" s="1" t="s">
+      <x:c r="A55" s="0" t="s">
         <x:v>540</x:v>
       </x:c>
-      <x:c r="B55" s="1" t="s">
+      <x:c r="B55" s="0" t="s">
         <x:v>541</x:v>
       </x:c>
-      <x:c r="C55" s="1" t="s">
+      <x:c r="C55" s="0" t="s">
         <x:v>542</x:v>
       </x:c>
-      <x:c r="D55" s="1" t="s">
+      <x:c r="D55" s="0" t="s">
         <x:v>543</x:v>
       </x:c>
-      <x:c r="E55" s="1" t="s">
+      <x:c r="E55" s="0" t="s">
         <x:v>544</x:v>
       </x:c>
-      <x:c r="F55" s="1" t="s">
+      <x:c r="F55" s="0" t="s">
         <x:v>545</x:v>
       </x:c>
-      <x:c r="G55" s="1" t="s">
+      <x:c r="G55" s="0" t="s">
         <x:v>546</x:v>
       </x:c>
-      <x:c r="H55" s="1" t="s">
+      <x:c r="H55" s="0" t="s">
         <x:v>547</x:v>
       </x:c>
-      <x:c r="I55" s="1" t="s">
+      <x:c r="I55" s="0" t="s">
         <x:v>548</x:v>
       </x:c>
-      <x:c r="J55" s="1" t="s">
+      <x:c r="J55" s="0" t="s">
         <x:v>549</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:10">
-      <x:c r="A56" s="1" t="s">
+      <x:c r="A56" s="0" t="s">
         <x:v>550</x:v>
       </x:c>
-      <x:c r="B56" s="1" t="s">
+      <x:c r="B56" s="0" t="s">
         <x:v>551</x:v>
       </x:c>
-      <x:c r="C56" s="1" t="s">
+      <x:c r="C56" s="0" t="s">
         <x:v>552</x:v>
       </x:c>
-      <x:c r="D56" s="1" t="s">
+      <x:c r="D56" s="0" t="s">
         <x:v>553</x:v>
       </x:c>
-      <x:c r="E56" s="1" t="s">
+      <x:c r="E56" s="0" t="s">
         <x:v>554</x:v>
       </x:c>
-      <x:c r="F56" s="1" t="s">
+      <x:c r="F56" s="0" t="s">
         <x:v>555</x:v>
       </x:c>
-      <x:c r="G56" s="1" t="s">
+      <x:c r="G56" s="0" t="s">
         <x:v>556</x:v>
       </x:c>
-      <x:c r="H56" s="1" t="s">
+      <x:c r="H56" s="0" t="s">
         <x:v>557</x:v>
       </x:c>
-      <x:c r="I56" s="1" t="s">
+      <x:c r="I56" s="0" t="s">
         <x:v>558</x:v>
       </x:c>
-      <x:c r="J56" s="1" t="s">
+      <x:c r="J56" s="0" t="s">
         <x:v>559</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:10">
-      <x:c r="A57" s="1" t="s">
+      <x:c r="A57" s="0" t="s">
         <x:v>560</x:v>
       </x:c>
-      <x:c r="B57" s="1" t="s">
+      <x:c r="B57" s="0" t="s">
         <x:v>561</x:v>
       </x:c>
-      <x:c r="C57" s="1" t="s">
+      <x:c r="C57" s="0" t="s">
         <x:v>562</x:v>
       </x:c>
-      <x:c r="D57" s="1" t="s">
+      <x:c r="D57" s="0" t="s">
         <x:v>563</x:v>
       </x:c>
-      <x:c r="E57" s="1" t="s">
+      <x:c r="E57" s="0" t="s">
         <x:v>564</x:v>
       </x:c>
-      <x:c r="F57" s="1" t="s">
+      <x:c r="F57" s="0" t="s">
         <x:v>565</x:v>
       </x:c>
-      <x:c r="G57" s="1" t="s">
+      <x:c r="G57" s="0" t="s">
         <x:v>566</x:v>
       </x:c>
-      <x:c r="H57" s="1" t="s">
+      <x:c r="H57" s="0" t="s">
         <x:v>567</x:v>
       </x:c>
-      <x:c r="I57" s="1" t="s">
+      <x:c r="I57" s="0" t="s">
         <x:v>568</x:v>
       </x:c>
-      <x:c r="J57" s="1" t="s">
+      <x:c r="J57" s="0" t="s">
         <x:v>569</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:10">
-      <x:c r="A58" s="1" t="s">
+      <x:c r="A58" s="0" t="s">
         <x:v>570</x:v>
       </x:c>
-      <x:c r="B58" s="1" t="s">
+      <x:c r="B58" s="0" t="s">
         <x:v>571</x:v>
       </x:c>
-      <x:c r="C58" s="1" t="s">
+      <x:c r="C58" s="0" t="s">
         <x:v>572</x:v>
       </x:c>
-      <x:c r="D58" s="1" t="s">
+      <x:c r="D58" s="0" t="s">
         <x:v>573</x:v>
       </x:c>
-      <x:c r="E58" s="1" t="s">
+      <x:c r="E58" s="0" t="s">
         <x:v>574</x:v>
       </x:c>
-      <x:c r="F58" s="1" t="s">
+      <x:c r="F58" s="0" t="s">
         <x:v>575</x:v>
       </x:c>
-      <x:c r="G58" s="1" t="s">
+      <x:c r="G58" s="0" t="s">
         <x:v>576</x:v>
       </x:c>
-      <x:c r="H58" s="1" t="s">
+      <x:c r="H58" s="0" t="s">
         <x:v>577</x:v>
       </x:c>
-      <x:c r="I58" s="1" t="s">
+      <x:c r="I58" s="0" t="s">
         <x:v>578</x:v>
       </x:c>
-      <x:c r="J58" s="1" t="s">
+      <x:c r="J58" s="0" t="s">
         <x:v>579</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:10">
-      <x:c r="A59" s="1" t="s">
+      <x:c r="A59" s="0" t="s">
         <x:v>580</x:v>
       </x:c>
-      <x:c r="B59" s="1" t="s">
+      <x:c r="B59" s="0" t="s">
         <x:v>581</x:v>
       </x:c>
-      <x:c r="C59" s="1" t="s">
+      <x:c r="C59" s="0" t="s">
         <x:v>582</x:v>
       </x:c>
-      <x:c r="D59" s="1" t="s">
+      <x:c r="D59" s="0" t="s">
         <x:v>583</x:v>
       </x:c>
-      <x:c r="E59" s="1" t="s">
+      <x:c r="E59" s="0" t="s">
         <x:v>584</x:v>
       </x:c>
-      <x:c r="F59" s="1" t="s">
+      <x:c r="F59" s="0" t="s">
         <x:v>585</x:v>
       </x:c>
-      <x:c r="G59" s="1" t="s">
+      <x:c r="G59" s="0" t="s">
         <x:v>586</x:v>
       </x:c>
-      <x:c r="H59" s="1" t="s">
+      <x:c r="H59" s="0" t="s">
         <x:v>587</x:v>
       </x:c>
-      <x:c r="I59" s="1" t="s">
+      <x:c r="I59" s="0" t="s">
         <x:v>588</x:v>
       </x:c>
-      <x:c r="J59" s="1" t="s">
+      <x:c r="J59" s="0" t="s">
         <x:v>589</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:10">
-      <x:c r="A60" s="1" t="s">
+      <x:c r="A60" s="0" t="s">
         <x:v>590</x:v>
       </x:c>
-      <x:c r="B60" s="1" t="s">
+      <x:c r="B60" s="0" t="s">
         <x:v>591</x:v>
       </x:c>
-      <x:c r="C60" s="1" t="s">
+      <x:c r="C60" s="0" t="s">
         <x:v>592</x:v>
       </x:c>
-      <x:c r="D60" s="1" t="s">
+      <x:c r="D60" s="0" t="s">
         <x:v>593</x:v>
       </x:c>
-      <x:c r="E60" s="1" t="s">
+      <x:c r="E60" s="0" t="s">
         <x:v>594</x:v>
       </x:c>
-      <x:c r="F60" s="1" t="s">
+      <x:c r="F60" s="0" t="s">
         <x:v>595</x:v>
       </x:c>
-      <x:c r="G60" s="1" t="s">
+      <x:c r="G60" s="0" t="s">
         <x:v>596</x:v>
       </x:c>
-      <x:c r="H60" s="1" t="s">
+      <x:c r="H60" s="0" t="s">
         <x:v>597</x:v>
       </x:c>
-      <x:c r="I60" s="1" t="s">
+      <x:c r="I60" s="0" t="s">
         <x:v>598</x:v>
       </x:c>
-      <x:c r="J60" s="1" t="s">
+      <x:c r="J60" s="0" t="s">
         <x:v>599</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:10">
-      <x:c r="A61" s="1" t="s">
+      <x:c r="A61" s="0" t="s">
         <x:v>600</x:v>
       </x:c>
-      <x:c r="B61" s="1" t="s">
+      <x:c r="B61" s="0" t="s">
         <x:v>601</x:v>
       </x:c>
-      <x:c r="C61" s="1" t="s">
+      <x:c r="C61" s="0" t="s">
         <x:v>602</x:v>
       </x:c>
-      <x:c r="D61" s="1" t="s">
+      <x:c r="D61" s="0" t="s">
         <x:v>603</x:v>
       </x:c>
-      <x:c r="E61" s="1" t="s">
+      <x:c r="E61" s="0" t="s">
         <x:v>604</x:v>
       </x:c>
-      <x:c r="F61" s="1" t="s">
+      <x:c r="F61" s="0" t="s">
         <x:v>605</x:v>
       </x:c>
-      <x:c r="G61" s="1" t="s">
+      <x:c r="G61" s="0" t="s">
         <x:v>606</x:v>
       </x:c>
-      <x:c r="H61" s="1" t="s">
+      <x:c r="H61" s="0" t="s">
         <x:v>607</x:v>
       </x:c>
-      <x:c r="I61" s="1" t="s">
+      <x:c r="I61" s="0" t="s">
         <x:v>608</x:v>
       </x:c>
-      <x:c r="J61" s="1" t="s">
+      <x:c r="J61" s="0" t="s">
         <x:v>609</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:10">
-      <x:c r="A62" s="1" t="s">
+      <x:c r="A62" s="0" t="s">
         <x:v>610</x:v>
       </x:c>
-      <x:c r="B62" s="1" t="s">
+      <x:c r="B62" s="0" t="s">
         <x:v>611</x:v>
       </x:c>
-      <x:c r="C62" s="1" t="s">
+      <x:c r="C62" s="0" t="s">
         <x:v>612</x:v>
       </x:c>
-      <x:c r="D62" s="1" t="s">
+      <x:c r="D62" s="0" t="s">
         <x:v>613</x:v>
       </x:c>
-      <x:c r="E62" s="1" t="s">
+      <x:c r="E62" s="0" t="s">
         <x:v>614</x:v>
       </x:c>
-      <x:c r="F62" s="1" t="s">
+      <x:c r="F62" s="0" t="s">
         <x:v>615</x:v>
       </x:c>
-      <x:c r="G62" s="1" t="s">
+      <x:c r="G62" s="0" t="s">
         <x:v>616</x:v>
       </x:c>
-      <x:c r="H62" s="1" t="s">
+      <x:c r="H62" s="0" t="s">
         <x:v>617</x:v>
       </x:c>
-      <x:c r="I62" s="1" t="s">
+      <x:c r="I62" s="0" t="s">
         <x:v>618</x:v>
       </x:c>
-      <x:c r="J62" s="1" t="s">
+      <x:c r="J62" s="0" t="s">
         <x:v>619</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:10">
-      <x:c r="A63" s="1" t="s">
+      <x:c r="A63" s="0" t="s">
         <x:v>620</x:v>
       </x:c>
-      <x:c r="B63" s="1" t="s">
+      <x:c r="B63" s="0" t="s">
         <x:v>621</x:v>
       </x:c>
-      <x:c r="C63" s="1" t="s">
+      <x:c r="C63" s="0" t="s">
         <x:v>622</x:v>
       </x:c>
-      <x:c r="D63" s="1" t="s">
+      <x:c r="D63" s="0" t="s">
         <x:v>623</x:v>
       </x:c>
-      <x:c r="E63" s="1" t="s">
+      <x:c r="E63" s="0" t="s">
         <x:v>624</x:v>
       </x:c>
-      <x:c r="F63" s="1" t="s">
+      <x:c r="F63" s="0" t="s">
         <x:v>625</x:v>
       </x:c>
-      <x:c r="G63" s="1" t="s">
+      <x:c r="G63" s="0" t="s">
         <x:v>626</x:v>
       </x:c>
-      <x:c r="H63" s="1" t="s">
+      <x:c r="H63" s="0" t="s">
         <x:v>627</x:v>
       </x:c>
-      <x:c r="I63" s="1" t="s">
+      <x:c r="I63" s="0" t="s">
         <x:v>628</x:v>
       </x:c>
-      <x:c r="J63" s="1" t="s">
+      <x:c r="J63" s="0" t="s">
         <x:v>629</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:10">
-      <x:c r="A64" s="1" t="s">
+      <x:c r="A64" s="0" t="s">
         <x:v>630</x:v>
       </x:c>
-      <x:c r="B64" s="1" t="s">
+      <x:c r="B64" s="0" t="s">
         <x:v>631</x:v>
       </x:c>
-      <x:c r="C64" s="1" t="s">
+      <x:c r="C64" s="0" t="s">
         <x:v>632</x:v>
       </x:c>
-      <x:c r="D64" s="1" t="s">
+      <x:c r="D64" s="0" t="s">
         <x:v>633</x:v>
       </x:c>
-      <x:c r="E64" s="1" t="s">
+      <x:c r="E64" s="0" t="s">
         <x:v>634</x:v>
       </x:c>
-      <x:c r="F64" s="1" t="s">
+      <x:c r="F64" s="0" t="s">
         <x:v>635</x:v>
       </x:c>
-      <x:c r="G64" s="1" t="s">
+      <x:c r="G64" s="0" t="s">
         <x:v>636</x:v>
       </x:c>
-      <x:c r="H64" s="1" t="s">
+      <x:c r="H64" s="0" t="s">
         <x:v>637</x:v>
       </x:c>
-      <x:c r="I64" s="1" t="s">
+      <x:c r="I64" s="0" t="s">
         <x:v>638</x:v>
       </x:c>
-      <x:c r="J64" s="1" t="s">
+      <x:c r="J64" s="0" t="s">
         <x:v>639</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:10">
-      <x:c r="A65" s="1" t="s">
+      <x:c r="A65" s="0" t="s">
         <x:v>640</x:v>
       </x:c>
-      <x:c r="B65" s="1" t="s">
+      <x:c r="B65" s="0" t="s">
         <x:v>641</x:v>
       </x:c>
-      <x:c r="C65" s="1" t="s">
+      <x:c r="C65" s="0" t="s">
         <x:v>642</x:v>
       </x:c>
-      <x:c r="D65" s="1" t="s">
+      <x:c r="D65" s="0" t="s">
         <x:v>643</x:v>
       </x:c>
-      <x:c r="E65" s="1" t="s">
+      <x:c r="E65" s="0" t="s">
         <x:v>644</x:v>
       </x:c>
-      <x:c r="F65" s="1" t="s">
+      <x:c r="F65" s="0" t="s">
         <x:v>645</x:v>
       </x:c>
-      <x:c r="G65" s="1" t="s">
+      <x:c r="G65" s="0" t="s">
         <x:v>646</x:v>
       </x:c>
-      <x:c r="H65" s="1" t="s">
+      <x:c r="H65" s="0" t="s">
         <x:v>647</x:v>
       </x:c>
-      <x:c r="I65" s="1" t="s">
+      <x:c r="I65" s="0" t="s">
         <x:v>648</x:v>
       </x:c>
-      <x:c r="J65" s="1" t="s">
+      <x:c r="J65" s="0" t="s">
         <x:v>649</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:10">
-      <x:c r="A66" s="1" t="s">
+      <x:c r="A66" s="0" t="s">
         <x:v>650</x:v>
       </x:c>
-      <x:c r="B66" s="1" t="s">
+      <x:c r="B66" s="0" t="s">
         <x:v>651</x:v>
       </x:c>
-      <x:c r="C66" s="1" t="s">
+      <x:c r="C66" s="0" t="s">
         <x:v>652</x:v>
       </x:c>
-      <x:c r="D66" s="1" t="s">
+      <x:c r="D66" s="0" t="s">
         <x:v>653</x:v>
       </x:c>
-      <x:c r="E66" s="1" t="s">
+      <x:c r="E66" s="0" t="s">
         <x:v>654</x:v>
       </x:c>
-      <x:c r="F66" s="1" t="s">
+      <x:c r="F66" s="0" t="s">
         <x:v>655</x:v>
       </x:c>
-      <x:c r="G66" s="1" t="s">
+      <x:c r="G66" s="0" t="s">
         <x:v>656</x:v>
       </x:c>
-      <x:c r="H66" s="1" t="s">
+      <x:c r="H66" s="0" t="s">
         <x:v>657</x:v>
       </x:c>
-      <x:c r="I66" s="1" t="s">
+      <x:c r="I66" s="0" t="s">
         <x:v>658</x:v>
       </x:c>
-      <x:c r="J66" s="1" t="s">
+      <x:c r="J66" s="0" t="s">
         <x:v>659</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:10">
-      <x:c r="A67" s="1" t="s">
+      <x:c r="A67" s="0" t="s">
         <x:v>660</x:v>
       </x:c>
-      <x:c r="B67" s="1" t="s">
+      <x:c r="B67" s="0" t="s">
         <x:v>661</x:v>
       </x:c>
-      <x:c r="C67" s="1" t="s">
+      <x:c r="C67" s="0" t="s">
         <x:v>662</x:v>
       </x:c>
-      <x:c r="D67" s="1" t="s">
+      <x:c r="D67" s="0" t="s">
         <x:v>663</x:v>
       </x:c>
-      <x:c r="E67" s="1" t="s">
+      <x:c r="E67" s="0" t="s">
         <x:v>664</x:v>
       </x:c>
-      <x:c r="F67" s="1" t="s">
+      <x:c r="F67" s="0" t="s">
         <x:v>665</x:v>
       </x:c>
-      <x:c r="G67" s="1" t="s">
+      <x:c r="G67" s="0" t="s">
         <x:v>666</x:v>
       </x:c>
-      <x:c r="H67" s="1" t="s">
+      <x:c r="H67" s="0" t="s">
         <x:v>667</x:v>
       </x:c>
-      <x:c r="I67" s="1" t="s">
+      <x:c r="I67" s="0" t="s">
         <x:v>668</x:v>
       </x:c>
-      <x:c r="J67" s="1" t="s">
+      <x:c r="J67" s="0" t="s">
         <x:v>669</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:10">
-      <x:c r="A68" s="1" t="s">
+      <x:c r="A68" s="0" t="s">
         <x:v>670</x:v>
       </x:c>
-      <x:c r="B68" s="1" t="s">
+      <x:c r="B68" s="0" t="s">
         <x:v>671</x:v>
       </x:c>
-      <x:c r="C68" s="1" t="s">
+      <x:c r="C68" s="0" t="s">
         <x:v>672</x:v>
       </x:c>
-      <x:c r="D68" s="1" t="s">
+      <x:c r="D68" s="0" t="s">
         <x:v>673</x:v>
       </x:c>
-      <x:c r="E68" s="1" t="s">
+      <x:c r="E68" s="0" t="s">
         <x:v>674</x:v>
       </x:c>
-      <x:c r="F68" s="1" t="s">
+      <x:c r="F68" s="0" t="s">
         <x:v>675</x:v>
       </x:c>
-      <x:c r="G68" s="1" t="s">
+      <x:c r="G68" s="0" t="s">
         <x:v>676</x:v>
       </x:c>
-      <x:c r="H68" s="1" t="s">
+      <x:c r="H68" s="0" t="s">
         <x:v>677</x:v>
       </x:c>
-      <x:c r="I68" s="1" t="s">
+      <x:c r="I68" s="0" t="s">
         <x:v>678</x:v>
       </x:c>
-      <x:c r="J68" s="1" t="s">
+      <x:c r="J68" s="0" t="s">
         <x:v>679</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:10">
-      <x:c r="A69" s="1" t="s">
+      <x:c r="A69" s="0" t="s">
         <x:v>680</x:v>
       </x:c>
-      <x:c r="B69" s="1" t="s">
+      <x:c r="B69" s="0" t="s">
         <x:v>681</x:v>
       </x:c>
-      <x:c r="C69" s="1" t="s">
+      <x:c r="C69" s="0" t="s">
         <x:v>682</x:v>
       </x:c>
-      <x:c r="D69" s="1" t="s">
+      <x:c r="D69" s="0" t="s">
         <x:v>683</x:v>
       </x:c>
-      <x:c r="E69" s="1" t="s">
+      <x:c r="E69" s="0" t="s">
         <x:v>684</x:v>
       </x:c>
-      <x:c r="F69" s="1" t="s">
+      <x:c r="F69" s="0" t="s">
         <x:v>685</x:v>
       </x:c>
-      <x:c r="G69" s="1" t="s">
+      <x:c r="G69" s="0" t="s">
         <x:v>686</x:v>
       </x:c>
-      <x:c r="H69" s="1" t="s">
+      <x:c r="H69" s="0" t="s">
         <x:v>687</x:v>
       </x:c>
-      <x:c r="I69" s="1" t="s">
+      <x:c r="I69" s="0" t="s">
         <x:v>688</x:v>
       </x:c>
-      <x:c r="J69" s="1" t="s">
+      <x:c r="J69" s="0" t="s">
         <x:v>689</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:10">
-      <x:c r="A70" s="1" t="s">
+      <x:c r="A70" s="0" t="s">
         <x:v>690</x:v>
       </x:c>
-      <x:c r="B70" s="1" t="s">
+      <x:c r="B70" s="0" t="s">
         <x:v>691</x:v>
       </x:c>
-      <x:c r="C70" s="1" t="s">
+      <x:c r="C70" s="0" t="s">
         <x:v>692</x:v>
       </x:c>
-      <x:c r="D70" s="1" t="s">
+      <x:c r="D70" s="0" t="s">
         <x:v>693</x:v>
       </x:c>
-      <x:c r="E70" s="1" t="s">
+      <x:c r="E70" s="0" t="s">
         <x:v>694</x:v>
       </x:c>
-      <x:c r="F70" s="1" t="s">
+      <x:c r="F70" s="0" t="s">
         <x:v>695</x:v>
       </x:c>
-      <x:c r="G70" s="1" t="s">
+      <x:c r="G70" s="0" t="s">
         <x:v>696</x:v>
       </x:c>
-      <x:c r="H70" s="1" t="s">
+      <x:c r="H70" s="0" t="s">
         <x:v>697</x:v>
       </x:c>
-      <x:c r="I70" s="1" t="s">
+      <x:c r="I70" s="0" t="s">
         <x:v>698</x:v>
       </x:c>
-      <x:c r="J70" s="1" t="s">
+      <x:c r="J70" s="0" t="s">
         <x:v>699</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:10">
-      <x:c r="A71" s="1" t="s">
+      <x:c r="A71" s="0" t="s">
         <x:v>700</x:v>
       </x:c>
-      <x:c r="B71" s="1" t="s">
+      <x:c r="B71" s="0" t="s">
         <x:v>701</x:v>
       </x:c>
-      <x:c r="C71" s="1" t="s">
+      <x:c r="C71" s="0" t="s">
         <x:v>702</x:v>
       </x:c>
-      <x:c r="D71" s="1" t="s">
+      <x:c r="D71" s="0" t="s">
         <x:v>703</x:v>
       </x:c>
-      <x:c r="E71" s="1" t="s">
+      <x:c r="E71" s="0" t="s">
         <x:v>704</x:v>
       </x:c>
-      <x:c r="F71" s="1" t="s">
+      <x:c r="F71" s="0" t="s">
         <x:v>705</x:v>
       </x:c>
-      <x:c r="G71" s="1" t="s">
+      <x:c r="G71" s="0" t="s">
         <x:v>706</x:v>
       </x:c>
-      <x:c r="H71" s="1" t="s">
+      <x:c r="H71" s="0" t="s">
         <x:v>707</x:v>
       </x:c>
-      <x:c r="I71" s="1" t="s">
+      <x:c r="I71" s="0" t="s">
         <x:v>708</x:v>
       </x:c>
-      <x:c r="J71" s="1" t="s">
+      <x:c r="J71" s="0" t="s">
         <x:v>709</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:10">
-      <x:c r="A72" s="1" t="s">
+      <x:c r="A72" s="0" t="s">
         <x:v>710</x:v>
       </x:c>
-      <x:c r="B72" s="1" t="s">
+      <x:c r="B72" s="0" t="s">
         <x:v>711</x:v>
       </x:c>
-      <x:c r="C72" s="1" t="s">
+      <x:c r="C72" s="0" t="s">
         <x:v>712</x:v>
       </x:c>
-      <x:c r="D72" s="1" t="s">
+      <x:c r="D72" s="0" t="s">
         <x:v>713</x:v>
       </x:c>
-      <x:c r="E72" s="1" t="s">
+      <x:c r="E72" s="0" t="s">
         <x:v>714</x:v>
       </x:c>
-      <x:c r="F72" s="1" t="s">
+      <x:c r="F72" s="0" t="s">
         <x:v>715</x:v>
       </x:c>
-      <x:c r="G72" s="1" t="s">
+      <x:c r="G72" s="0" t="s">
         <x:v>716</x:v>
       </x:c>
-      <x:c r="H72" s="1" t="s">
+      <x:c r="H72" s="0" t="s">
         <x:v>717</x:v>
       </x:c>
-      <x:c r="I72" s="1" t="s">
+      <x:c r="I72" s="0" t="s">
         <x:v>718</x:v>
       </x:c>
-      <x:c r="J72" s="1" t="s">
+      <x:c r="J72" s="0" t="s">
         <x:v>719</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:10">
-      <x:c r="A73" s="1" t="s">
+      <x:c r="A73" s="0" t="s">
         <x:v>720</x:v>
       </x:c>
-      <x:c r="B73" s="1" t="s">
+      <x:c r="B73" s="0" t="s">
         <x:v>721</x:v>
       </x:c>
-      <x:c r="C73" s="1" t="s">
+      <x:c r="C73" s="0" t="s">
         <x:v>722</x:v>
       </x:c>
-      <x:c r="D73" s="1" t="s">
+      <x:c r="D73" s="0" t="s">
         <x:v>723</x:v>
       </x:c>
-      <x:c r="E73" s="1" t="s">
+      <x:c r="E73" s="0" t="s">
         <x:v>724</x:v>
       </x:c>
-      <x:c r="F73" s="1" t="s">
+      <x:c r="F73" s="0" t="s">
         <x:v>725</x:v>
       </x:c>
-      <x:c r="G73" s="1" t="s">
+      <x:c r="G73" s="0" t="s">
         <x:v>726</x:v>
       </x:c>
-      <x:c r="H73" s="1" t="s">
+      <x:c r="H73" s="0" t="s">
         <x:v>727</x:v>
       </x:c>
-      <x:c r="I73" s="1" t="s">
+      <x:c r="I73" s="0" t="s">
         <x:v>728</x:v>
       </x:c>
-      <x:c r="J73" s="1" t="s">
+      <x:c r="J73" s="0" t="s">
         <x:v>729</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:10">
-      <x:c r="A74" s="1" t="s">
+      <x:c r="A74" s="0" t="s">
         <x:v>730</x:v>
       </x:c>
-      <x:c r="B74" s="1" t="s">
+      <x:c r="B74" s="0" t="s">
         <x:v>731</x:v>
       </x:c>
-      <x:c r="C74" s="1" t="s">
+      <x:c r="C74" s="0" t="s">
         <x:v>732</x:v>
       </x:c>
-      <x:c r="D74" s="1" t="s">
+      <x:c r="D74" s="0" t="s">
         <x:v>733</x:v>
       </x:c>
-      <x:c r="E74" s="1" t="s">
+      <x:c r="E74" s="0" t="s">
         <x:v>734</x:v>
       </x:c>
-      <x:c r="F74" s="1" t="s">
+      <x:c r="F74" s="0" t="s">
         <x:v>735</x:v>
       </x:c>
-      <x:c r="G74" s="1" t="s">
+      <x:c r="G74" s="0" t="s">
         <x:v>736</x:v>
       </x:c>
-      <x:c r="H74" s="1" t="s">
+      <x:c r="H74" s="0" t="s">
         <x:v>737</x:v>
       </x:c>
-      <x:c r="I74" s="1" t="s">
+      <x:c r="I74" s="0" t="s">
         <x:v>738</x:v>
       </x:c>
-      <x:c r="J74" s="1" t="s">
+      <x:c r="J74" s="0" t="s">
         <x:v>739</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:10">
-      <x:c r="A75" s="1" t="s">
+      <x:c r="A75" s="0" t="s">
         <x:v>740</x:v>
       </x:c>
-      <x:c r="B75" s="1" t="s">
+      <x:c r="B75" s="0" t="s">
         <x:v>741</x:v>
       </x:c>
-      <x:c r="C75" s="1" t="s">
+      <x:c r="C75" s="0" t="s">
         <x:v>742</x:v>
       </x:c>
-      <x:c r="D75" s="1" t="s">
+      <x:c r="D75" s="0" t="s">
         <x:v>743</x:v>
       </x:c>
-      <x:c r="E75" s="1" t="s">
+      <x:c r="E75" s="0" t="s">
         <x:v>744</x:v>
       </x:c>
-      <x:c r="F75" s="1" t="s">
+      <x:c r="F75" s="0" t="s">
         <x:v>745</x:v>
       </x:c>
-      <x:c r="G75" s="1" t="s">
+      <x:c r="G75" s="0" t="s">
         <x:v>746</x:v>
       </x:c>
-      <x:c r="H75" s="1" t="s">
+      <x:c r="H75" s="0" t="s">
         <x:v>747</x:v>
       </x:c>
-      <x:c r="I75" s="1" t="s">
+      <x:c r="I75" s="0" t="s">
         <x:v>748</x:v>
       </x:c>
-      <x:c r="J75" s="1" t="s">
+      <x:c r="J75" s="0" t="s">
         <x:v>749</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:10">
-      <x:c r="A76" s="1" t="s">
+      <x:c r="A76" s="0" t="s">
         <x:v>750</x:v>
       </x:c>
-      <x:c r="B76" s="1" t="s">
+      <x:c r="B76" s="0" t="s">
         <x:v>751</x:v>
       </x:c>
-      <x:c r="C76" s="1" t="s">
+      <x:c r="C76" s="0" t="s">
         <x:v>752</x:v>
       </x:c>
-      <x:c r="D76" s="1" t="s">
+      <x:c r="D76" s="0" t="s">
         <x:v>753</x:v>
       </x:c>
-      <x:c r="E76" s="1" t="s">
+      <x:c r="E76" s="0" t="s">
         <x:v>754</x:v>
       </x:c>
-      <x:c r="F76" s="1" t="s">
+      <x:c r="F76" s="0" t="s">
         <x:v>755</x:v>
       </x:c>
-      <x:c r="G76" s="1" t="s">
+      <x:c r="G76" s="0" t="s">
         <x:v>756</x:v>
       </x:c>
-      <x:c r="H76" s="1" t="s">
+      <x:c r="H76" s="0" t="s">
         <x:v>757</x:v>
       </x:c>
-      <x:c r="I76" s="1" t="s">
+      <x:c r="I76" s="0" t="s">
         <x:v>758</x:v>
       </x:c>
-      <x:c r="J76" s="1" t="s">
+      <x:c r="J76" s="0" t="s">
         <x:v>759</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:10">
-      <x:c r="A77" s="1" t="s">
+      <x:c r="A77" s="0" t="s">
         <x:v>760</x:v>
       </x:c>
-      <x:c r="B77" s="1" t="s">
+      <x:c r="B77" s="0" t="s">
         <x:v>761</x:v>
       </x:c>
-      <x:c r="C77" s="1" t="s">
+      <x:c r="C77" s="0" t="s">
         <x:v>762</x:v>
       </x:c>
-      <x:c r="D77" s="1" t="s">
+      <x:c r="D77" s="0" t="s">
         <x:v>763</x:v>
       </x:c>
-      <x:c r="E77" s="1" t="s">
+      <x:c r="E77" s="0" t="s">
         <x:v>764</x:v>
       </x:c>
-      <x:c r="F77" s="1" t="s">
+      <x:c r="F77" s="0" t="s">
         <x:v>765</x:v>
       </x:c>
-      <x:c r="G77" s="1" t="s">
+      <x:c r="G77" s="0" t="s">
         <x:v>766</x:v>
       </x:c>
-      <x:c r="H77" s="1" t="s">
+      <x:c r="H77" s="0" t="s">
         <x:v>767</x:v>
       </x:c>
-      <x:c r="I77" s="1" t="s">
+      <x:c r="I77" s="0" t="s">
         <x:v>768</x:v>
       </x:c>
-      <x:c r="J77" s="1" t="s">
+      <x:c r="J77" s="0" t="s">
         <x:v>769</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:10">
-      <x:c r="A78" s="1" t="s">
+      <x:c r="A78" s="0" t="s">
         <x:v>770</x:v>
       </x:c>
-      <x:c r="B78" s="1" t="s">
+      <x:c r="B78" s="0" t="s">
         <x:v>771</x:v>
       </x:c>
-      <x:c r="C78" s="1" t="s">
+      <x:c r="C78" s="0" t="s">
         <x:v>772</x:v>
       </x:c>
-      <x:c r="D78" s="1" t="s">
+      <x:c r="D78" s="0" t="s">
         <x:v>773</x:v>
       </x:c>
-      <x:c r="E78" s="1" t="s">
+      <x:c r="E78" s="0" t="s">
         <x:v>774</x:v>
       </x:c>
-      <x:c r="F78" s="1" t="s">
+      <x:c r="F78" s="0" t="s">
         <x:v>775</x:v>
       </x:c>
-      <x:c r="G78" s="1" t="s">
+      <x:c r="G78" s="0" t="s">
         <x:v>776</x:v>
       </x:c>
-      <x:c r="H78" s="1" t="s">
+      <x:c r="H78" s="0" t="s">
         <x:v>777</x:v>
       </x:c>
-      <x:c r="I78" s="1" t="s">
+      <x:c r="I78" s="0" t="s">
         <x:v>778</x:v>
       </x:c>
-      <x:c r="J78" s="1" t="s">
+      <x:c r="J78" s="0" t="s">
         <x:v>779</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:10">
-      <x:c r="A79" s="1" t="s">
+      <x:c r="A79" s="0" t="s">
         <x:v>780</x:v>
       </x:c>
-      <x:c r="B79" s="1" t="s">
+      <x:c r="B79" s="0" t="s">
         <x:v>781</x:v>
       </x:c>
-      <x:c r="C79" s="1" t="s">
+      <x:c r="C79" s="0" t="s">
         <x:v>782</x:v>
       </x:c>
-      <x:c r="D79" s="1" t="s">
+      <x:c r="D79" s="0" t="s">
         <x:v>783</x:v>
       </x:c>
-      <x:c r="E79" s="1" t="s">
+      <x:c r="E79" s="0" t="s">
         <x:v>784</x:v>
       </x:c>
-      <x:c r="F79" s="1" t="s">
+      <x:c r="F79" s="0" t="s">
         <x:v>785</x:v>
       </x:c>
-      <x:c r="G79" s="1" t="s">
+      <x:c r="G79" s="0" t="s">
         <x:v>786</x:v>
       </x:c>
-      <x:c r="H79" s="1" t="s">
+      <x:c r="H79" s="0" t="s">
         <x:v>787</x:v>
       </x:c>
-      <x:c r="I79" s="1" t="s">
+      <x:c r="I79" s="0" t="s">
         <x:v>788</x:v>
       </x:c>
-      <x:c r="J79" s="1" t="s">
+      <x:c r="J79" s="0" t="s">
         <x:v>789</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:10">
-      <x:c r="A80" s="1" t="s">
+      <x:c r="A80" s="0" t="s">
         <x:v>790</x:v>
       </x:c>
-      <x:c r="B80" s="1" t="s">
+      <x:c r="B80" s="0" t="s">
         <x:v>791</x:v>
       </x:c>
-      <x:c r="C80" s="1" t="s">
+      <x:c r="C80" s="0" t="s">
         <x:v>792</x:v>
       </x:c>
-      <x:c r="D80" s="1" t="s">
+      <x:c r="D80" s="0" t="s">
         <x:v>793</x:v>
       </x:c>
-      <x:c r="E80" s="1" t="s">
+      <x:c r="E80" s="0" t="s">
         <x:v>794</x:v>
       </x:c>
-      <x:c r="F80" s="1" t="s">
+      <x:c r="F80" s="0" t="s">
         <x:v>795</x:v>
       </x:c>
-      <x:c r="G80" s="1" t="s">
+      <x:c r="G80" s="0" t="s">
         <x:v>796</x:v>
       </x:c>
-      <x:c r="H80" s="1" t="s">
+      <x:c r="H80" s="0" t="s">
         <x:v>797</x:v>
       </x:c>
-      <x:c r="I80" s="1" t="s">
+      <x:c r="I80" s="0" t="s">
         <x:v>798</x:v>
       </x:c>
-      <x:c r="J80" s="1" t="s">
+      <x:c r="J80" s="0" t="s">
         <x:v>799</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:10">
-      <x:c r="A81" s="1" t="s">
+      <x:c r="A81" s="0" t="s">
         <x:v>800</x:v>
       </x:c>
-      <x:c r="B81" s="1" t="s">
+      <x:c r="B81" s="0" t="s">
         <x:v>801</x:v>
       </x:c>
-      <x:c r="C81" s="1" t="s">
+      <x:c r="C81" s="0" t="s">
         <x:v>802</x:v>
       </x:c>
-      <x:c r="D81" s="1" t="s">
+      <x:c r="D81" s="0" t="s">
         <x:v>803</x:v>
       </x:c>
-      <x:c r="E81" s="1" t="s">
+      <x:c r="E81" s="0" t="s">
         <x:v>804</x:v>
       </x:c>
-      <x:c r="F81" s="1" t="s">
+      <x:c r="F81" s="0" t="s">
         <x:v>805</x:v>
       </x:c>
-      <x:c r="G81" s="1" t="s">
+      <x:c r="G81" s="0" t="s">
         <x:v>806</x:v>
       </x:c>
-      <x:c r="H81" s="1" t="s">
+      <x:c r="H81" s="0" t="s">
         <x:v>807</x:v>
       </x:c>
-      <x:c r="I81" s="1" t="s">
+      <x:c r="I81" s="0" t="s">
         <x:v>808</x:v>
       </x:c>
-      <x:c r="J81" s="1" t="s">
+      <x:c r="J81" s="0" t="s">
         <x:v>809</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:10">
-      <x:c r="A82" s="1" t="s">
+      <x:c r="A82" s="0" t="s">
         <x:v>810</x:v>
       </x:c>
-      <x:c r="B82" s="1" t="s">
+      <x:c r="B82" s="0" t="s">
         <x:v>811</x:v>
       </x:c>
-      <x:c r="C82" s="1" t="s">
+      <x:c r="C82" s="0" t="s">
         <x:v>812</x:v>
       </x:c>
-      <x:c r="D82" s="1" t="s">
+      <x:c r="D82" s="0" t="s">
         <x:v>813</x:v>
       </x:c>
-      <x:c r="E82" s="1" t="s">
+      <x:c r="E82" s="0" t="s">
         <x:v>814</x:v>
       </x:c>
-      <x:c r="F82" s="1" t="s">
+      <x:c r="F82" s="0" t="s">
         <x:v>815</x:v>
       </x:c>
-      <x:c r="G82" s="1" t="s">
+      <x:c r="G82" s="0" t="s">
         <x:v>816</x:v>
       </x:c>
-      <x:c r="H82" s="1" t="s">
+      <x:c r="H82" s="0" t="s">
         <x:v>817</x:v>
       </x:c>
-      <x:c r="I82" s="1" t="s">
+      <x:c r="I82" s="0" t="s">
         <x:v>818</x:v>
       </x:c>
-      <x:c r="J82" s="1" t="s">
+      <x:c r="J82" s="0" t="s">
         <x:v>819</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:10">
-      <x:c r="A83" s="1" t="s">
+      <x:c r="A83" s="0" t="s">
         <x:v>820</x:v>
       </x:c>
-      <x:c r="B83" s="1" t="s">
+      <x:c r="B83" s="0" t="s">
         <x:v>821</x:v>
       </x:c>
-      <x:c r="C83" s="1" t="s">
+      <x:c r="C83" s="0" t="s">
         <x:v>822</x:v>
       </x:c>
-      <x:c r="D83" s="1" t="s">
+      <x:c r="D83" s="0" t="s">
         <x:v>823</x:v>
       </x:c>
-      <x:c r="E83" s="1" t="s">
+      <x:c r="E83" s="0" t="s">
         <x:v>824</x:v>
       </x:c>
-      <x:c r="F83" s="1" t="s">
+      <x:c r="F83" s="0" t="s">
         <x:v>825</x:v>
       </x:c>
-      <x:c r="G83" s="1" t="s">
+      <x:c r="G83" s="0" t="s">
         <x:v>826</x:v>
       </x:c>
-      <x:c r="H83" s="1" t="s">
+      <x:c r="H83" s="0" t="s">
         <x:v>827</x:v>
       </x:c>
-      <x:c r="I83" s="1" t="s">
+      <x:c r="I83" s="0" t="s">
         <x:v>828</x:v>
       </x:c>
-      <x:c r="J83" s="1" t="s">
+      <x:c r="J83" s="0" t="s">
         <x:v>829</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:10">
-      <x:c r="A84" s="1" t="s">
+      <x:c r="A84" s="0" t="s">
         <x:v>830</x:v>
       </x:c>
-      <x:c r="B84" s="1" t="s">
+      <x:c r="B84" s="0" t="s">
         <x:v>831</x:v>
       </x:c>
-      <x:c r="C84" s="1" t="s">
+      <x:c r="C84" s="0" t="s">
         <x:v>832</x:v>
       </x:c>
-      <x:c r="D84" s="1" t="s">
+      <x:c r="D84" s="0" t="s">
         <x:v>833</x:v>
       </x:c>
-      <x:c r="E84" s="1" t="s">
+      <x:c r="E84" s="0" t="s">
         <x:v>834</x:v>
       </x:c>
-      <x:c r="F84" s="1" t="s">
+      <x:c r="F84" s="0" t="s">
         <x:v>835</x:v>
       </x:c>
-      <x:c r="G84" s="1" t="s">
+      <x:c r="G84" s="0" t="s">
         <x:v>836</x:v>
       </x:c>
-      <x:c r="H84" s="1" t="s">
+      <x:c r="H84" s="0" t="s">
         <x:v>837</x:v>
       </x:c>
-      <x:c r="I84" s="1" t="s">
+      <x:c r="I84" s="0" t="s">
         <x:v>838</x:v>
       </x:c>
-      <x:c r="J84" s="1" t="s">
+      <x:c r="J84" s="0" t="s">
         <x:v>839</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:10">
-      <x:c r="A85" s="1" t="s">
+      <x:c r="A85" s="0" t="s">
         <x:v>840</x:v>
       </x:c>
-      <x:c r="B85" s="1" t="s">
+      <x:c r="B85" s="0" t="s">
         <x:v>841</x:v>
       </x:c>
-      <x:c r="C85" s="1" t="s">
+      <x:c r="C85" s="0" t="s">
         <x:v>842</x:v>
       </x:c>
-      <x:c r="D85" s="1" t="s">
+      <x:c r="D85" s="0" t="s">
         <x:v>843</x:v>
       </x:c>
-      <x:c r="E85" s="1" t="s">
+      <x:c r="E85" s="0" t="s">
         <x:v>844</x:v>
       </x:c>
-      <x:c r="F85" s="1" t="s">
+      <x:c r="F85" s="0" t="s">
         <x:v>845</x:v>
       </x:c>
-      <x:c r="G85" s="1" t="s">
+      <x:c r="G85" s="0" t="s">
         <x:v>846</x:v>
       </x:c>
-      <x:c r="H85" s="1" t="s">
+      <x:c r="H85" s="0" t="s">
         <x:v>847</x:v>
       </x:c>
-      <x:c r="I85" s="1" t="s">
+      <x:c r="I85" s="0" t="s">
         <x:v>848</x:v>
       </x:c>
-      <x:c r="J85" s="1" t="s">
+      <x:c r="J85" s="0" t="s">
         <x:v>849</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:10">
-      <x:c r="A86" s="1" t="s">
+      <x:c r="A86" s="0" t="s">
         <x:v>850</x:v>
       </x:c>
-      <x:c r="B86" s="1" t="s">
+      <x:c r="B86" s="0" t="s">
         <x:v>851</x:v>
       </x:c>
-      <x:c r="C86" s="1" t="s">
+      <x:c r="C86" s="0" t="s">
         <x:v>852</x:v>
       </x:c>
-      <x:c r="D86" s="1" t="s">
+      <x:c r="D86" s="0" t="s">
         <x:v>853</x:v>
       </x:c>
-      <x:c r="E86" s="1" t="s">
+      <x:c r="E86" s="0" t="s">
         <x:v>854</x:v>
       </x:c>
-      <x:c r="F86" s="1" t="s">
+      <x:c r="F86" s="0" t="s">
         <x:v>855</x:v>
       </x:c>
-      <x:c r="G86" s="1" t="s">
+      <x:c r="G86" s="0" t="s">
         <x:v>856</x:v>
       </x:c>
-      <x:c r="H86" s="1" t="s">
+      <x:c r="H86" s="0" t="s">
         <x:v>857</x:v>
       </x:c>
-      <x:c r="I86" s="1" t="s">
+      <x:c r="I86" s="0" t="s">
         <x:v>858</x:v>
       </x:c>
-      <x:c r="J86" s="1" t="s">
+      <x:c r="J86" s="0" t="s">
         <x:v>859</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:10">
-      <x:c r="A87" s="1" t="s">
+      <x:c r="A87" s="0" t="s">
         <x:v>860</x:v>
       </x:c>
-      <x:c r="B87" s="1" t="s">
+      <x:c r="B87" s="0" t="s">
         <x:v>861</x:v>
       </x:c>
-      <x:c r="C87" s="1" t="s">
+      <x:c r="C87" s="0" t="s">
         <x:v>862</x:v>
       </x:c>
-      <x:c r="D87" s="1" t="s">
+      <x:c r="D87" s="0" t="s">
         <x:v>863</x:v>
       </x:c>
-      <x:c r="E87" s="1" t="s">
+      <x:c r="E87" s="0" t="s">
         <x:v>864</x:v>
       </x:c>
-      <x:c r="F87" s="1" t="s">
+      <x:c r="F87" s="0" t="s">
         <x:v>865</x:v>
       </x:c>
-      <x:c r="G87" s="1" t="s">
+      <x:c r="G87" s="0" t="s">
         <x:v>866</x:v>
       </x:c>
-      <x:c r="H87" s="1" t="s">
+      <x:c r="H87" s="0" t="s">
         <x:v>867</x:v>
       </x:c>
-      <x:c r="I87" s="1" t="s">
+      <x:c r="I87" s="0" t="s">
         <x:v>868</x:v>
       </x:c>
-      <x:c r="J87" s="1" t="s">
+      <x:c r="J87" s="0" t="s">
         <x:v>869</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:10">
-      <x:c r="A88" s="1" t="s">
+      <x:c r="A88" s="0" t="s">
         <x:v>870</x:v>
       </x:c>
-      <x:c r="B88" s="1" t="s">
+      <x:c r="B88" s="0" t="s">
         <x:v>871</x:v>
       </x:c>
-      <x:c r="C88" s="1" t="s">
+      <x:c r="C88" s="0" t="s">
         <x:v>872</x:v>
       </x:c>
-      <x:c r="D88" s="1" t="s">
+      <x:c r="D88" s="0" t="s">
         <x:v>873</x:v>
       </x:c>
-      <x:c r="E88" s="1" t="s">
+      <x:c r="E88" s="0" t="s">
         <x:v>874</x:v>
       </x:c>
-      <x:c r="F88" s="1" t="s">
+      <x:c r="F88" s="0" t="s">
         <x:v>875</x:v>
       </x:c>
-      <x:c r="G88" s="1" t="s">
+      <x:c r="G88" s="0" t="s">
         <x:v>876</x:v>
       </x:c>
-      <x:c r="H88" s="1" t="s">
+      <x:c r="H88" s="0" t="s">
         <x:v>877</x:v>
       </x:c>
-      <x:c r="I88" s="1" t="s">
+      <x:c r="I88" s="0" t="s">
         <x:v>878</x:v>
       </x:c>
-      <x:c r="J88" s="1" t="s">
+      <x:c r="J88" s="0" t="s">
         <x:v>879</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:10">
-      <x:c r="A89" s="1" t="s">
+      <x:c r="A89" s="0" t="s">
         <x:v>880</x:v>
       </x:c>
-      <x:c r="B89" s="1" t="s">
+      <x:c r="B89" s="0" t="s">
         <x:v>881</x:v>
       </x:c>
-      <x:c r="C89" s="1" t="s">
+      <x:c r="C89" s="0" t="s">
         <x:v>882</x:v>
       </x:c>
-      <x:c r="D89" s="1" t="s">
+      <x:c r="D89" s="0" t="s">
         <x:v>883</x:v>
       </x:c>
-      <x:c r="E89" s="1" t="s">
+      <x:c r="E89" s="0" t="s">
         <x:v>884</x:v>
       </x:c>
-      <x:c r="F89" s="1" t="s">
+      <x:c r="F89" s="0" t="s">
         <x:v>885</x:v>
       </x:c>
-      <x:c r="G89" s="1" t="s">
+      <x:c r="G89" s="0" t="s">
         <x:v>886</x:v>
       </x:c>
-      <x:c r="H89" s="1" t="s">
+      <x:c r="H89" s="0" t="s">
         <x:v>887</x:v>
       </x:c>
-      <x:c r="I89" s="1" t="s">
+      <x:c r="I89" s="0" t="s">
         <x:v>888</x:v>
       </x:c>
-      <x:c r="J89" s="1" t="s">
+      <x:c r="J89" s="0" t="s">
         <x:v>889</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:10">
-      <x:c r="A90" s="1" t="s">
+      <x:c r="A90" s="0" t="s">
         <x:v>890</x:v>
       </x:c>
-      <x:c r="B90" s="1" t="s">
+      <x:c r="B90" s="0" t="s">
         <x:v>891</x:v>
       </x:c>
-      <x:c r="C90" s="1" t="s">
+      <x:c r="C90" s="0" t="s">
         <x:v>892</x:v>
       </x:c>
-      <x:c r="D90" s="1" t="s">
+      <x:c r="D90" s="0" t="s">
         <x:v>893</x:v>
       </x:c>
-      <x:c r="E90" s="1" t="s">
+      <x:c r="E90" s="0" t="s">
         <x:v>894</x:v>
       </x:c>
-      <x:c r="F90" s="1" t="s">
+      <x:c r="F90" s="0" t="s">
         <x:v>895</x:v>
       </x:c>
-      <x:c r="G90" s="1" t="s">
+      <x:c r="G90" s="0" t="s">
         <x:v>896</x:v>
       </x:c>
-      <x:c r="H90" s="1" t="s">
+      <x:c r="H90" s="0" t="s">
         <x:v>897</x:v>
       </x:c>
-      <x:c r="I90" s="1" t="s">
+      <x:c r="I90" s="0" t="s">
         <x:v>898</x:v>
       </x:c>
-      <x:c r="J90" s="1" t="s">
+      <x:c r="J90" s="0" t="s">
         <x:v>899</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:10">
-      <x:c r="A91" s="1" t="s">
+      <x:c r="A91" s="0" t="s">
         <x:v>900</x:v>
       </x:c>
-      <x:c r="B91" s="1" t="s">
+      <x:c r="B91" s="0" t="s">
         <x:v>901</x:v>
       </x:c>
-      <x:c r="C91" s="1" t="s">
+      <x:c r="C91" s="0" t="s">
         <x:v>902</x:v>
       </x:c>
-      <x:c r="D91" s="1" t="s">
+      <x:c r="D91" s="0" t="s">
         <x:v>903</x:v>
       </x:c>
-      <x:c r="E91" s="1" t="s">
+      <x:c r="E91" s="0" t="s">
         <x:v>904</x:v>
       </x:c>
-      <x:c r="F91" s="1" t="s">
+      <x:c r="F91" s="0" t="s">
         <x:v>905</x:v>
       </x:c>
-      <x:c r="G91" s="1" t="s">
+      <x:c r="G91" s="0" t="s">
         <x:v>906</x:v>
       </x:c>
-      <x:c r="H91" s="1" t="s">
+      <x:c r="H91" s="0" t="s">
         <x:v>907</x:v>
       </x:c>
-      <x:c r="I91" s="1" t="s">
+      <x:c r="I91" s="0" t="s">
         <x:v>908</x:v>
       </x:c>
-      <x:c r="J91" s="1" t="s">
+      <x:c r="J91" s="0" t="s">
         <x:v>909</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:10">
-      <x:c r="A92" s="1" t="s">
+      <x:c r="A92" s="0" t="s">
         <x:v>910</x:v>
       </x:c>
-      <x:c r="B92" s="1" t="s">
+      <x:c r="B92" s="0" t="s">
         <x:v>911</x:v>
       </x:c>
-      <x:c r="C92" s="1" t="s">
+      <x:c r="C92" s="0" t="s">
         <x:v>912</x:v>
       </x:c>
-      <x:c r="D92" s="1" t="s">
+      <x:c r="D92" s="0" t="s">
         <x:v>913</x:v>
       </x:c>
-      <x:c r="E92" s="1" t="s">
+      <x:c r="E92" s="0" t="s">
         <x:v>914</x:v>
       </x:c>
-      <x:c r="F92" s="1" t="s">
+      <x:c r="F92" s="0" t="s">
         <x:v>915</x:v>
       </x:c>
-      <x:c r="G92" s="1" t="s">
+      <x:c r="G92" s="0" t="s">
         <x:v>916</x:v>
       </x:c>
-      <x:c r="H92" s="1" t="s">
+      <x:c r="H92" s="0" t="s">
         <x:v>917</x:v>
       </x:c>
-      <x:c r="I92" s="1" t="s">
+      <x:c r="I92" s="0" t="s">
         <x:v>918</x:v>
       </x:c>
-      <x:c r="J92" s="1" t="s">
+      <x:c r="J92" s="0" t="s">
         <x:v>919</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:10">
-      <x:c r="A93" s="1" t="s">
+      <x:c r="A93" s="0" t="s">
         <x:v>920</x:v>
       </x:c>
-      <x:c r="B93" s="1" t="s">
+      <x:c r="B93" s="0" t="s">
         <x:v>921</x:v>
       </x:c>
-      <x:c r="C93" s="1" t="s">
+      <x:c r="C93" s="0" t="s">
         <x:v>922</x:v>
       </x:c>
-      <x:c r="D93" s="1" t="s">
+      <x:c r="D93" s="0" t="s">
         <x:v>923</x:v>
       </x:c>
-      <x:c r="E93" s="1" t="s">
+      <x:c r="E93" s="0" t="s">
         <x:v>924</x:v>
       </x:c>
-      <x:c r="F93" s="1" t="s">
+      <x:c r="F93" s="0" t="s">
         <x:v>925</x:v>
       </x:c>
-      <x:c r="G93" s="1" t="s">
+      <x:c r="G93" s="0" t="s">
         <x:v>926</x:v>
       </x:c>
-      <x:c r="H93" s="1" t="s">
+      <x:c r="H93" s="0" t="s">
         <x:v>927</x:v>
       </x:c>
-      <x:c r="I93" s="1" t="s">
+      <x:c r="I93" s="0" t="s">
         <x:v>928</x:v>
       </x:c>
-      <x:c r="J93" s="1" t="s">
+      <x:c r="J93" s="0" t="s">
         <x:v>929</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:10">
-      <x:c r="A94" s="1" t="s">
+      <x:c r="A94" s="0" t="s">
         <x:v>930</x:v>
       </x:c>
-      <x:c r="B94" s="1" t="s">
+      <x:c r="B94" s="0" t="s">
         <x:v>931</x:v>
       </x:c>
-      <x:c r="C94" s="1" t="s">
+      <x:c r="C94" s="0" t="s">
         <x:v>932</x:v>
       </x:c>
-      <x:c r="D94" s="1" t="s">
+      <x:c r="D94" s="0" t="s">
         <x:v>933</x:v>
       </x:c>
-      <x:c r="E94" s="1" t="s">
+      <x:c r="E94" s="0" t="s">
         <x:v>934</x:v>
       </x:c>
-      <x:c r="F94" s="1" t="s">
+      <x:c r="F94" s="0" t="s">
         <x:v>935</x:v>
       </x:c>
-      <x:c r="G94" s="1" t="s">
+      <x:c r="G94" s="0" t="s">
         <x:v>936</x:v>
       </x:c>
-      <x:c r="H94" s="1" t="s">
+      <x:c r="H94" s="0" t="s">
         <x:v>937</x:v>
       </x:c>
-      <x:c r="I94" s="1" t="s">
+      <x:c r="I94" s="0" t="s">
         <x:v>938</x:v>
       </x:c>
-      <x:c r="J94" s="1" t="s">
+      <x:c r="J94" s="0" t="s">
         <x:v>939</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:10">
-      <x:c r="A95" s="1" t="s">
+      <x:c r="A95" s="0" t="s">
         <x:v>940</x:v>
       </x:c>
-      <x:c r="B95" s="1" t="s">
+      <x:c r="B95" s="0" t="s">
         <x:v>941</x:v>
       </x:c>
-      <x:c r="C95" s="1" t="s">
+      <x:c r="C95" s="0" t="s">
         <x:v>942</x:v>
       </x:c>
-      <x:c r="D95" s="1" t="s">
+      <x:c r="D95" s="0" t="s">
         <x:v>943</x:v>
       </x:c>
-      <x:c r="E95" s="1" t="s">
+      <x:c r="E95" s="0" t="s">
         <x:v>944</x:v>
       </x:c>
-      <x:c r="F95" s="1" t="s">
+      <x:c r="F95" s="0" t="s">
         <x:v>945</x:v>
       </x:c>
-      <x:c r="G95" s="1" t="s">
+      <x:c r="G95" s="0" t="s">
         <x:v>946</x:v>
       </x:c>
-      <x:c r="H95" s="1" t="s">
+      <x:c r="H95" s="0" t="s">
         <x:v>947</x:v>
       </x:c>
-      <x:c r="I95" s="1" t="s">
+      <x:c r="I95" s="0" t="s">
         <x:v>948</x:v>
       </x:c>
-      <x:c r="J95" s="1" t="s">
+      <x:c r="J95" s="0" t="s">
         <x:v>949</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:10">
-      <x:c r="A96" s="1" t="s">
+      <x:c r="A96" s="0" t="s">
         <x:v>950</x:v>
       </x:c>
-      <x:c r="B96" s="1" t="s">
+      <x:c r="B96" s="0" t="s">
         <x:v>951</x:v>
       </x:c>
-      <x:c r="C96" s="1" t="s">
+      <x:c r="C96" s="0" t="s">
         <x:v>952</x:v>
       </x:c>
-      <x:c r="D96" s="1" t="s">
+      <x:c r="D96" s="0" t="s">
         <x:v>953</x:v>
       </x:c>
-      <x:c r="E96" s="1" t="s">
+      <x:c r="E96" s="0" t="s">
         <x:v>954</x:v>
       </x:c>
-      <x:c r="F96" s="1" t="s">
+      <x:c r="F96" s="0" t="s">
         <x:v>955</x:v>
       </x:c>
-      <x:c r="G96" s="1" t="s">
+      <x:c r="G96" s="0" t="s">
         <x:v>956</x:v>
       </x:c>
-      <x:c r="H96" s="1" t="s">
+      <x:c r="H96" s="0" t="s">
         <x:v>957</x:v>
       </x:c>
-      <x:c r="I96" s="1" t="s">
+      <x:c r="I96" s="0" t="s">
         <x:v>958</x:v>
       </x:c>
-      <x:c r="J96" s="1" t="s">
+      <x:c r="J96" s="0" t="s">
         <x:v>959</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:10">
-      <x:c r="A97" s="1" t="s">
+      <x:c r="A97" s="0" t="s">
         <x:v>960</x:v>
       </x:c>
-      <x:c r="B97" s="1" t="s">
+      <x:c r="B97" s="0" t="s">
         <x:v>961</x:v>
       </x:c>
-      <x:c r="C97" s="1" t="s">
+      <x:c r="C97" s="0" t="s">
         <x:v>962</x:v>
       </x:c>
-      <x:c r="D97" s="1" t="s">
+      <x:c r="D97" s="0" t="s">
         <x:v>963</x:v>
       </x:c>
-      <x:c r="E97" s="1" t="s">
+      <x:c r="E97" s="0" t="s">
         <x:v>964</x:v>
       </x:c>
-      <x:c r="F97" s="1" t="s">
+      <x:c r="F97" s="0" t="s">
         <x:v>965</x:v>
       </x:c>
-      <x:c r="G97" s="1" t="s">
+      <x:c r="G97" s="0" t="s">
         <x:v>966</x:v>
       </x:c>
-      <x:c r="H97" s="1" t="s">
+      <x:c r="H97" s="0" t="s">
         <x:v>967</x:v>
       </x:c>
-      <x:c r="I97" s="1" t="s">
+      <x:c r="I97" s="0" t="s">
         <x:v>968</x:v>
       </x:c>
-      <x:c r="J97" s="1" t="s">
+      <x:c r="J97" s="0" t="s">
         <x:v>969</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:10">
-      <x:c r="A98" s="1" t="s">
+      <x:c r="A98" s="0" t="s">
         <x:v>970</x:v>
       </x:c>
-      <x:c r="B98" s="1" t="s">
+      <x:c r="B98" s="0" t="s">
         <x:v>971</x:v>
       </x:c>
-      <x:c r="C98" s="1" t="s">
+      <x:c r="C98" s="0" t="s">
         <x:v>972</x:v>
       </x:c>
-      <x:c r="D98" s="1" t="s">
+      <x:c r="D98" s="0" t="s">
         <x:v>973</x:v>
       </x:c>
-      <x:c r="E98" s="1" t="s">
+      <x:c r="E98" s="0" t="s">
         <x:v>974</x:v>
       </x:c>
-      <x:c r="F98" s="1" t="s">
+      <x:c r="F98" s="0" t="s">
         <x:v>975</x:v>
       </x:c>
-      <x:c r="G98" s="1" t="s">
+      <x:c r="G98" s="0" t="s">
         <x:v>976</x:v>
       </x:c>
-      <x:c r="H98" s="1" t="s">
+      <x:c r="H98" s="0" t="s">
         <x:v>977</x:v>
       </x:c>
-      <x:c r="I98" s="1" t="s">
+      <x:c r="I98" s="0" t="s">
         <x:v>978</x:v>
       </x:c>
-      <x:c r="J98" s="1" t="s">
+      <x:c r="J98" s="0" t="s">
         <x:v>979</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:10">
-      <x:c r="A99" s="1" t="s">
+      <x:c r="A99" s="0" t="s">
         <x:v>980</x:v>
       </x:c>
-      <x:c r="B99" s="1" t="s">
+      <x:c r="B99" s="0" t="s">
         <x:v>981</x:v>
       </x:c>
-      <x:c r="C99" s="1" t="s">
+      <x:c r="C99" s="0" t="s">
         <x:v>982</x:v>
       </x:c>
-      <x:c r="D99" s="1" t="s">
+      <x:c r="D99" s="0" t="s">
         <x:v>983</x:v>
       </x:c>
-      <x:c r="E99" s="1" t="s">
+      <x:c r="E99" s="0" t="s">
         <x:v>984</x:v>
       </x:c>
-      <x:c r="F99" s="1" t="s">
+      <x:c r="F99" s="0" t="s">
         <x:v>985</x:v>
       </x:c>
-      <x:c r="G99" s="1" t="s">
+      <x:c r="G99" s="0" t="s">
         <x:v>986</x:v>
       </x:c>
-      <x:c r="H99" s="1" t="s">
+      <x:c r="H99" s="0" t="s">
         <x:v>987</x:v>
       </x:c>
-      <x:c r="I99" s="1" t="s">
+      <x:c r="I99" s="0" t="s">
         <x:v>988</x:v>
       </x:c>
-      <x:c r="J99" s="1" t="s">
+      <x:c r="J99" s="0" t="s">
         <x:v>989</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:10">
-      <x:c r="A100" s="1" t="s">
+      <x:c r="A100" s="0" t="s">
         <x:v>990</x:v>
       </x:c>
-      <x:c r="B100" s="1" t="s">
+      <x:c r="B100" s="0" t="s">
         <x:v>991</x:v>
       </x:c>
-      <x:c r="C100" s="1" t="s">
+      <x:c r="C100" s="0" t="s">
         <x:v>992</x:v>
       </x:c>
-      <x:c r="D100" s="1" t="s">
+      <x:c r="D100" s="0" t="s">
         <x:v>993</x:v>
       </x:c>
-      <x:c r="E100" s="1" t="s">
+      <x:c r="E100" s="0" t="s">
         <x:v>994</x:v>
       </x:c>
-      <x:c r="F100" s="1" t="s">
+      <x:c r="F100" s="0" t="s">
         <x:v>995</x:v>
       </x:c>
-      <x:c r="G100" s="1" t="s">
+      <x:c r="G100" s="0" t="s">
         <x:v>996</x:v>
       </x:c>
-      <x:c r="H100" s="1" t="s">
+      <x:c r="H100" s="0" t="s">
         <x:v>997</x:v>
       </x:c>
-      <x:c r="I100" s="1" t="s">
+      <x:c r="I100" s="0" t="s">
         <x:v>998</x:v>
       </x:c>
-      <x:c r="J100" s="1" t="s">
+      <x:c r="J100" s="0" t="s">
         <x:v>999</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/PageSetup/TwoPages.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/PageSetup/TwoPages.xlsx
@@ -6575,14 +6575,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/PageSetup/TwoPages.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/PageSetup/TwoPages.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/PageSetup/TwoPages.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/PageSetup/TwoPages.xlsx
@@ -3023,7 +3023,14 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="2">
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/PageSetup/TwoPages.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/PageSetup/TwoPages.xlsx
@@ -3374,7 +3374,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:J100"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/PageSetup/TwoPages.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/PageSetup/TwoPages.xlsx
@@ -3067,12 +3067,12 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
